--- a/StructureDefinition-questionnaire-s37.xlsx
+++ b/StructureDefinition-questionnaire-s37.xlsx
@@ -1020,7 +1020,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Extension : Settings </t>
+    <t xml:space="preserve">Extension : Item Settings </t>
   </si>
   <si>
     <t xml:space="preserve">Extension : Questionnaire.item.settings </t>

--- a/StructureDefinition-questionnaire-s37.xlsx
+++ b/StructureDefinition-questionnaire-s37.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2501" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2501" uniqueCount="467">
   <si>
     <t>Property</t>
   </si>
@@ -539,6 +539,9 @@
   </si>
   <si>
     <t>There may be different questionnaire instances that have the same identifier but different versions.  The version can be appended to the url in a reference to allow a reference to a particular business version of the questionnaire with the format [url]|[version].</t>
+  </si>
+  <si>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Definition.version</t>
@@ -3336,7 +3339,7 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>83</v>
@@ -3371,7 +3374,7 @@
         <v>77</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="S14" t="s" s="2">
         <v>77</v>
@@ -3425,13 +3428,13 @@
         <v>95</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>77</v>
@@ -3442,7 +3445,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3468,16 +3471,16 @@
         <v>85</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>77</v>
@@ -3526,7 +3529,7 @@
         <v>77</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>75</v>
@@ -3535,7 +3538,7 @@
         <v>83</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>95</v>
@@ -3558,7 +3561,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3584,13 +3587,13 @@
         <v>85</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3640,7 +3643,7 @@
         <v>77</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>75</v>
@@ -3655,10 +3658,10 @@
         <v>95</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>77</v>
@@ -3672,7 +3675,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3695,17 +3698,17 @@
         <v>77</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>77</v>
@@ -3754,7 +3757,7 @@
         <v>77</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>75</v>
@@ -3769,10 +3772,10 @@
         <v>95</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>77</v>
@@ -3786,7 +3789,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3812,13 +3815,13 @@
         <v>103</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3844,13 +3847,13 @@
         <v>77</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>77</v>
@@ -3868,7 +3871,7 @@
         <v>77</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>83</v>
@@ -3883,13 +3886,13 @@
         <v>95</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>77</v>
@@ -3900,7 +3903,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3923,19 +3926,19 @@
         <v>84</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>77</v>
@@ -3984,7 +3987,7 @@
         <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>75</v>
@@ -3999,13 +4002,13 @@
         <v>95</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>126</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>77</v>
@@ -4016,7 +4019,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4042,13 +4045,13 @@
         <v>103</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -4074,13 +4077,13 @@
         <v>77</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>77</v>
@@ -4098,7 +4101,7 @@
         <v>77</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>75</v>
@@ -4113,10 +4116,10 @@
         <v>95</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>77</v>
@@ -4130,11 +4133,11 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -4153,16 +4156,16 @@
         <v>84</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4212,7 +4215,7 @@
         <v>77</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>75</v>
@@ -4227,13 +4230,13 @@
         <v>95</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>77</v>
@@ -4244,7 +4247,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4270,16 +4273,16 @@
         <v>85</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>77</v>
@@ -4328,7 +4331,7 @@
         <v>77</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>75</v>
@@ -4343,13 +4346,13 @@
         <v>95</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>77</v>
@@ -4360,7 +4363,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4383,16 +4386,16 @@
         <v>84</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4442,7 +4445,7 @@
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>75</v>
@@ -4457,10 +4460,10 @@
         <v>95</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>77</v>
@@ -4474,7 +4477,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4497,16 +4500,16 @@
         <v>77</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4556,7 +4559,7 @@
         <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>75</v>
@@ -4571,10 +4574,10 @@
         <v>95</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>77</v>
@@ -4588,7 +4591,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4611,19 +4614,19 @@
         <v>84</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>77</v>
@@ -4672,7 +4675,7 @@
         <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>75</v>
@@ -4687,10 +4690,10 @@
         <v>95</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>77</v>
@@ -4704,7 +4707,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4727,16 +4730,16 @@
         <v>84</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4762,13 +4765,13 @@
         <v>77</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>77</v>
@@ -4786,7 +4789,7 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>75</v>
@@ -4801,10 +4804,10 @@
         <v>95</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>77</v>
@@ -4818,7 +4821,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4841,16 +4844,16 @@
         <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4900,7 +4903,7 @@
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>75</v>
@@ -4915,13 +4918,13 @@
         <v>95</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>163</v>
@@ -4932,11 +4935,11 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4955,17 +4958,17 @@
         <v>77</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>77</v>
@@ -5014,7 +5017,7 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>75</v>
@@ -5029,10 +5032,10 @@
         <v>95</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>
@@ -5046,7 +5049,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5069,16 +5072,16 @@
         <v>77</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5128,7 +5131,7 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>75</v>
@@ -5143,10 +5146,10 @@
         <v>95</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>77</v>
@@ -5160,7 +5163,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5183,19 +5186,19 @@
         <v>77</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>77</v>
@@ -5244,7 +5247,7 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>75</v>
@@ -5259,10 +5262,10 @@
         <v>95</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>77</v>
@@ -5276,7 +5279,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5299,19 +5302,19 @@
         <v>84</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>77</v>
@@ -5360,7 +5363,7 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>75</v>
@@ -5375,10 +5378,10 @@
         <v>95</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>77</v>
@@ -5392,7 +5395,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5415,17 +5418,17 @@
         <v>84</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>77</v>
@@ -5450,13 +5453,13 @@
         <v>77</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>77</v>
@@ -5474,7 +5477,7 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>75</v>
@@ -5492,7 +5495,7 @@
         <v>77</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>77</v>
@@ -5506,7 +5509,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5529,16 +5532,16 @@
         <v>77</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5588,7 +5591,7 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>75</v>
@@ -5597,16 +5600,16 @@
         <v>76</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>77</v>
@@ -5620,7 +5623,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5646,10 +5649,10 @@
         <v>85</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5700,7 +5703,7 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>75</v>
@@ -5718,7 +5721,7 @@
         <v>77</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>77</v>
@@ -5732,7 +5735,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5810,7 +5813,7 @@
         <v>132</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>75</v>
@@ -5842,10 +5845,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C36" t="s" s="2">
         <v>77</v>
@@ -5867,13 +5870,13 @@
         <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5924,7 +5927,7 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>75</v>
@@ -5956,11 +5959,11 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5982,10 +5985,10 @@
         <v>128</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M37" t="s" s="2">
         <v>144</v>
@@ -6040,7 +6043,7 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>75</v>
@@ -6072,7 +6075,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6098,16 +6101,16 @@
         <v>85</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>77</v>
@@ -6156,7 +6159,7 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>83</v>
@@ -6174,7 +6177,7 @@
         <v>77</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>77</v>
@@ -6188,7 +6191,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6214,16 +6217,16 @@
         <v>97</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>77</v>
@@ -6272,7 +6275,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>75</v>
@@ -6290,7 +6293,7 @@
         <v>77</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>77</v>
@@ -6304,7 +6307,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6327,19 +6330,19 @@
         <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>77</v>
@@ -6364,13 +6367,13 @@
         <v>77</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>77</v>
@@ -6388,7 +6391,7 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>75</v>
@@ -6397,7 +6400,7 @@
         <v>76</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>95</v>
@@ -6406,7 +6409,7 @@
         <v>77</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>77</v>
@@ -6420,11 +6423,11 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6446,16 +6449,16 @@
         <v>85</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>77</v>
@@ -6504,7 +6507,7 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>75</v>
@@ -6522,7 +6525,7 @@
         <v>77</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>77</v>
@@ -6536,7 +6539,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6562,13 +6565,13 @@
         <v>85</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6618,7 +6621,7 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>75</v>
@@ -6636,7 +6639,7 @@
         <v>77</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>77</v>
@@ -6650,7 +6653,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6676,16 +6679,16 @@
         <v>103</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>77</v>
@@ -6710,13 +6713,13 @@
         <v>77</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>77</v>
@@ -6734,7 +6737,7 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>83</v>
@@ -6752,7 +6755,7 @@
         <v>77</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>77</v>
@@ -6766,7 +6769,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6789,19 +6792,19 @@
         <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>77</v>
@@ -6850,7 +6853,7 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>75</v>
@@ -6862,13 +6865,13 @@
         <v>77</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>77</v>
@@ -6882,7 +6885,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6908,10 +6911,10 @@
         <v>85</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6962,7 +6965,7 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>75</v>
@@ -6980,7 +6983,7 @@
         <v>77</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>77</v>
@@ -6994,7 +6997,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7020,10 +7023,10 @@
         <v>128</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>144</v>
@@ -7076,7 +7079,7 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>75</v>
@@ -7094,7 +7097,7 @@
         <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>77</v>
@@ -7108,11 +7111,11 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7134,10 +7137,10 @@
         <v>128</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M47" t="s" s="2">
         <v>144</v>
@@ -7192,7 +7195,7 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>75</v>
@@ -7224,7 +7227,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7250,13 +7253,13 @@
         <v>85</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7306,7 +7309,7 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>83</v>
@@ -7324,7 +7327,7 @@
         <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>77</v>
@@ -7338,7 +7341,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7364,10 +7367,10 @@
         <v>103</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7394,13 +7397,13 @@
         <v>77</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>77</v>
@@ -7418,7 +7421,7 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>83</v>
@@ -7436,7 +7439,7 @@
         <v>77</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>77</v>
@@ -7450,7 +7453,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7473,13 +7476,13 @@
         <v>77</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7506,13 +7509,13 @@
         <v>77</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>77</v>
@@ -7530,7 +7533,7 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>83</v>
@@ -7539,7 +7542,7 @@
         <v>83</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>95</v>
@@ -7548,7 +7551,7 @@
         <v>77</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>77</v>
@@ -7562,7 +7565,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7588,13 +7591,13 @@
         <v>103</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7620,13 +7623,13 @@
         <v>77</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>77</v>
@@ -7644,7 +7647,7 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>75</v>
@@ -7653,7 +7656,7 @@
         <v>83</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>95</v>
@@ -7662,7 +7665,7 @@
         <v>77</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>77</v>
@@ -7676,7 +7679,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7699,23 +7702,23 @@
         <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P52" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q52" t="s" s="2">
         <v>77</v>
@@ -7760,7 +7763,7 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>75</v>
@@ -7769,7 +7772,7 @@
         <v>83</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>95</v>
@@ -7778,7 +7781,7 @@
         <v>77</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>77</v>
@@ -7792,7 +7795,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7815,79 +7818,79 @@
         <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P53" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="Q53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE53" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="L53" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P53" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="Q53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE53" t="s" s="2">
+      <c r="AF53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH53" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>403</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>95</v>
@@ -7896,7 +7899,7 @@
         <v>77</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>77</v>
@@ -7910,7 +7913,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7933,19 +7936,19 @@
         <v>77</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>77</v>
@@ -7994,7 +7997,7 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>75</v>
@@ -8003,7 +8006,7 @@
         <v>83</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>95</v>
@@ -8012,7 +8015,7 @@
         <v>77</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>77</v>
@@ -8026,7 +8029,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8049,16 +8052,16 @@
         <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8108,7 +8111,7 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>75</v>
@@ -8117,7 +8120,7 @@
         <v>83</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>95</v>
@@ -8126,7 +8129,7 @@
         <v>77</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>77</v>
@@ -8140,7 +8143,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8163,16 +8166,16 @@
         <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8222,7 +8225,7 @@
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>75</v>
@@ -8231,7 +8234,7 @@
         <v>83</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>95</v>
@@ -8240,7 +8243,7 @@
         <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>77</v>
@@ -8254,7 +8257,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8277,16 +8280,16 @@
         <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8336,7 +8339,7 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>75</v>
@@ -8345,7 +8348,7 @@
         <v>76</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>95</v>
@@ -8354,7 +8357,7 @@
         <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
@@ -8368,7 +8371,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8394,10 +8397,10 @@
         <v>85</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8448,7 +8451,7 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>75</v>
@@ -8466,7 +8469,7 @@
         <v>77</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -8480,7 +8483,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8506,10 +8509,10 @@
         <v>128</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M59" t="s" s="2">
         <v>144</v>
@@ -8562,7 +8565,7 @@
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>75</v>
@@ -8580,7 +8583,7 @@
         <v>77</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>77</v>
@@ -8594,11 +8597,11 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8620,10 +8623,10 @@
         <v>128</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M60" t="s" s="2">
         <v>144</v>
@@ -8678,7 +8681,7 @@
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>75</v>
@@ -8710,7 +8713,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8733,16 +8736,16 @@
         <v>77</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -8768,13 +8771,13 @@
         <v>77</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>77</v>
@@ -8792,7 +8795,7 @@
         <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>83</v>
@@ -8810,7 +8813,7 @@
         <v>77</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>77</v>
@@ -8824,7 +8827,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8847,23 +8850,23 @@
         <v>77</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P62" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="Q62" t="s" s="2">
         <v>77</v>
@@ -8908,7 +8911,7 @@
         <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>75</v>
@@ -8926,7 +8929,7 @@
         <v>77</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>77</v>
@@ -8940,7 +8943,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8963,19 +8966,19 @@
         <v>77</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>77</v>
@@ -9024,7 +9027,7 @@
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>75</v>
@@ -9033,7 +9036,7 @@
         <v>76</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>95</v>
@@ -9042,7 +9045,7 @@
         <v>77</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>77</v>
@@ -9056,7 +9059,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9082,10 +9085,10 @@
         <v>85</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9136,7 +9139,7 @@
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>75</v>
@@ -9154,7 +9157,7 @@
         <v>77</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>77</v>
@@ -9168,7 +9171,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9194,10 +9197,10 @@
         <v>128</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M65" t="s" s="2">
         <v>144</v>
@@ -9250,7 +9253,7 @@
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>75</v>
@@ -9268,7 +9271,7 @@
         <v>77</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>77</v>
@@ -9282,11 +9285,11 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9308,10 +9311,10 @@
         <v>128</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M66" t="s" s="2">
         <v>144</v>
@@ -9366,7 +9369,7 @@
         <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>75</v>
@@ -9398,7 +9401,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9421,16 +9424,16 @@
         <v>77</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -9456,13 +9459,13 @@
         <v>77</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>77</v>
@@ -9480,7 +9483,7 @@
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>83</v>
@@ -9498,7 +9501,7 @@
         <v>77</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>77</v>
@@ -9512,7 +9515,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9538,16 +9541,16 @@
         <v>77</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>77</v>
@@ -9596,7 +9599,7 @@
         <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>75</v>
@@ -9605,7 +9608,7 @@
         <v>76</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>95</v>
@@ -9614,7 +9617,7 @@
         <v>77</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>77</v>

--- a/StructureDefinition-questionnaire-s37.xlsx
+++ b/StructureDefinition-questionnaire-s37.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2501" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2501" uniqueCount="466">
   <si>
     <t>Property</t>
   </si>
@@ -539,9 +539,6 @@
   </si>
   <si>
     <t>There may be different questionnaire instances that have the same identifier but different versions.  The version can be appended to the url in a reference to allow a reference to a particular business version of the questionnaire with the format [url]|[version].</t>
-  </si>
-  <si>
-    <t>1.0.0</t>
   </si>
   <si>
     <t>Definition.version</t>
@@ -3339,7 +3336,7 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>83</v>
@@ -3374,7 +3371,7 @@
         <v>77</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>168</v>
+        <v>77</v>
       </c>
       <c r="S14" t="s" s="2">
         <v>77</v>
@@ -3428,13 +3425,13 @@
         <v>95</v>
       </c>
       <c r="AJ14" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AK14" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="AK14" t="s" s="2">
+      <c r="AL14" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>77</v>
@@ -3445,7 +3442,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3471,16 +3468,16 @@
         <v>85</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>77</v>
@@ -3529,7 +3526,7 @@
         <v>77</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>75</v>
@@ -3538,7 +3535,7 @@
         <v>83</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>95</v>
@@ -3561,7 +3558,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3587,13 +3584,13 @@
         <v>85</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3643,7 +3640,7 @@
         <v>77</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>75</v>
@@ -3658,10 +3655,10 @@
         <v>95</v>
       </c>
       <c r="AJ16" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>77</v>
@@ -3675,7 +3672,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3698,17 +3695,17 @@
         <v>77</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>77</v>
@@ -3757,7 +3754,7 @@
         <v>77</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>75</v>
@@ -3772,10 +3769,10 @@
         <v>95</v>
       </c>
       <c r="AJ17" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AK17" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>77</v>
@@ -3789,7 +3786,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3815,13 +3812,13 @@
         <v>103</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3847,14 +3844,14 @@
         <v>77</v>
       </c>
       <c r="W18" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="X18" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="X18" t="s" s="2">
+      <c r="Y18" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="Y18" t="s" s="2">
-        <v>197</v>
-      </c>
       <c r="Z18" t="s" s="2">
         <v>77</v>
       </c>
@@ -3871,7 +3868,7 @@
         <v>77</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>83</v>
@@ -3886,13 +3883,13 @@
         <v>95</v>
       </c>
       <c r="AJ18" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="AK18" t="s" s="2">
+      <c r="AL18" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>77</v>
@@ -3903,7 +3900,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3926,19 +3923,19 @@
         <v>84</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="N19" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>77</v>
@@ -3987,7 +3984,7 @@
         <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>75</v>
@@ -4002,13 +3999,13 @@
         <v>95</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>126</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>77</v>
@@ -4019,7 +4016,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4045,13 +4042,13 @@
         <v>103</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -4077,14 +4074,14 @@
         <v>77</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="X20" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="Y20" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="Y20" t="s" s="2">
-        <v>213</v>
-      </c>
       <c r="Z20" t="s" s="2">
         <v>77</v>
       </c>
@@ -4101,7 +4098,7 @@
         <v>77</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>75</v>
@@ -4116,10 +4113,10 @@
         <v>95</v>
       </c>
       <c r="AJ20" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>77</v>
@@ -4133,11 +4130,11 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -4156,16 +4153,16 @@
         <v>84</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4215,7 +4212,7 @@
         <v>77</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>75</v>
@@ -4230,13 +4227,13 @@
         <v>95</v>
       </c>
       <c r="AJ21" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AK21" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="AK21" t="s" s="2">
+      <c r="AL21" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>77</v>
@@ -4247,7 +4244,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4273,16 +4270,16 @@
         <v>85</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>77</v>
@@ -4331,7 +4328,7 @@
         <v>77</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>75</v>
@@ -4346,13 +4343,13 @@
         <v>95</v>
       </c>
       <c r="AJ22" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="AK22" t="s" s="2">
+      <c r="AL22" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>77</v>
@@ -4363,7 +4360,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4386,16 +4383,16 @@
         <v>84</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4445,7 +4442,7 @@
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>75</v>
@@ -4460,10 +4457,10 @@
         <v>95</v>
       </c>
       <c r="AJ23" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AK23" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>77</v>
@@ -4477,7 +4474,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4500,16 +4497,16 @@
         <v>77</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4559,7 +4556,7 @@
         <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>75</v>
@@ -4574,10 +4571,10 @@
         <v>95</v>
       </c>
       <c r="AJ24" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AK24" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>77</v>
@@ -4591,7 +4588,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4614,19 +4611,19 @@
         <v>84</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>77</v>
@@ -4675,7 +4672,7 @@
         <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>75</v>
@@ -4690,10 +4687,10 @@
         <v>95</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>77</v>
@@ -4707,7 +4704,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4730,16 +4727,16 @@
         <v>84</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4765,14 +4762,14 @@
         <v>77</v>
       </c>
       <c r="W26" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="X26" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="X26" t="s" s="2">
+      <c r="Y26" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="Y26" t="s" s="2">
-        <v>261</v>
-      </c>
       <c r="Z26" t="s" s="2">
         <v>77</v>
       </c>
@@ -4789,7 +4786,7 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>75</v>
@@ -4804,10 +4801,10 @@
         <v>95</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>77</v>
@@ -4821,7 +4818,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4844,16 +4841,16 @@
         <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4903,7 +4900,7 @@
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>75</v>
@@ -4918,13 +4915,13 @@
         <v>95</v>
       </c>
       <c r="AJ27" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AK27" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="AK27" t="s" s="2">
+      <c r="AL27" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>163</v>
@@ -4935,11 +4932,11 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4958,17 +4955,17 @@
         <v>77</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>77</v>
@@ -5017,7 +5014,7 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>75</v>
@@ -5032,10 +5029,10 @@
         <v>95</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>
@@ -5049,7 +5046,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5072,16 +5069,16 @@
         <v>77</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5131,7 +5128,7 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>75</v>
@@ -5146,10 +5143,10 @@
         <v>95</v>
       </c>
       <c r="AJ29" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AK29" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>77</v>
@@ -5163,7 +5160,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5186,19 +5183,19 @@
         <v>77</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>77</v>
@@ -5247,7 +5244,7 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>75</v>
@@ -5262,10 +5259,10 @@
         <v>95</v>
       </c>
       <c r="AJ30" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AK30" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>77</v>
@@ -5279,7 +5276,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5302,19 +5299,19 @@
         <v>84</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>77</v>
@@ -5363,7 +5360,7 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>75</v>
@@ -5378,10 +5375,10 @@
         <v>95</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>77</v>
@@ -5395,7 +5392,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5418,17 +5415,17 @@
         <v>84</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>77</v>
@@ -5453,14 +5450,14 @@
         <v>77</v>
       </c>
       <c r="W32" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="X32" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="X32" t="s" s="2">
+      <c r="Y32" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="Y32" t="s" s="2">
-        <v>304</v>
-      </c>
       <c r="Z32" t="s" s="2">
         <v>77</v>
       </c>
@@ -5477,7 +5474,7 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>75</v>
@@ -5495,7 +5492,7 @@
         <v>77</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>77</v>
@@ -5509,7 +5506,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5532,16 +5529,16 @@
         <v>77</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5591,7 +5588,7 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>75</v>
@@ -5600,16 +5597,16 @@
         <v>76</v>
       </c>
       <c r="AH33" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AI33" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="AI33" t="s" s="2">
+      <c r="AJ33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK33" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>77</v>
@@ -5623,7 +5620,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5649,10 +5646,10 @@
         <v>85</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5703,25 +5700,25 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK34" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>77</v>
@@ -5735,7 +5732,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5813,7 +5810,7 @@
         <v>132</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>75</v>
@@ -5845,10 +5842,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C36" t="s" s="2">
         <v>77</v>
@@ -5870,13 +5867,13 @@
         <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5927,7 +5924,7 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>75</v>
@@ -5959,11 +5956,11 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5985,10 +5982,10 @@
         <v>128</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="M37" t="s" s="2">
         <v>144</v>
@@ -6043,7 +6040,7 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>75</v>
@@ -6075,7 +6072,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6101,16 +6098,16 @@
         <v>85</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>77</v>
@@ -6159,7 +6156,7 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>83</v>
@@ -6177,7 +6174,7 @@
         <v>77</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>77</v>
@@ -6191,7 +6188,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6217,16 +6214,16 @@
         <v>97</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>77</v>
@@ -6275,7 +6272,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>75</v>
@@ -6293,7 +6290,7 @@
         <v>77</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>77</v>
@@ -6307,7 +6304,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6330,19 +6327,19 @@
         <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>77</v>
@@ -6367,14 +6364,14 @@
         <v>77</v>
       </c>
       <c r="W40" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="X40" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="X40" t="s" s="2">
+      <c r="Y40" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="Y40" t="s" s="2">
-        <v>304</v>
-      </c>
       <c r="Z40" t="s" s="2">
         <v>77</v>
       </c>
@@ -6391,7 +6388,7 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>75</v>
@@ -6400,7 +6397,7 @@
         <v>76</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>95</v>
@@ -6409,7 +6406,7 @@
         <v>77</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>77</v>
@@ -6423,11 +6420,11 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6449,16 +6446,16 @@
         <v>85</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>77</v>
@@ -6507,7 +6504,7 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>75</v>
@@ -6525,7 +6522,7 @@
         <v>77</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>77</v>
@@ -6539,7 +6536,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6565,13 +6562,13 @@
         <v>85</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6621,7 +6618,7 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>75</v>
@@ -6639,7 +6636,7 @@
         <v>77</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>77</v>
@@ -6653,7 +6650,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6679,16 +6676,16 @@
         <v>103</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>77</v>
@@ -6713,14 +6710,14 @@
         <v>77</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="X43" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="Y43" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="Y43" t="s" s="2">
-        <v>364</v>
-      </c>
       <c r="Z43" t="s" s="2">
         <v>77</v>
       </c>
@@ -6737,7 +6734,7 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>83</v>
@@ -6755,7 +6752,7 @@
         <v>77</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>77</v>
@@ -6769,7 +6766,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6792,19 +6789,19 @@
         <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>77</v>
@@ -6853,7 +6850,7 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>75</v>
@@ -6865,13 +6862,13 @@
         <v>77</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>77</v>
@@ -6885,7 +6882,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6911,10 +6908,10 @@
         <v>85</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6965,25 +6962,25 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK45" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>77</v>
@@ -6997,7 +6994,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7023,10 +7020,10 @@
         <v>128</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>144</v>
@@ -7079,7 +7076,7 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>75</v>
@@ -7097,7 +7094,7 @@
         <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>77</v>
@@ -7111,11 +7108,11 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7137,10 +7134,10 @@
         <v>128</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="M47" t="s" s="2">
         <v>144</v>
@@ -7195,7 +7192,7 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>75</v>
@@ -7227,7 +7224,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7253,13 +7250,13 @@
         <v>85</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7309,7 +7306,7 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>83</v>
@@ -7327,7 +7324,7 @@
         <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>77</v>
@@ -7341,7 +7338,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7367,10 +7364,10 @@
         <v>103</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7397,14 +7394,14 @@
         <v>77</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="X49" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="Y49" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="Y49" t="s" s="2">
-        <v>385</v>
-      </c>
       <c r="Z49" t="s" s="2">
         <v>77</v>
       </c>
@@ -7421,7 +7418,7 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>83</v>
@@ -7439,7 +7436,7 @@
         <v>77</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>77</v>
@@ -7453,7 +7450,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7476,13 +7473,13 @@
         <v>77</v>
       </c>
       <c r="J50" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="K50" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="K50" t="s" s="2">
+      <c r="L50" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7509,40 +7506,40 @@
         <v>77</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="X50" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="Y50" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="Y50" t="s" s="2">
+      <c r="Z50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH50" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="Z50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>95</v>
@@ -7551,7 +7548,7 @@
         <v>77</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>77</v>
@@ -7565,7 +7562,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7591,13 +7588,13 @@
         <v>103</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7623,40 +7620,40 @@
         <v>77</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="Y51" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH51" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="Z51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>95</v>
@@ -7665,7 +7662,7 @@
         <v>77</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>77</v>
@@ -7679,7 +7676,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7702,77 +7699,77 @@
         <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>402</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P52" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="Q52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH52" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="Q52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>95</v>
@@ -7781,7 +7778,7 @@
         <v>77</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>77</v>
@@ -7795,7 +7792,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7818,26 +7815,26 @@
         <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="N53" t="s" s="2">
+      <c r="O53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P53" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="O53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P53" t="s" s="2">
-        <v>410</v>
-      </c>
       <c r="Q53" t="s" s="2">
         <v>77</v>
       </c>
@@ -7881,7 +7878,7 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>75</v>
@@ -7890,7 +7887,7 @@
         <v>83</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>95</v>
@@ -7899,7 +7896,7 @@
         <v>77</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>77</v>
@@ -7913,7 +7910,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7936,19 +7933,19 @@
         <v>77</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>77</v>
@@ -7997,7 +7994,7 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>75</v>
@@ -8006,7 +8003,7 @@
         <v>83</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>95</v>
@@ -8015,7 +8012,7 @@
         <v>77</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>77</v>
@@ -8029,7 +8026,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8052,16 +8049,16 @@
         <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="K55" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="K55" t="s" s="2">
+      <c r="L55" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>421</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8111,7 +8108,7 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>75</v>
@@ -8120,7 +8117,7 @@
         <v>83</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>95</v>
@@ -8129,7 +8126,7 @@
         <v>77</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>77</v>
@@ -8143,7 +8140,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8166,16 +8163,16 @@
         <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="K56" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="K56" t="s" s="2">
+      <c r="L56" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>426</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>427</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8225,7 +8222,7 @@
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>75</v>
@@ -8234,7 +8231,7 @@
         <v>83</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>95</v>
@@ -8243,7 +8240,7 @@
         <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>77</v>
@@ -8257,7 +8254,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8280,16 +8277,16 @@
         <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>431</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>432</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8339,7 +8336,7 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>75</v>
@@ -8348,7 +8345,7 @@
         <v>76</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>95</v>
@@ -8357,7 +8354,7 @@
         <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
@@ -8371,7 +8368,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8397,10 +8394,10 @@
         <v>85</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8451,25 +8448,25 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK58" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -8483,7 +8480,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8509,10 +8506,10 @@
         <v>128</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="M59" t="s" s="2">
         <v>144</v>
@@ -8565,7 +8562,7 @@
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>75</v>
@@ -8583,7 +8580,7 @@
         <v>77</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>77</v>
@@ -8597,11 +8594,11 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8623,10 +8620,10 @@
         <v>128</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="M60" t="s" s="2">
         <v>144</v>
@@ -8681,7 +8678,7 @@
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>75</v>
@@ -8713,7 +8710,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8736,16 +8733,16 @@
         <v>77</v>
       </c>
       <c r="J61" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="K61" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="K61" t="s" s="2">
+      <c r="L61" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>439</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>440</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -8771,14 +8768,14 @@
         <v>77</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="X61" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="Y61" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="Y61" t="s" s="2">
-        <v>391</v>
-      </c>
       <c r="Z61" t="s" s="2">
         <v>77</v>
       </c>
@@ -8795,7 +8792,7 @@
         <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>83</v>
@@ -8813,7 +8810,7 @@
         <v>77</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>77</v>
@@ -8827,7 +8824,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8850,23 +8847,23 @@
         <v>77</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>444</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P62" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="Q62" t="s" s="2">
         <v>77</v>
@@ -8911,7 +8908,7 @@
         <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>75</v>
@@ -8929,7 +8926,7 @@
         <v>77</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>77</v>
@@ -8943,7 +8940,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8966,19 +8963,19 @@
         <v>77</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>449</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>450</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>77</v>
@@ -9027,7 +9024,7 @@
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>75</v>
@@ -9036,7 +9033,7 @@
         <v>76</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>95</v>
@@ -9045,7 +9042,7 @@
         <v>77</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>77</v>
@@ -9059,7 +9056,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9085,10 +9082,10 @@
         <v>85</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9139,25 +9136,25 @@
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK64" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="AF64" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG64" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>77</v>
@@ -9171,7 +9168,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9197,10 +9194,10 @@
         <v>128</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="M65" t="s" s="2">
         <v>144</v>
@@ -9253,7 +9250,7 @@
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>75</v>
@@ -9271,7 +9268,7 @@
         <v>77</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>77</v>
@@ -9285,11 +9282,11 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9311,10 +9308,10 @@
         <v>128</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="M66" t="s" s="2">
         <v>144</v>
@@ -9369,7 +9366,7 @@
         <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>75</v>
@@ -9401,7 +9398,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9424,16 +9421,16 @@
         <v>77</v>
       </c>
       <c r="J67" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="K67" t="s" s="2">
         <v>456</v>
       </c>
-      <c r="K67" t="s" s="2">
+      <c r="L67" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="M67" t="s" s="2">
         <v>458</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>459</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -9459,14 +9456,14 @@
         <v>77</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="X67" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="Y67" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="Y67" t="s" s="2">
-        <v>391</v>
-      </c>
       <c r="Z67" t="s" s="2">
         <v>77</v>
       </c>
@@ -9483,7 +9480,7 @@
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>83</v>
@@ -9501,7 +9498,7 @@
         <v>77</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>77</v>
@@ -9515,7 +9512,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9541,16 +9538,16 @@
         <v>77</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="M68" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="M68" t="s" s="2">
+      <c r="N68" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>464</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>77</v>
@@ -9599,7 +9596,7 @@
         <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>75</v>
@@ -9608,7 +9605,7 @@
         <v>76</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>95</v>
@@ -9617,7 +9614,7 @@
         <v>77</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>77</v>

--- a/StructureDefinition-questionnaire-s37.xlsx
+++ b/StructureDefinition-questionnaire-s37.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$68</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$76</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2501" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2788" uniqueCount="508">
   <si>
     <t>Property</t>
   </si>
@@ -311,13 +311,196 @@
 </t>
   </si>
   <si>
-    <t>Questionnaire.implicitRules</t>
+    <t>Questionnaire.meta.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Questionnaire.meta.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Questionnaire.meta.versionId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Version specific identifier</t>
+  </si>
+  <si>
+    <t>The version specific identifier, as it appears in the version portion of the URL. This value changes when the resource is created, updated, or deleted.</t>
+  </si>
+  <si>
+    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
+  </si>
+  <si>
+    <t>1.0.0</t>
+  </si>
+  <si>
+    <t>Meta.versionId</t>
+  </si>
+  <si>
+    <t>Questionnaire.meta.lastUpdated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant
+</t>
+  </si>
+  <si>
+    <t>When the resource version last changed</t>
+  </si>
+  <si>
+    <t>When the resource last changed - e.g. when the version changed.</t>
+  </si>
+  <si>
+    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant. This is equivalent to the HTTP Last-Modified and SHOULD have the same value on a [read](http://hl7.org/fhir/R4/http.html#read) interaction.</t>
+  </si>
+  <si>
+    <t>2022-04-13T08:39:24+02:00</t>
+  </si>
+  <si>
+    <t>Meta.lastUpdated</t>
+  </si>
+  <si>
+    <t>Questionnaire.meta.source</t>
   </si>
   <si>
     <t xml:space="preserve">uri
 </t>
   </si>
   <si>
+    <t>Identifies where the resource comes from</t>
+  </si>
+  <si>
+    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](http://hl7.org/fhir/R4/provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
+  </si>
+  <si>
+    <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
+This element can be used to indicate where the current master source of a resource that has a canonical URL if the resource is no longer hosted at the canonical URL.</t>
+  </si>
+  <si>
+    <t>Meta.source</t>
+  </si>
+  <si>
+    <t>Questionnaire.meta.profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">canonical(StructureDefinition)
+</t>
+  </si>
+  <si>
+    <t>Profiles this resource claims to conform to</t>
+  </si>
+  <si>
+    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
+  </si>
+  <si>
+    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
+  </si>
+  <si>
+    <t>Meta.profile</t>
+  </si>
+  <si>
+    <t>Questionnaire.meta.security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Security Labels applied to this resource</t>
+  </si>
+  <si>
+    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
+  </si>
+  <si>
+    <t>The security labels can be updated without changing the stated version of the resource. The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+  </si>
+  <si>
+    <t>Meta.security</t>
+  </si>
+  <si>
+    <t>Questionnaire.meta.tag</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
+  </si>
+  <si>
+    <t>The tags can be updated without changing the stated version of the resource. The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+  </si>
+  <si>
+    <t>Meta.tag</t>
+  </si>
+  <si>
+    <t>Questionnaire.implicitRules</t>
+  </si>
+  <si>
     <t>A set of rules under which this content was created</t>
   </si>
   <si>
@@ -413,28 +596,13 @@
     <t>Questionnaire.extension</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
     <t>Extension</t>
   </si>
   <si>
     <t>An Extension</t>
   </si>
   <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>settings</t>
@@ -457,10 +625,6 @@
     <t>Questionnaire.modifierExtension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -468,9 +632,6 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -820,9 +981,6 @@
     <t>It may be possible for the questionnaire to be used in jurisdictions other than those for which it was originally designed or intended.</t>
   </si>
   <si>
-    <t>extensible</t>
-  </si>
-  <si>
     <t>Countries and regions within which this artifact is targeted for use.</t>
   </si>
   <si>
@@ -940,10 +1098,6 @@
     <t>Questionnaire.code</t>
   </si>
   <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
     <t>Concept that represents the overall questionnaire</t>
   </si>
   <si>
@@ -951,9 +1105,6 @@
   </si>
   <si>
     <t>Allows linking of the complete Questionnaire resources to formal terminologies.  It's common for "panels" of questions to be identified by a code.</t>
-  </si>
-  <si>
-    <t>example</t>
   </si>
   <si>
     <t>Codes for questionnaires, groups and individual questions.</t>
@@ -995,22 +1146,7 @@
     <t>Questionnaire.item.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Questionnaire.item.extension</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Settings</t>
@@ -1182,12 +1318,6 @@
   </si>
   <si>
     <t>Questionnaire.item.enableWhen.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Questionnaire.item.enableWhen.modifierExtension</t>
@@ -1787,7 +1917,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN68"/>
+  <dimension ref="A1:AN76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1819,11 +1949,11 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="86.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="98.61328125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="59.69140625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="45.5390625" customWidth="true" bestFit="true" hidden="true"/>
@@ -2317,23 +2447,21 @@
         <v>77</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="L5" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>100</v>
-      </c>
+      <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
         <v>77</v>
@@ -2382,7 +2510,7 @@
         <v>77</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>75</v>
@@ -2394,13 +2522,13 @@
         <v>77</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="AL5" t="s" s="2">
         <v>77</v>
@@ -2414,18 +2542,18 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>77</v>
@@ -2472,28 +2600,28 @@
         <v>77</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA6" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="AB6" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="AC6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD6" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="Z6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="AE6" t="s" s="2">
         <v>110</v>
@@ -2502,19 +2630,19 @@
         <v>75</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>77</v>
@@ -2528,11 +2656,11 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -2548,7 +2676,7 @@
         <v>77</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J7" t="s" s="2">
         <v>113</v>
@@ -2571,7 +2699,7 @@
         <v>77</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="S7" t="s" s="2">
         <v>77</v>
@@ -2610,7 +2738,7 @@
         <v>77</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>75</v>
@@ -2628,7 +2756,7 @@
         <v>77</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>77</v>
@@ -2646,14 +2774,14 @@
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>77</v>
@@ -2662,19 +2790,19 @@
         <v>77</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2685,7 +2813,7 @@
         <v>77</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>77</v>
@@ -2730,19 +2858,19 @@
         <v>75</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>77</v>
@@ -2756,7 +2884,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -2767,7 +2895,7 @@
         <v>75</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>77</v>
@@ -2776,18 +2904,20 @@
         <v>77</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>77</v>
@@ -2824,29 +2954,31 @@
         <v>77</v>
       </c>
       <c r="AA9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE9" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="AB9" s="2"/>
-      <c r="AC9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD9" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>133</v>
-      </c>
       <c r="AF9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>77</v>
@@ -2866,11 +2998,9 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
         <v>77</v>
       </c>
@@ -2879,7 +3009,7 @@
         <v>75</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>77</v>
@@ -2888,18 +3018,20 @@
         <v>77</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K10" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="K10" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="L10" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>77</v>
@@ -2948,7 +3080,7 @@
         <v>77</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>75</v>
@@ -2957,10 +3089,10 @@
         <v>76</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>77</v>
@@ -2980,11 +3112,11 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>141</v>
+        <v>77</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -2997,26 +3129,24 @@
         <v>77</v>
       </c>
       <c r="H11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I11" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="I11" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="J11" t="s" s="2">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M11" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="L11" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>145</v>
-      </c>
+      <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>77</v>
       </c>
@@ -3040,13 +3170,13 @@
         <v>77</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="Z11" t="s" s="2">
         <v>77</v>
@@ -3076,13 +3206,13 @@
         <v>77</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>77</v>
@@ -3107,7 +3237,7 @@
         <v>75</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>77</v>
@@ -3119,7 +3249,7 @@
         <v>84</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="K12" t="s" s="2">
         <v>148</v>
@@ -3130,9 +3260,7 @@
       <c r="M12" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="N12" t="s" s="2">
-        <v>151</v>
-      </c>
+      <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>77</v>
       </c>
@@ -3156,13 +3284,13 @@
         <v>77</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>77</v>
+        <v>151</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>77</v>
+        <v>152</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>77</v>
+        <v>153</v>
       </c>
       <c r="Z12" t="s" s="2">
         <v>77</v>
@@ -3180,13 +3308,13 @@
         <v>77</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>77</v>
@@ -3195,13 +3323,13 @@
         <v>95</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>152</v>
+        <v>77</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>153</v>
+        <v>77</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>154</v>
+        <v>77</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>77</v>
@@ -3220,7 +3348,7 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>83</v>
@@ -3229,26 +3357,24 @@
         <v>77</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>84</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="M13" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>160</v>
-      </c>
+      <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>77</v>
       </c>
@@ -3296,13 +3422,13 @@
         <v>77</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>77</v>
@@ -3311,16 +3437,16 @@
         <v>95</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>161</v>
+        <v>77</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>162</v>
+        <v>77</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>154</v>
+        <v>77</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>163</v>
+        <v>77</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>77</v>
@@ -3328,7 +3454,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3348,19 +3474,19 @@
         <v>77</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>85</v>
+        <v>161</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -3386,13 +3512,13 @@
         <v>77</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>77</v>
+        <v>166</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>77</v>
+        <v>167</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>77</v>
@@ -3410,7 +3536,7 @@
         <v>77</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>75</v>
@@ -3425,13 +3551,13 @@
         <v>95</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>168</v>
+        <v>77</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>169</v>
+        <v>77</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>170</v>
+        <v>77</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>77</v>
@@ -3442,11 +3568,11 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -3462,10 +3588,10 @@
         <v>77</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>85</v>
+        <v>171</v>
       </c>
       <c r="K15" t="s" s="2">
         <v>172</v>
@@ -3476,9 +3602,7 @@
       <c r="M15" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="N15" t="s" s="2">
-        <v>175</v>
-      </c>
+      <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>77</v>
       </c>
@@ -3526,7 +3650,7 @@
         <v>77</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>75</v>
@@ -3535,7 +3659,7 @@
         <v>83</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>176</v>
+        <v>77</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>95</v>
@@ -3544,7 +3668,7 @@
         <v>77</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>126</v>
+        <v>176</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>77</v>
@@ -3562,14 +3686,14 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>77</v>
+        <v>178</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>77</v>
@@ -3578,19 +3702,19 @@
         <v>77</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>85</v>
+        <v>179</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3640,25 +3764,25 @@
         <v>77</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>181</v>
+        <v>77</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>77</v>
@@ -3672,7 +3796,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3695,18 +3819,16 @@
         <v>77</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>184</v>
+        <v>103</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M17" s="2"/>
-      <c r="N17" t="s" s="2">
-        <v>187</v>
-      </c>
+      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>77</v>
       </c>
@@ -3742,19 +3864,17 @@
         <v>77</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="AB17" s="2"/>
       <c r="AC17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>75</v>
@@ -3766,50 +3886,52 @@
         <v>77</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>188</v>
+        <v>77</v>
       </c>
       <c r="AK17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN17" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" hidden="true">
+      <c r="A18" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="AL17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>103</v>
+        <v>190</v>
       </c>
       <c r="K18" t="s" s="2">
         <v>191</v>
@@ -3817,9 +3939,7 @@
       <c r="L18" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="M18" t="s" s="2">
-        <v>193</v>
-      </c>
+      <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>77</v>
@@ -3844,13 +3964,13 @@
         <v>77</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>195</v>
+        <v>77</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>196</v>
+        <v>77</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>77</v>
@@ -3868,28 +3988,28 @@
         <v>77</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>77</v>
+        <v>193</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>197</v>
+        <v>77</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>198</v>
+        <v>77</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>199</v>
+        <v>77</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>77</v>
@@ -3900,42 +4020,42 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>201</v>
+        <v>103</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>193</v>
+        <v>106</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>77</v>
@@ -3984,28 +4104,28 @@
         <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>205</v>
+        <v>77</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>126</v>
+        <v>184</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>206</v>
+        <v>77</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>77</v>
@@ -4016,7 +4136,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4027,7 +4147,7 @@
         <v>75</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>77</v>
@@ -4039,18 +4159,20 @@
         <v>84</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>202</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>203</v>
+      </c>
       <c r="O20" t="s" s="2">
         <v>77</v>
       </c>
@@ -4074,13 +4196,13 @@
         <v>77</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>211</v>
+        <v>77</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>212</v>
+        <v>77</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>77</v>
@@ -4098,13 +4220,13 @@
         <v>77</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>77</v>
@@ -4113,13 +4235,13 @@
         <v>95</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>77</v>
+        <v>206</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>77</v>
@@ -4130,15 +4252,15 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>216</v>
+        <v>77</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>83</v>
@@ -4153,18 +4275,20 @@
         <v>84</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="O21" t="s" s="2">
         <v>77</v>
       </c>
@@ -4212,13 +4336,13 @@
         <v>77</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>77</v>
@@ -4227,16 +4351,16 @@
         <v>95</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>77</v>
+        <v>215</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>77</v>
@@ -4244,7 +4368,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4270,17 +4394,15 @@
         <v>85</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>228</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>77</v>
       </c>
@@ -4328,7 +4450,7 @@
         <v>77</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>75</v>
@@ -4343,13 +4465,13 @@
         <v>95</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>77</v>
@@ -4360,7 +4482,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4371,7 +4493,7 @@
         <v>75</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>77</v>
@@ -4383,18 +4505,20 @@
         <v>84</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>233</v>
+        <v>85</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>227</v>
+      </c>
       <c r="O23" t="s" s="2">
         <v>77</v>
       </c>
@@ -4442,25 +4566,25 @@
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>77</v>
+        <v>228</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>237</v>
+        <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>238</v>
+        <v>184</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>77</v>
@@ -4474,7 +4598,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4494,19 +4618,19 @@
         <v>77</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>240</v>
+        <v>85</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4556,7 +4680,7 @@
         <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>75</v>
@@ -4571,10 +4695,10 @@
         <v>95</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>77</v>
@@ -4588,7 +4712,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4608,22 +4732,20 @@
         <v>77</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>250</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="M25" s="2"/>
       <c r="N25" t="s" s="2">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>77</v>
@@ -4672,7 +4794,7 @@
         <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>75</v>
@@ -4687,10 +4809,10 @@
         <v>95</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>169</v>
+        <v>241</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>77</v>
@@ -4702,9 +4824,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4712,31 +4834,31 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>84</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>254</v>
+        <v>161</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4762,13 +4884,13 @@
         <v>77</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>77</v>
@@ -4786,13 +4908,13 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>77</v>
@@ -4801,13 +4923,13 @@
         <v>95</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>169</v>
+        <v>250</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>77</v>
+        <v>251</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>77</v>
@@ -4818,7 +4940,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4838,21 +4960,23 @@
         <v>77</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>77</v>
       </c>
@@ -4900,7 +5024,7 @@
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>75</v>
@@ -4915,16 +5039,16 @@
         <v>95</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>267</v>
+        <v>184</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>163</v>
+        <v>77</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>77</v>
@@ -4932,18 +5056,18 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>270</v>
+        <v>77</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>77</v>
@@ -4952,21 +5076,21 @@
         <v>77</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="M28" s="2"/>
-      <c r="N28" t="s" s="2">
-        <v>273</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>77</v>
       </c>
@@ -4990,13 +5114,13 @@
         <v>77</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>77</v>
+        <v>246</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>77</v>
+        <v>263</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>77</v>
+        <v>264</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>77</v>
@@ -5014,13 +5138,13 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>77</v>
@@ -5029,16 +5153,16 @@
         <v>95</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>169</v>
+        <v>266</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>163</v>
+        <v>77</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>77</v>
@@ -5046,11 +5170,11 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>77</v>
+        <v>268</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -5066,19 +5190,19 @@
         <v>77</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5128,7 +5252,7 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>75</v>
@@ -5143,16 +5267,16 @@
         <v>95</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>77</v>
+        <v>275</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>163</v>
+        <v>77</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -5160,7 +5284,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5180,22 +5304,22 @@
         <v>77</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>276</v>
+        <v>85</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>77</v>
@@ -5244,7 +5368,7 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>75</v>
@@ -5259,16 +5383,16 @@
         <v>95</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>77</v>
+        <v>283</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>163</v>
+        <v>77</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>77</v>
@@ -5276,7 +5400,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5287,7 +5411,7 @@
         <v>75</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>77</v>
@@ -5299,20 +5423,18 @@
         <v>84</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>294</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>77</v>
       </c>
@@ -5360,13 +5482,13 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>77</v>
@@ -5375,16 +5497,16 @@
         <v>95</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>169</v>
+        <v>290</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>163</v>
+        <v>77</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>77</v>
@@ -5392,7 +5514,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5403,7 +5525,7 @@
         <v>75</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>77</v>
@@ -5412,21 +5534,21 @@
         <v>77</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="M32" s="2"/>
-      <c r="N32" t="s" s="2">
-        <v>300</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>77</v>
       </c>
@@ -5450,13 +5572,13 @@
         <v>77</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>301</v>
+        <v>77</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>302</v>
+        <v>77</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>303</v>
+        <v>77</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>77</v>
@@ -5474,13 +5596,13 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>77</v>
@@ -5489,10 +5611,10 @@
         <v>95</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>77</v>
+        <v>296</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>77</v>
@@ -5506,7 +5628,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5526,21 +5648,23 @@
         <v>77</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>302</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>77</v>
       </c>
@@ -5588,7 +5712,7 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>75</v>
@@ -5597,16 +5721,16 @@
         <v>76</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>310</v>
+        <v>77</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>311</v>
+        <v>95</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>77</v>
+        <v>304</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>312</v>
+        <v>221</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>77</v>
@@ -5620,7 +5744,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5631,7 +5755,7 @@
         <v>75</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>77</v>
@@ -5640,18 +5764,20 @@
         <v>77</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>85</v>
+        <v>306</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>308</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>309</v>
+      </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>77</v>
@@ -5676,13 +5802,13 @@
         <v>77</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>77</v>
+        <v>310</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>77</v>
+        <v>311</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>77</v>
@@ -5700,25 +5826,25 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>77</v>
+        <v>312</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>317</v>
+        <v>221</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>77</v>
@@ -5732,7 +5858,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5743,7 +5869,7 @@
         <v>75</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>77</v>
@@ -5755,15 +5881,17 @@
         <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>128</v>
+        <v>292</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>129</v>
+        <v>314</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="M35" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>316</v>
+      </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>77</v>
@@ -5800,55 +5928,55 @@
         <v>77</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AB35" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AC35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="AF35" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AM35" t="s" s="2">
-        <v>77</v>
+        <v>215</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="B36" t="s" s="2">
         <v>320</v>
       </c>
+      <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>77</v>
+        <v>321</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5858,7 +5986,7 @@
         <v>83</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>77</v>
@@ -5867,7 +5995,7 @@
         <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>321</v>
+        <v>292</v>
       </c>
       <c r="K36" t="s" s="2">
         <v>322</v>
@@ -5876,7 +6004,9 @@
         <v>323</v>
       </c>
       <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
+      <c r="N36" t="s" s="2">
+        <v>324</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>77</v>
       </c>
@@ -5924,31 +6054,31 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>77</v>
+        <v>325</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>77</v>
+        <v>221</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>77</v>
+        <v>215</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>77</v>
@@ -5956,43 +6086,41 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>325</v>
+        <v>77</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>128</v>
+        <v>327</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>77</v>
       </c>
@@ -6040,31 +6168,31 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>77</v>
+        <v>331</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>126</v>
+        <v>332</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>77</v>
+        <v>215</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>77</v>
@@ -6072,7 +6200,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6080,7 +6208,7 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>83</v>
@@ -6095,19 +6223,19 @@
         <v>77</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>85</v>
+        <v>327</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>77</v>
@@ -6156,10 +6284,10 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>83</v>
@@ -6171,24 +6299,24 @@
         <v>95</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>77</v>
+        <v>338</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>77</v>
+        <v>215</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6196,34 +6324,34 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I39" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="H39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="J39" t="s" s="2">
-        <v>97</v>
+        <v>341</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>77</v>
@@ -6272,7 +6400,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>75</v>
@@ -6287,16 +6415,16 @@
         <v>95</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>77</v>
+        <v>346</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>340</v>
+        <v>221</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>77</v>
+        <v>215</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>77</v>
@@ -6304,7 +6432,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6324,22 +6452,20 @@
         <v>77</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>297</v>
+        <v>139</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>344</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>77</v>
@@ -6364,13 +6490,13 @@
         <v>77</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>301</v>
+        <v>151</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>302</v>
+        <v>351</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>303</v>
+        <v>352</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>77</v>
@@ -6388,7 +6514,7 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>75</v>
@@ -6397,7 +6523,7 @@
         <v>76</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>310</v>
+        <v>77</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>95</v>
@@ -6406,7 +6532,7 @@
         <v>77</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>304</v>
+        <v>353</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>77</v>
@@ -6420,18 +6546,18 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>347</v>
+        <v>77</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>77</v>
@@ -6443,20 +6569,18 @@
         <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>85</v>
+        <v>355</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>351</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>77</v>
       </c>
@@ -6504,25 +6628,25 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>77</v>
+        <v>359</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>95</v>
+        <v>360</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>77</v>
@@ -6534,9 +6658,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6544,13 +6668,13 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>77</v>
@@ -6562,14 +6686,12 @@
         <v>85</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>354</v>
+        <v>97</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>356</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>77</v>
@@ -6618,7 +6740,7 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>353</v>
+        <v>99</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>75</v>
@@ -6630,13 +6752,13 @@
         <v>77</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>245</v>
+        <v>100</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>77</v>
@@ -6650,7 +6772,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6658,10 +6780,10 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>77</v>
@@ -6676,17 +6798,13 @@
         <v>103</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>358</v>
+        <v>186</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>361</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>77</v>
       </c>
@@ -6710,65 +6828,65 @@
         <v>77</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>362</v>
+        <v>77</v>
       </c>
       <c r="Y43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AB43" s="2"/>
+      <c r="AC43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN43" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="Z43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK43" t="s" s="2">
+      <c r="B44" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="AL43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="44" hidden="true">
-      <c r="A44" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
         <v>77</v>
       </c>
@@ -6777,19 +6895,19 @@
         <v>75</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>306</v>
+        <v>365</v>
       </c>
       <c r="K44" t="s" s="2">
         <v>366</v>
@@ -6797,12 +6915,8 @@
       <c r="L44" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="M44" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>369</v>
-      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>77</v>
       </c>
@@ -6850,7 +6964,7 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>365</v>
+        <v>110</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>75</v>
@@ -6859,16 +6973,16 @@
         <v>76</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>77</v>
+        <v>193</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>370</v>
+        <v>111</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>364</v>
+        <v>77</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>77</v>
@@ -6882,39 +6996,43 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>77</v>
+        <v>369</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>314</v>
+        <v>370</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
+        <v>371</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>77</v>
       </c>
@@ -6962,25 +7080,25 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>316</v>
+        <v>372</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>317</v>
+        <v>184</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>77</v>
@@ -6994,18 +7112,18 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>141</v>
+        <v>77</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>77</v>
@@ -7017,18 +7135,20 @@
         <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>376</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>377</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>77</v>
       </c>
@@ -7076,25 +7196,25 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>319</v>
+        <v>373</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>317</v>
+        <v>378</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>77</v>
@@ -7106,44 +7226,44 @@
         <v>77</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>325</v>
+        <v>77</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>326</v>
+        <v>380</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>327</v>
+        <v>381</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>144</v>
+        <v>382</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>145</v>
+        <v>383</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>77</v>
@@ -7192,25 +7312,25 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>328</v>
+        <v>379</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>126</v>
+        <v>384</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>77</v>
@@ -7224,7 +7344,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7232,10 +7352,10 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>77</v>
@@ -7247,18 +7367,20 @@
         <v>77</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>85</v>
+        <v>139</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>388</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>389</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>77</v>
       </c>
@@ -7282,13 +7404,13 @@
         <v>77</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>77</v>
+        <v>151</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>77</v>
+        <v>351</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>77</v>
+        <v>352</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>77</v>
@@ -7306,16 +7428,16 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>77</v>
+        <v>359</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>95</v>
@@ -7324,7 +7446,7 @@
         <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>77</v>
@@ -7338,15 +7460,15 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>77</v>
+        <v>391</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>83</v>
@@ -7361,16 +7483,20 @@
         <v>77</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
+        <v>393</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>395</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>77</v>
       </c>
@@ -7394,13 +7520,13 @@
         <v>77</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>383</v>
+        <v>77</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>384</v>
+        <v>77</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>77</v>
@@ -7418,10 +7544,10 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>83</v>
@@ -7436,7 +7562,7 @@
         <v>77</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>364</v>
+        <v>396</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>77</v>
@@ -7448,9 +7574,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7464,7 +7590,7 @@
         <v>83</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>77</v>
@@ -7473,15 +7599,17 @@
         <v>77</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>386</v>
+        <v>85</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="M50" s="2"/>
+        <v>399</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>400</v>
+      </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>77</v>
@@ -7506,13 +7634,13 @@
         <v>77</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>301</v>
+        <v>77</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>389</v>
+        <v>77</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>390</v>
+        <v>77</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>77</v>
@@ -7530,16 +7658,16 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>391</v>
+        <v>77</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>95</v>
@@ -7548,7 +7676,7 @@
         <v>77</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>364</v>
+        <v>297</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>77</v>
@@ -7562,7 +7690,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7570,7 +7698,7 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>83</v>
@@ -7585,18 +7713,20 @@
         <v>77</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>103</v>
+        <v>161</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>404</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>405</v>
+      </c>
       <c r="O51" t="s" s="2">
         <v>77</v>
       </c>
@@ -7620,13 +7750,13 @@
         <v>77</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>194</v>
+        <v>246</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>77</v>
@@ -7644,16 +7774,16 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>397</v>
+        <v>77</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>95</v>
@@ -7662,7 +7792,7 @@
         <v>77</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>364</v>
+        <v>408</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>77</v>
@@ -7674,9 +7804,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7684,39 +7814,39 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H52" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="H52" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="I52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>201</v>
+        <v>355</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>412</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>413</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P52" t="s" s="2">
-        <v>402</v>
-      </c>
+      <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
         <v>77</v>
       </c>
@@ -7760,25 +7890,25 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>403</v>
+        <v>77</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>95</v>
+        <v>414</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>364</v>
+        <v>408</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>77</v>
@@ -7792,7 +7922,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7815,26 +7945,20 @@
         <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>201</v>
+        <v>85</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>405</v>
+        <v>97</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>408</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P53" t="s" s="2">
-        <v>409</v>
-      </c>
+      <c r="P53" s="2"/>
       <c r="Q53" t="s" s="2">
         <v>77</v>
       </c>
@@ -7878,7 +8002,7 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>404</v>
+        <v>99</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>75</v>
@@ -7887,16 +8011,16 @@
         <v>83</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>403</v>
+        <v>77</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>364</v>
+        <v>100</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>77</v>
@@ -7910,18 +8034,18 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>77</v>
@@ -7933,20 +8057,18 @@
         <v>77</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>201</v>
+        <v>103</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>411</v>
+        <v>104</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>412</v>
+        <v>105</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>414</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>77</v>
       </c>
@@ -7994,25 +8116,25 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>410</v>
+        <v>110</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>415</v>
+        <v>77</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>364</v>
+        <v>100</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>77</v>
@@ -8026,41 +8148,43 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>77</v>
+        <v>369</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>417</v>
+        <v>103</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>418</v>
+        <v>370</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>419</v>
+        <v>371</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>77</v>
       </c>
@@ -8108,25 +8232,25 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>416</v>
+        <v>372</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>421</v>
+        <v>77</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>364</v>
+        <v>184</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>77</v>
@@ -8135,12 +8259,12 @@
         <v>77</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>126</v>
+        <v>77</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8148,7 +8272,7 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>83</v>
@@ -8163,16 +8287,16 @@
         <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>423</v>
+        <v>85</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8222,16 +8346,16 @@
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>427</v>
+        <v>77</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>95</v>
@@ -8240,7 +8364,7 @@
         <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>364</v>
+        <v>408</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>77</v>
@@ -8254,7 +8378,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8262,10 +8386,10 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>77</v>
@@ -8277,17 +8401,15 @@
         <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>306</v>
+        <v>161</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>431</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>77</v>
@@ -8312,13 +8434,13 @@
         <v>77</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>77</v>
+        <v>246</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>77</v>
+        <v>425</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>77</v>
+        <v>426</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>77</v>
@@ -8336,16 +8458,16 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>427</v>
+        <v>77</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>95</v>
@@ -8354,7 +8476,7 @@
         <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>364</v>
+        <v>408</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
@@ -8368,7 +8490,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8376,7 +8498,7 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F58" t="s" s="2">
         <v>83</v>
@@ -8391,13 +8513,13 @@
         <v>77</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>85</v>
+        <v>428</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>314</v>
+        <v>429</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>315</v>
+        <v>430</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8424,13 +8546,13 @@
         <v>77</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>77</v>
+        <v>151</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>77</v>
+        <v>431</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>77</v>
+        <v>432</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>77</v>
@@ -8448,25 +8570,25 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>316</v>
+        <v>427</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>77</v>
+        <v>433</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>317</v>
+        <v>408</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -8480,18 +8602,18 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>141</v>
+        <v>77</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>77</v>
@@ -8503,16 +8625,16 @@
         <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>128</v>
+        <v>161</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>373</v>
+        <v>435</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>374</v>
+        <v>436</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>144</v>
+        <v>437</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8538,13 +8660,13 @@
         <v>77</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>77</v>
+        <v>246</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>77</v>
+        <v>436</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>77</v>
+        <v>438</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>77</v>
@@ -8562,25 +8684,25 @@
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>319</v>
+        <v>434</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>77</v>
+        <v>439</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>317</v>
+        <v>408</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>77</v>
@@ -8592,49 +8714,49 @@
         <v>77</v>
       </c>
     </row>
-    <row r="60" hidden="true">
+    <row r="60">
       <c r="A60" t="s" s="2">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>325</v>
+        <v>77</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>128</v>
+        <v>253</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>326</v>
+        <v>441</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>327</v>
+        <v>442</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>443</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P60" s="2"/>
+      <c r="P60" t="s" s="2">
+        <v>444</v>
+      </c>
       <c r="Q60" t="s" s="2">
         <v>77</v>
       </c>
@@ -8678,25 +8800,25 @@
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>328</v>
+        <v>440</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>77</v>
+        <v>445</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>126</v>
+        <v>408</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>77</v>
@@ -8710,7 +8832,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8718,7 +8840,7 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F61" t="s" s="2">
         <v>83</v>
@@ -8733,22 +8855,26 @@
         <v>77</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>436</v>
+        <v>253</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>449</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>450</v>
+      </c>
       <c r="O61" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P61" s="2"/>
+      <c r="P61" t="s" s="2">
+        <v>451</v>
+      </c>
       <c r="Q61" t="s" s="2">
         <v>77</v>
       </c>
@@ -8768,13 +8894,13 @@
         <v>77</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>301</v>
+        <v>77</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>389</v>
+        <v>77</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>390</v>
+        <v>77</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>77</v>
@@ -8792,16 +8918,16 @@
         <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>77</v>
+        <v>445</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>95</v>
@@ -8810,7 +8936,7 @@
         <v>77</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>364</v>
+        <v>408</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>77</v>
@@ -8824,7 +8950,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8847,24 +8973,24 @@
         <v>77</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>201</v>
+        <v>253</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>442</v>
+        <v>454</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>455</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>456</v>
+      </c>
       <c r="O62" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P62" t="s" s="2">
-        <v>444</v>
-      </c>
+      <c r="P62" s="2"/>
       <c r="Q62" t="s" s="2">
         <v>77</v>
       </c>
@@ -8908,7 +9034,7 @@
         <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>75</v>
@@ -8917,7 +9043,7 @@
         <v>83</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>77</v>
+        <v>457</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>95</v>
@@ -8926,7 +9052,7 @@
         <v>77</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>364</v>
+        <v>408</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>77</v>
@@ -8940,7 +9066,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8951,7 +9077,7 @@
         <v>75</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>77</v>
@@ -8963,20 +9089,18 @@
         <v>77</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>306</v>
+        <v>459</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>446</v>
+        <v>460</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>449</v>
-      </c>
+        <v>462</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>77</v>
       </c>
@@ -9024,16 +9148,16 @@
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>450</v>
+        <v>463</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>95</v>
@@ -9042,7 +9166,7 @@
         <v>77</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>364</v>
+        <v>408</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>77</v>
@@ -9051,12 +9175,12 @@
         <v>77</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>77</v>
+        <v>184</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9079,15 +9203,17 @@
         <v>77</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>85</v>
+        <v>465</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>314</v>
+        <v>466</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="M64" s="2"/>
+        <v>467</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>468</v>
+      </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>77</v>
@@ -9136,7 +9262,7 @@
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>316</v>
+        <v>464</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>75</v>
@@ -9145,16 +9271,16 @@
         <v>83</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>77</v>
+        <v>469</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>317</v>
+        <v>408</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>77</v>
@@ -9168,11 +9294,11 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>452</v>
+        <v>470</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>141</v>
+        <v>77</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -9191,16 +9317,16 @@
         <v>77</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>128</v>
+        <v>355</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>373</v>
+        <v>471</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>374</v>
+        <v>472</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>144</v>
+        <v>473</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9250,7 +9376,7 @@
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>319</v>
+        <v>470</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>75</v>
@@ -9259,16 +9385,16 @@
         <v>76</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>77</v>
+        <v>469</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>317</v>
+        <v>408</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>77</v>
@@ -9282,43 +9408,39 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>453</v>
+        <v>474</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>325</v>
+        <v>77</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>326</v>
+        <v>97</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>77</v>
       </c>
@@ -9366,25 +9488,25 @@
         <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>328</v>
+        <v>99</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>77</v>
@@ -9398,18 +9520,18 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>454</v>
+        <v>475</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>77</v>
@@ -9421,16 +9543,16 @@
         <v>77</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>455</v>
+        <v>103</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>456</v>
+        <v>104</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>457</v>
+        <v>105</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>458</v>
+        <v>106</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -9456,13 +9578,13 @@
         <v>77</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>301</v>
+        <v>77</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>389</v>
+        <v>77</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>390</v>
+        <v>77</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>77</v>
@@ -9480,25 +9602,25 @@
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>454</v>
+        <v>110</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>364</v>
+        <v>100</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>77</v>
@@ -9512,11 +9634,11 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>459</v>
+        <v>476</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>77</v>
+        <v>369</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9529,25 +9651,25 @@
         <v>77</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>460</v>
+        <v>370</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>461</v>
+        <v>371</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>462</v>
+        <v>106</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>463</v>
+        <v>197</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>77</v>
@@ -9596,7 +9718,7 @@
         <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>459</v>
+        <v>372</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>75</v>
@@ -9605,29 +9727,947 @@
         <v>76</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>464</v>
+        <v>77</v>
       </c>
       <c r="AI68" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="69" hidden="true">
+      <c r="A69" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI69" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN68" t="s" s="2">
+      <c r="AJ69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="70" hidden="true">
+      <c r="A70" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P70" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="Q70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="72" hidden="true">
+      <c r="A72" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
+      <c r="O72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="73" hidden="true">
+      <c r="A73" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN76" t="s" s="2">
         <v>77</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN68">
+  <autoFilter ref="A1:AN76">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9637,7 +10677,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI67">
+  <conditionalFormatting sqref="A2:AI75">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-questionnaire-s37.xlsx
+++ b/StructureDefinition-questionnaire-s37.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0-S37</t>
   </si>
   <si>
     <t>Name</t>

--- a/StructureDefinition-questionnaire-s37.xlsx
+++ b/StructureDefinition-questionnaire-s37.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$76</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$68</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2788" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2501" uniqueCount="466">
   <si>
     <t>Property</t>
   </si>
@@ -311,800 +311,649 @@
 </t>
   </si>
   <si>
-    <t>Questionnaire.meta.id</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Questionnaire.meta.extension</t>
+    <t>Questionnaire.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>Questionnaire.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>Questionnaire.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Questionnaire.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Questionnaire.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>settings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://science37.com/StructureDefinition/form-settings}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension : Form Settings </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension : Questionnaire.settings </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>Questionnaire.modifierExtension</t>
   </si>
   <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Questionnaire.url</t>
+  </si>
+  <si>
+    <t>Canonical identifier for this questionnaire, represented as a URI (globally unique)</t>
+  </si>
+  <si>
+    <t>An absolute URI that is used to identify this questionnaire when it is referenced in a specification, model, design or an instance; also called its canonical identifier. This SHOULD be globally unique and SHOULD be a literal address at which at which an authoritative instance of this questionnaire is (or will be) published. This URL can be the target of a canonical reference. It SHALL remain the same when the questionnaire is stored on different servers.</t>
+  </si>
+  <si>
+    <t>The name of the referenced questionnaire can be conveyed using the http://hl7.org/fhir/StructureDefinition/display extension.</t>
+  </si>
+  <si>
+    <t>…  This is the id that will be used to link a QuestionnaireResponse to the Questionnaire the response is for.</t>
+  </si>
+  <si>
+    <t>Definition.url</t>
+  </si>
+  <si>
+    <t>.identifier[scope=BUSN;reliability=ISS]</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>Questionnaire.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
 </t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
+    <t>Additional identifier for the questionnaire</t>
+  </si>
+  <si>
+    <t>A formal identifier that is used to identify this questionnaire when it is represented in other formats, or referenced in a specification, model, design or an instance.</t>
+  </si>
+  <si>
+    <t>Typically, this is used for identifiers that can go in an HL7 V3 II (instance identifier) data type, and can then identify this questionnaire outside of FHIR, where it is not possible to use the logical URI.</t>
+  </si>
+  <si>
+    <t>Allows externally provided and/or usable business identifiers to be easily associated with the module.</t>
+  </si>
+  <si>
+    <t>Definition.identifier</t>
+  </si>
+  <si>
+    <t>.identifier</t>
+  </si>
+  <si>
+    <t>no-gen-base</t>
+  </si>
+  <si>
+    <t>Questionnaire.version</t>
+  </si>
+  <si>
+    <t>Business version of the questionnaire</t>
+  </si>
+  <si>
+    <t>The identifier that is used to identify this version of the questionnaire when it is referenced in a specification, model, design or instance. This is an arbitrary value managed by the questionnaire author and is not expected to be globally unique. For example, it might be a timestamp (e.g. yyyymmdd) if a managed version is not available. There is also no expectation that versions can be placed in a lexicographical sequence.</t>
+  </si>
+  <si>
+    <t>There may be different questionnaire instances that have the same identifier but different versions.  The version can be appended to the url in a reference to allow a reference to a particular business version of the questionnaire with the format [url]|[version].</t>
+  </si>
+  <si>
+    <t>Definition.version</t>
+  </si>
+  <si>
+    <t>N/A (to add?)</t>
+  </si>
+  <si>
+    <t>FiveWs.version</t>
+  </si>
+  <si>
+    <t>Questionnaire.name</t>
+  </si>
+  <si>
+    <t>Name for this questionnaire (computer friendly)</t>
+  </si>
+  <si>
+    <t>A natural language name identifying the questionnaire. This name should be usable as an identifier for the module by machine processing applications such as code generation.</t>
+  </si>
+  <si>
+    <t>The name is not expected to be globally unique. The name should be a simple alphanumeric type name to ensure that it is machine-processing friendly.</t>
+  </si>
+  <si>
+    <t>Support human navigation and code generation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inv-0
 </t>
   </si>
   <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Questionnaire.meta.versionId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id
+    <t>Questionnaire.title</t>
+  </si>
+  <si>
+    <t>Name for this questionnaire (human friendly)</t>
+  </si>
+  <si>
+    <t>A short, descriptive, user-friendly title for the questionnaire.</t>
+  </si>
+  <si>
+    <t>This name does not need to be machine-processing friendly and may contain punctuation, white-space, etc.</t>
+  </si>
+  <si>
+    <t>Definition.title</t>
+  </si>
+  <si>
+    <t>.title</t>
+  </si>
+  <si>
+    <t>Questionnaire.derivedFrom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">canonical(Questionnaire)
 </t>
   </si>
   <si>
-    <t>Version specific identifier</t>
-  </si>
-  <si>
-    <t>The version specific identifier, as it appears in the version portion of the URL. This value changes when the resource is created, updated, or deleted.</t>
-  </si>
-  <si>
-    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
-  </si>
-  <si>
-    <t>1.0.0</t>
-  </si>
-  <si>
-    <t>Meta.versionId</t>
-  </si>
-  <si>
-    <t>Questionnaire.meta.lastUpdated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instant
+    <t>Instantiates protocol or definition</t>
+  </si>
+  <si>
+    <t>The URL of a Questionnaire that this Questionnaire is based on.</t>
+  </si>
+  <si>
+    <t>Allows a Questionnaire to be created based on another Questionnaire.</t>
+  </si>
+  <si>
+    <t>Definition.derivedFrom</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=DRIV].target[classCode=OBS, moodCode=DEFN]</t>
+  </si>
+  <si>
+    <t>Questionnaire.status</t>
+  </si>
+  <si>
+    <t>draft | active | retired | unknown</t>
+  </si>
+  <si>
+    <t>The status of this questionnaire. Enables tracking the life-cycle of the content.</t>
+  </si>
+  <si>
+    <t>Allows filtering of questionnaires that are appropriate for use versus not.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>The lifecycle status of an artifact.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/publication-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Definition.status</t>
+  </si>
+  <si>
+    <t>.status</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>Questionnaire.experimental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
 </t>
   </si>
   <si>
-    <t>When the resource version last changed</t>
-  </si>
-  <si>
-    <t>When the resource last changed - e.g. when the version changed.</t>
-  </si>
-  <si>
-    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant. This is equivalent to the HTTP Last-Modified and SHOULD have the same value on a [read](http://hl7.org/fhir/R4/http.html#read) interaction.</t>
-  </si>
-  <si>
-    <t>2022-04-13T08:39:24+02:00</t>
-  </si>
-  <si>
-    <t>Meta.lastUpdated</t>
-  </si>
-  <si>
-    <t>Questionnaire.meta.source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
+    <t>For testing purposes, not real usage</t>
+  </si>
+  <si>
+    <t>A Boolean value to indicate that this questionnaire is authored for testing purposes (or education/evaluation/marketing) and is not intended to be used for genuine usage.</t>
+  </si>
+  <si>
+    <t>Enables experimental content to be developed following the same lifecycle that would be used for a production-level questionnaire.</t>
+  </si>
+  <si>
+    <t>Definition.experimental</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>Questionnaire.subjectType</t>
+  </si>
+  <si>
+    <t>Resource that can be subject of QuestionnaireResponse</t>
+  </si>
+  <si>
+    <t>The types of subjects that can be the subject of responses created for the questionnaire.</t>
+  </si>
+  <si>
+    <t>If none are specified, then the subject is unlimited.</t>
+  </si>
+  <si>
+    <t>One of the resource types defined as part of this version of FHIR.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
+  </si>
+  <si>
+    <t>Definition.subject[x]</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=META].target[classCode=OBS, moodCode=DEFN, isCriterion=true].participation.role.classCode</t>
+  </si>
+  <si>
+    <t>Questionnaire.date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revision Date
 </t>
   </si>
   <si>
-    <t>Identifies where the resource comes from</t>
-  </si>
-  <si>
-    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](http://hl7.org/fhir/R4/provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
-  </si>
-  <si>
-    <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
-This element can be used to indicate where the current master source of a resource that has a canonical URL if the resource is no longer hosted at the canonical URL.</t>
-  </si>
-  <si>
-    <t>Meta.source</t>
-  </si>
-  <si>
-    <t>Questionnaire.meta.profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">canonical(StructureDefinition)
+    <t xml:space="preserve">dateTime
 </t>
   </si>
   <si>
-    <t>Profiles this resource claims to conform to</t>
-  </si>
-  <si>
-    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
-  </si>
-  <si>
-    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
-  </si>
-  <si>
-    <t>Meta.profile</t>
-  </si>
-  <si>
-    <t>Questionnaire.meta.security</t>
+    <t>Date last changed</t>
+  </si>
+  <si>
+    <t>The date  (and optionally time) when the questionnaire was published. The date must change when the business version changes and it must change if the status code changes. In addition, it should change when the substantive content of the questionnaire changes.</t>
+  </si>
+  <si>
+    <t>Note that this is not the same as the resource last-modified-date, since the resource may be a secondary representation of the questionnaire. Additional specific dates may be added as extensions or be found by consulting Provenances associated with past versions of the resource.</t>
+  </si>
+  <si>
+    <t>Definition.date</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=AUT].time</t>
+  </si>
+  <si>
+    <t>FiveWs.recorded</t>
+  </si>
+  <si>
+    <t>Questionnaire.publisher</t>
+  </si>
+  <si>
+    <t>Name of the publisher (organization or individual)</t>
+  </si>
+  <si>
+    <t>The name of the organization or individual that published the questionnaire.</t>
+  </si>
+  <si>
+    <t>Usually an organization but may be an individual. The publisher (or steward) of the questionnaire is the organization or individual primarily responsible for the maintenance and upkeep of the questionnaire. This is not necessarily the same individual or organization that developed and initially authored the content. The publisher is the primary point of contact for questions or issues with the questionnaire. This item SHOULD be populated unless the information is available from context.</t>
+  </si>
+  <si>
+    <t>Helps establish the "authority/credibility" of the questionnaire.  May also allow for contact.</t>
+  </si>
+  <si>
+    <t>Definition.publisher</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=AUT].role</t>
+  </si>
+  <si>
+    <t>FiveWs.witness</t>
+  </si>
+  <si>
+    <t>Questionnaire.contact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ContactDetail
+</t>
+  </si>
+  <si>
+    <t>Contact details for the publisher</t>
+  </si>
+  <si>
+    <t>Contact details to assist a user in finding and communicating with the publisher.</t>
+  </si>
+  <si>
+    <t>May be a web site, an email address, a telephone number, etc.</t>
+  </si>
+  <si>
+    <t>Definition.contact</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=CALLBCK].role</t>
+  </si>
+  <si>
+    <t>Questionnaire.description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">markdown
+</t>
+  </si>
+  <si>
+    <t>Natural language description of the questionnaire</t>
+  </si>
+  <si>
+    <t>A free text natural language description of the questionnaire from a consumer's perspective.</t>
+  </si>
+  <si>
+    <t>This description can be used to capture details such as why the questionnaire was built, comments about misuse, instructions for clinical use and interpretation, literature references, examples from the paper world, etc. It is not a rendering of the questionnaire as conveyed in the 'text' field of the resource itself. This item SHOULD be populated unless the information is available from context (e.g. the language of the questionnaire is presumed to be the predominant language in the place the questionnaire was created).</t>
+  </si>
+  <si>
+    <t>Definition.description</t>
+  </si>
+  <si>
+    <t>.text</t>
+  </si>
+  <si>
+    <t>Questionnaire.useContext</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UsageContext
+</t>
+  </si>
+  <si>
+    <t>The context that the content is intended to support</t>
+  </si>
+  <si>
+    <t>The content was developed with a focus and intent of supporting the contexts that are listed. These contexts may be general categories (gender, age, ...) or may be references to specific programs (insurance plans, studies, ...) and may be used to assist with indexing and searching for appropriate questionnaire instances.</t>
+  </si>
+  <si>
+    <t>When multiple useContexts are specified, there is no expectation that all or any of the contexts apply.</t>
+  </si>
+  <si>
+    <t>Assist in searching for appropriate content.</t>
+  </si>
+  <si>
+    <t>Definition.useContext</t>
+  </si>
+  <si>
+    <t>Questionnaire.jurisdiction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Intended jurisdiction for questionnaire (if applicable)</t>
+  </si>
+  <si>
+    <t>A legal or geographic region in which the questionnaire is intended to be used.</t>
+  </si>
+  <si>
+    <t>It may be possible for the questionnaire to be used in jurisdictions other than those for which it was originally designed or intended.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Countries and regions within which this artifact is targeted for use.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/jurisdiction</t>
+  </si>
+  <si>
+    <t>Definition.jurisdiction</t>
+  </si>
+  <si>
+    <t>Questionnaire.purpose</t>
+  </si>
+  <si>
+    <t>Why this questionnaire is defined</t>
+  </si>
+  <si>
+    <t>Explanation of why this questionnaire is needed and why it has been designed as it has.</t>
+  </si>
+  <si>
+    <t>This element does not describe the usage of the questionnaire. Instead, it provides traceability of ''why'' the resource is either needed or ''why'' it is defined as it is.  This may be used to point to source materials or specifications that drove the structure of this questionnaire.</t>
+  </si>
+  <si>
+    <t>Definition.purpose</t>
+  </si>
+  <si>
+    <t>.reasonCode.text</t>
+  </si>
+  <si>
+    <t>FiveWs.why[x]</t>
+  </si>
+  <si>
+    <t>Questionnaire.copyright</t>
+  </si>
+  <si>
+    <t>License
+Restrictions</t>
+  </si>
+  <si>
+    <t>Use and/or publishing restrictions</t>
+  </si>
+  <si>
+    <t>A copyright statement relating to the questionnaire and/or its contents. Copyright statements are generally legal restrictions on the use and publishing of the questionnaire.</t>
+  </si>
+  <si>
+    <t>Consumers must be able to determine any legal restrictions on the use of the questionnaire and/or its content.</t>
+  </si>
+  <si>
+    <t>Definition.copyright</t>
+  </si>
+  <si>
+    <t>Questionnaire.approvalDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date
+</t>
+  </si>
+  <si>
+    <t>When the questionnaire was approved by publisher</t>
+  </si>
+  <si>
+    <t>The date on which the resource content was approved by the publisher. Approval happens once when the content is officially approved for usage.</t>
+  </si>
+  <si>
+    <t>The 'date' element may be more recent than the approval date because of minor changes or editorial corrections.</t>
+  </si>
+  <si>
+    <t>Definition.approvalDate</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode="SUBJ"].act[classCode=CACT;moodCode=EVN;code="approval"].effectiveTime</t>
+  </si>
+  <si>
+    <t>Questionnaire.lastReviewDate</t>
+  </si>
+  <si>
+    <t>When the questionnaire was last reviewed</t>
+  </si>
+  <si>
+    <t>The date on which the resource content was last reviewed. Review happens periodically after approval but does not change the original approval date.</t>
+  </si>
+  <si>
+    <t>If specified, this date follows the original approval date.</t>
+  </si>
+  <si>
+    <t>Gives a sense of how "current" the content is.  Resources that have not been reviewed in a long time may have a risk of being less appropriate/relevant.</t>
+  </si>
+  <si>
+    <t>Definition.lastReviewDate</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode="SUBJ"; subsetCode="RECENT"].act[classCode=CACT;moodCode=EVN;code="review"].effectiveTime</t>
+  </si>
+  <si>
+    <t>Questionnaire.effectivePeriod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>When the questionnaire is expected to be used</t>
+  </si>
+  <si>
+    <t>The period during which the questionnaire content was or is planned to be in active use.</t>
+  </si>
+  <si>
+    <t>The effective period for a questionnaire  determines when the content is applicable for usage and is independent of publication and review dates. For example, a measure intended to be used for the year 2016 might be published in 2015.</t>
+  </si>
+  <si>
+    <t>Allows establishing a transition before a resource comes into effect and also allows for a sunsetting  process when new versions of the questionnaire are or are expected to be used instead.</t>
+  </si>
+  <si>
+    <t>Definition.effectivePeriod</t>
+  </si>
+  <si>
+    <t>Questionnaire.code</t>
   </si>
   <si>
     <t xml:space="preserve">Coding
 </t>
   </si>
   <si>
-    <t>Security Labels applied to this resource</t>
-  </si>
-  <si>
-    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
-  </si>
-  <si>
-    <t>The security labels can be updated without changing the stated version of the resource. The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
-  </si>
-  <si>
-    <t>Meta.security</t>
-  </si>
-  <si>
-    <t>Questionnaire.meta.tag</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
-  </si>
-  <si>
-    <t>The tags can be updated without changing the stated version of the resource. The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+    <t>Concept that represents the overall questionnaire</t>
+  </si>
+  <si>
+    <t>An identifier for this question or group of questions in a particular terminology such as LOINC.</t>
+  </si>
+  <si>
+    <t>Allows linking of the complete Questionnaire resources to formal terminologies.  It's common for "panels" of questions to be identified by a code.</t>
   </si>
   <si>
     <t>example</t>
-  </si>
-  <si>
-    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
-  </si>
-  <si>
-    <t>Meta.tag</t>
-  </si>
-  <si>
-    <t>Questionnaire.implicitRules</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>Questionnaire.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>Questionnaire.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>Questionnaire.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Questionnaire.extension</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>settings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://science37.com/StructureDefinition/form-settings}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension : Form Settings </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension : Questionnaire.settings </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>Questionnaire.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Questionnaire.url</t>
-  </si>
-  <si>
-    <t>Canonical identifier for this questionnaire, represented as a URI (globally unique)</t>
-  </si>
-  <si>
-    <t>An absolute URI that is used to identify this questionnaire when it is referenced in a specification, model, design or an instance; also called its canonical identifier. This SHOULD be globally unique and SHOULD be a literal address at which at which an authoritative instance of this questionnaire is (or will be) published. This URL can be the target of a canonical reference. It SHALL remain the same when the questionnaire is stored on different servers.</t>
-  </si>
-  <si>
-    <t>The name of the referenced questionnaire can be conveyed using the http://hl7.org/fhir/StructureDefinition/display extension.</t>
-  </si>
-  <si>
-    <t>…  This is the id that will be used to link a QuestionnaireResponse to the Questionnaire the response is for.</t>
-  </si>
-  <si>
-    <t>Definition.url</t>
-  </si>
-  <si>
-    <t>.identifier[scope=BUSN;reliability=ISS]</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>Questionnaire.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Additional identifier for the questionnaire</t>
-  </si>
-  <si>
-    <t>A formal identifier that is used to identify this questionnaire when it is represented in other formats, or referenced in a specification, model, design or an instance.</t>
-  </si>
-  <si>
-    <t>Typically, this is used for identifiers that can go in an HL7 V3 II (instance identifier) data type, and can then identify this questionnaire outside of FHIR, where it is not possible to use the logical URI.</t>
-  </si>
-  <si>
-    <t>Allows externally provided and/or usable business identifiers to be easily associated with the module.</t>
-  </si>
-  <si>
-    <t>Definition.identifier</t>
-  </si>
-  <si>
-    <t>.identifier</t>
-  </si>
-  <si>
-    <t>no-gen-base</t>
-  </si>
-  <si>
-    <t>Questionnaire.version</t>
-  </si>
-  <si>
-    <t>Business version of the questionnaire</t>
-  </si>
-  <si>
-    <t>The identifier that is used to identify this version of the questionnaire when it is referenced in a specification, model, design or instance. This is an arbitrary value managed by the questionnaire author and is not expected to be globally unique. For example, it might be a timestamp (e.g. yyyymmdd) if a managed version is not available. There is also no expectation that versions can be placed in a lexicographical sequence.</t>
-  </si>
-  <si>
-    <t>There may be different questionnaire instances that have the same identifier but different versions.  The version can be appended to the url in a reference to allow a reference to a particular business version of the questionnaire with the format [url]|[version].</t>
-  </si>
-  <si>
-    <t>Definition.version</t>
-  </si>
-  <si>
-    <t>N/A (to add?)</t>
-  </si>
-  <si>
-    <t>FiveWs.version</t>
-  </si>
-  <si>
-    <t>Questionnaire.name</t>
-  </si>
-  <si>
-    <t>Name for this questionnaire (computer friendly)</t>
-  </si>
-  <si>
-    <t>A natural language name identifying the questionnaire. This name should be usable as an identifier for the module by machine processing applications such as code generation.</t>
-  </si>
-  <si>
-    <t>The name is not expected to be globally unique. The name should be a simple alphanumeric type name to ensure that it is machine-processing friendly.</t>
-  </si>
-  <si>
-    <t>Support human navigation and code generation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inv-0
-</t>
-  </si>
-  <si>
-    <t>Questionnaire.title</t>
-  </si>
-  <si>
-    <t>Name for this questionnaire (human friendly)</t>
-  </si>
-  <si>
-    <t>A short, descriptive, user-friendly title for the questionnaire.</t>
-  </si>
-  <si>
-    <t>This name does not need to be machine-processing friendly and may contain punctuation, white-space, etc.</t>
-  </si>
-  <si>
-    <t>Definition.title</t>
-  </si>
-  <si>
-    <t>.title</t>
-  </si>
-  <si>
-    <t>Questionnaire.derivedFrom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">canonical(Questionnaire)
-</t>
-  </si>
-  <si>
-    <t>Instantiates protocol or definition</t>
-  </si>
-  <si>
-    <t>The URL of a Questionnaire that this Questionnaire is based on.</t>
-  </si>
-  <si>
-    <t>Allows a Questionnaire to be created based on another Questionnaire.</t>
-  </si>
-  <si>
-    <t>Definition.derivedFrom</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=DRIV].target[classCode=OBS, moodCode=DEFN]</t>
-  </si>
-  <si>
-    <t>Questionnaire.status</t>
-  </si>
-  <si>
-    <t>draft | active | retired | unknown</t>
-  </si>
-  <si>
-    <t>The status of this questionnaire. Enables tracking the life-cycle of the content.</t>
-  </si>
-  <si>
-    <t>Allows filtering of questionnaires that are appropriate for use versus not.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>The lifecycle status of an artifact.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/publication-status|4.0.1</t>
-  </si>
-  <si>
-    <t>Definition.status</t>
-  </si>
-  <si>
-    <t>.status</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>Questionnaire.experimental</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>For testing purposes, not real usage</t>
-  </si>
-  <si>
-    <t>A Boolean value to indicate that this questionnaire is authored for testing purposes (or education/evaluation/marketing) and is not intended to be used for genuine usage.</t>
-  </si>
-  <si>
-    <t>Enables experimental content to be developed following the same lifecycle that would be used for a production-level questionnaire.</t>
-  </si>
-  <si>
-    <t>Definition.experimental</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>Questionnaire.subjectType</t>
-  </si>
-  <si>
-    <t>Resource that can be subject of QuestionnaireResponse</t>
-  </si>
-  <si>
-    <t>The types of subjects that can be the subject of responses created for the questionnaire.</t>
-  </si>
-  <si>
-    <t>If none are specified, then the subject is unlimited.</t>
-  </si>
-  <si>
-    <t>One of the resource types defined as part of this version of FHIR.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
-  </si>
-  <si>
-    <t>Definition.subject[x]</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=META].target[classCode=OBS, moodCode=DEFN, isCriterion=true].participation.role.classCode</t>
-  </si>
-  <si>
-    <t>Questionnaire.date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Revision Date
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
-</t>
-  </si>
-  <si>
-    <t>Date last changed</t>
-  </si>
-  <si>
-    <t>The date  (and optionally time) when the questionnaire was published. The date must change when the business version changes and it must change if the status code changes. In addition, it should change when the substantive content of the questionnaire changes.</t>
-  </si>
-  <si>
-    <t>Note that this is not the same as the resource last-modified-date, since the resource may be a secondary representation of the questionnaire. Additional specific dates may be added as extensions or be found by consulting Provenances associated with past versions of the resource.</t>
-  </si>
-  <si>
-    <t>Definition.date</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=AUT].time</t>
-  </si>
-  <si>
-    <t>FiveWs.recorded</t>
-  </si>
-  <si>
-    <t>Questionnaire.publisher</t>
-  </si>
-  <si>
-    <t>Name of the publisher (organization or individual)</t>
-  </si>
-  <si>
-    <t>The name of the organization or individual that published the questionnaire.</t>
-  </si>
-  <si>
-    <t>Usually an organization but may be an individual. The publisher (or steward) of the questionnaire is the organization or individual primarily responsible for the maintenance and upkeep of the questionnaire. This is not necessarily the same individual or organization that developed and initially authored the content. The publisher is the primary point of contact for questions or issues with the questionnaire. This item SHOULD be populated unless the information is available from context.</t>
-  </si>
-  <si>
-    <t>Helps establish the "authority/credibility" of the questionnaire.  May also allow for contact.</t>
-  </si>
-  <si>
-    <t>Definition.publisher</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=AUT].role</t>
-  </si>
-  <si>
-    <t>FiveWs.witness</t>
-  </si>
-  <si>
-    <t>Questionnaire.contact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ContactDetail
-</t>
-  </si>
-  <si>
-    <t>Contact details for the publisher</t>
-  </si>
-  <si>
-    <t>Contact details to assist a user in finding and communicating with the publisher.</t>
-  </si>
-  <si>
-    <t>May be a web site, an email address, a telephone number, etc.</t>
-  </si>
-  <si>
-    <t>Definition.contact</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=CALLBCK].role</t>
-  </si>
-  <si>
-    <t>Questionnaire.description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">markdown
-</t>
-  </si>
-  <si>
-    <t>Natural language description of the questionnaire</t>
-  </si>
-  <si>
-    <t>A free text natural language description of the questionnaire from a consumer's perspective.</t>
-  </si>
-  <si>
-    <t>This description can be used to capture details such as why the questionnaire was built, comments about misuse, instructions for clinical use and interpretation, literature references, examples from the paper world, etc. It is not a rendering of the questionnaire as conveyed in the 'text' field of the resource itself. This item SHOULD be populated unless the information is available from context (e.g. the language of the questionnaire is presumed to be the predominant language in the place the questionnaire was created).</t>
-  </si>
-  <si>
-    <t>Definition.description</t>
-  </si>
-  <si>
-    <t>.text</t>
-  </si>
-  <si>
-    <t>Questionnaire.useContext</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UsageContext
-</t>
-  </si>
-  <si>
-    <t>The context that the content is intended to support</t>
-  </si>
-  <si>
-    <t>The content was developed with a focus and intent of supporting the contexts that are listed. These contexts may be general categories (gender, age, ...) or may be references to specific programs (insurance plans, studies, ...) and may be used to assist with indexing and searching for appropriate questionnaire instances.</t>
-  </si>
-  <si>
-    <t>When multiple useContexts are specified, there is no expectation that all or any of the contexts apply.</t>
-  </si>
-  <si>
-    <t>Assist in searching for appropriate content.</t>
-  </si>
-  <si>
-    <t>Definition.useContext</t>
-  </si>
-  <si>
-    <t>Questionnaire.jurisdiction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Intended jurisdiction for questionnaire (if applicable)</t>
-  </si>
-  <si>
-    <t>A legal or geographic region in which the questionnaire is intended to be used.</t>
-  </si>
-  <si>
-    <t>It may be possible for the questionnaire to be used in jurisdictions other than those for which it was originally designed or intended.</t>
-  </si>
-  <si>
-    <t>Countries and regions within which this artifact is targeted for use.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/jurisdiction</t>
-  </si>
-  <si>
-    <t>Definition.jurisdiction</t>
-  </si>
-  <si>
-    <t>Questionnaire.purpose</t>
-  </si>
-  <si>
-    <t>Why this questionnaire is defined</t>
-  </si>
-  <si>
-    <t>Explanation of why this questionnaire is needed and why it has been designed as it has.</t>
-  </si>
-  <si>
-    <t>This element does not describe the usage of the questionnaire. Instead, it provides traceability of ''why'' the resource is either needed or ''why'' it is defined as it is.  This may be used to point to source materials or specifications that drove the structure of this questionnaire.</t>
-  </si>
-  <si>
-    <t>Definition.purpose</t>
-  </si>
-  <si>
-    <t>.reasonCode.text</t>
-  </si>
-  <si>
-    <t>FiveWs.why[x]</t>
-  </si>
-  <si>
-    <t>Questionnaire.copyright</t>
-  </si>
-  <si>
-    <t>License
-Restrictions</t>
-  </si>
-  <si>
-    <t>Use and/or publishing restrictions</t>
-  </si>
-  <si>
-    <t>A copyright statement relating to the questionnaire and/or its contents. Copyright statements are generally legal restrictions on the use and publishing of the questionnaire.</t>
-  </si>
-  <si>
-    <t>Consumers must be able to determine any legal restrictions on the use of the questionnaire and/or its content.</t>
-  </si>
-  <si>
-    <t>Definition.copyright</t>
-  </si>
-  <si>
-    <t>Questionnaire.approvalDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date
-</t>
-  </si>
-  <si>
-    <t>When the questionnaire was approved by publisher</t>
-  </si>
-  <si>
-    <t>The date on which the resource content was approved by the publisher. Approval happens once when the content is officially approved for usage.</t>
-  </si>
-  <si>
-    <t>The 'date' element may be more recent than the approval date because of minor changes or editorial corrections.</t>
-  </si>
-  <si>
-    <t>Definition.approvalDate</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode="SUBJ"].act[classCode=CACT;moodCode=EVN;code="approval"].effectiveTime</t>
-  </si>
-  <si>
-    <t>Questionnaire.lastReviewDate</t>
-  </si>
-  <si>
-    <t>When the questionnaire was last reviewed</t>
-  </si>
-  <si>
-    <t>The date on which the resource content was last reviewed. Review happens periodically after approval but does not change the original approval date.</t>
-  </si>
-  <si>
-    <t>If specified, this date follows the original approval date.</t>
-  </si>
-  <si>
-    <t>Gives a sense of how "current" the content is.  Resources that have not been reviewed in a long time may have a risk of being less appropriate/relevant.</t>
-  </si>
-  <si>
-    <t>Definition.lastReviewDate</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode="SUBJ"; subsetCode="RECENT"].act[classCode=CACT;moodCode=EVN;code="review"].effectiveTime</t>
-  </si>
-  <si>
-    <t>Questionnaire.effectivePeriod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>When the questionnaire is expected to be used</t>
-  </si>
-  <si>
-    <t>The period during which the questionnaire content was or is planned to be in active use.</t>
-  </si>
-  <si>
-    <t>The effective period for a questionnaire  determines when the content is applicable for usage and is independent of publication and review dates. For example, a measure intended to be used for the year 2016 might be published in 2015.</t>
-  </si>
-  <si>
-    <t>Allows establishing a transition before a resource comes into effect and also allows for a sunsetting  process when new versions of the questionnaire are or are expected to be used instead.</t>
-  </si>
-  <si>
-    <t>Definition.effectivePeriod</t>
-  </si>
-  <si>
-    <t>Questionnaire.code</t>
-  </si>
-  <si>
-    <t>Concept that represents the overall questionnaire</t>
-  </si>
-  <si>
-    <t>An identifier for this question or group of questions in a particular terminology such as LOINC.</t>
-  </si>
-  <si>
-    <t>Allows linking of the complete Questionnaire resources to formal terminologies.  It's common for "panels" of questions to be identified by a code.</t>
   </si>
   <si>
     <t>Codes for questionnaires, groups and individual questions.</t>
@@ -1146,7 +995,22 @@
     <t>Questionnaire.item.id</t>
   </si>
   <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>Questionnaire.item.extension</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
   </si>
   <si>
     <t>Settings</t>
@@ -1318,6 +1182,12 @@
   </si>
   <si>
     <t>Questionnaire.item.enableWhen.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Questionnaire.item.enableWhen.modifierExtension</t>
@@ -1917,7 +1787,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN76"/>
+  <dimension ref="A1:AN68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1949,11 +1819,11 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="98.61328125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="86.30859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="59.69140625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="45.5390625" customWidth="true" bestFit="true" hidden="true"/>
@@ -2447,21 +2317,23 @@
         <v>77</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="M5" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="M5" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
         <v>77</v>
@@ -2510,7 +2382,7 @@
         <v>77</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>75</v>
@@ -2522,13 +2394,13 @@
         <v>77</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AL5" t="s" s="2">
         <v>77</v>
@@ -2542,18 +2414,18 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>77</v>
@@ -2600,28 +2472,28 @@
         <v>77</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="Z6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="AC6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="AE6" t="s" s="2">
         <v>110</v>
@@ -2630,19 +2502,19 @@
         <v>75</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>77</v>
@@ -2656,11 +2528,11 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -2676,7 +2548,7 @@
         <v>77</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J7" t="s" s="2">
         <v>113</v>
@@ -2699,46 +2571,46 @@
         <v>77</v>
       </c>
       <c r="R7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE7" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="S7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE7" t="s" s="2">
-        <v>118</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>75</v>
@@ -2756,7 +2628,7 @@
         <v>77</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>77</v>
@@ -2774,14 +2646,14 @@
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>77</v>
+        <v>120</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>77</v>
@@ -2790,19 +2662,19 @@
         <v>77</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2813,7 +2685,7 @@
         <v>77</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>124</v>
+        <v>77</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>77</v>
@@ -2858,19 +2730,19 @@
         <v>75</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>77</v>
@@ -2884,7 +2756,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -2895,7 +2767,7 @@
         <v>75</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>77</v>
@@ -2904,20 +2776,18 @@
         <v>77</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="M9" t="s" s="2">
         <v>130</v>
       </c>
+      <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>77</v>
@@ -2954,31 +2824,29 @@
         <v>77</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>77</v>
@@ -2998,9 +2866,11 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="B10" s="2"/>
+        <v>127</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="C10" t="s" s="2">
         <v>77</v>
       </c>
@@ -3009,7 +2879,7 @@
         <v>75</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>77</v>
@@ -3018,20 +2888,18 @@
         <v>77</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>77</v>
@@ -3080,7 +2948,7 @@
         <v>77</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>75</v>
@@ -3089,10 +2957,10 @@
         <v>76</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>77</v>
+        <v>139</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>77</v>
@@ -3112,11 +2980,11 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -3129,24 +2997,26 @@
         <v>77</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="N11" s="2"/>
+        <v>144</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="O11" t="s" s="2">
         <v>77</v>
       </c>
@@ -3170,13 +3040,13 @@
         <v>77</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>143</v>
+        <v>77</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>145</v>
+        <v>77</v>
       </c>
       <c r="Z11" t="s" s="2">
         <v>77</v>
@@ -3206,13 +3076,13 @@
         <v>77</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>77</v>
@@ -3237,7 +3107,7 @@
         <v>75</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>77</v>
@@ -3249,7 +3119,7 @@
         <v>84</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>139</v>
+        <v>97</v>
       </c>
       <c r="K12" t="s" s="2">
         <v>148</v>
@@ -3260,7 +3130,9 @@
       <c r="M12" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="N12" s="2"/>
+      <c r="N12" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="O12" t="s" s="2">
         <v>77</v>
       </c>
@@ -3284,13 +3156,13 @@
         <v>77</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>151</v>
+        <v>77</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>152</v>
+        <v>77</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>153</v>
+        <v>77</v>
       </c>
       <c r="Z12" t="s" s="2">
         <v>77</v>
@@ -3308,13 +3180,13 @@
         <v>77</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>77</v>
@@ -3323,13 +3195,13 @@
         <v>95</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>77</v>
+        <v>152</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>77</v>
+        <v>153</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>77</v>
+        <v>154</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>77</v>
@@ -3348,7 +3220,7 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>83</v>
@@ -3357,24 +3229,26 @@
         <v>77</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>84</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>127</v>
+        <v>156</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="N13" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="O13" t="s" s="2">
         <v>77</v>
       </c>
@@ -3422,13 +3296,13 @@
         <v>77</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>77</v>
@@ -3437,16 +3311,16 @@
         <v>95</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>77</v>
+        <v>161</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>77</v>
+        <v>162</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>77</v>
+        <v>154</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>77</v>
+        <v>163</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>77</v>
@@ -3454,7 +3328,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3474,19 +3348,19 @@
         <v>77</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>161</v>
+        <v>85</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -3512,13 +3386,13 @@
         <v>77</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>166</v>
+        <v>77</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>167</v>
+        <v>77</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>77</v>
@@ -3536,7 +3410,7 @@
         <v>77</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>75</v>
@@ -3551,13 +3425,13 @@
         <v>95</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>77</v>
+        <v>169</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>77</v>
@@ -3568,11 +3442,11 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>170</v>
+        <v>77</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -3588,10 +3462,10 @@
         <v>77</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>171</v>
+        <v>85</v>
       </c>
       <c r="K15" t="s" s="2">
         <v>172</v>
@@ -3602,7 +3476,9 @@
       <c r="M15" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="N15" s="2"/>
+      <c r="N15" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="O15" t="s" s="2">
         <v>77</v>
       </c>
@@ -3650,7 +3526,7 @@
         <v>77</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>75</v>
@@ -3659,7 +3535,7 @@
         <v>83</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>77</v>
+        <v>176</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>95</v>
@@ -3668,7 +3544,7 @@
         <v>77</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>176</v>
+        <v>126</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>77</v>
@@ -3686,14 +3562,14 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>178</v>
+        <v>77</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>77</v>
@@ -3702,19 +3578,19 @@
         <v>77</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3764,25 +3640,25 @@
         <v>77</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>77</v>
+        <v>181</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>77</v>
@@ -3796,7 +3672,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3819,16 +3695,18 @@
         <v>77</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>103</v>
+        <v>184</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" s="2"/>
+      <c r="N17" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>77</v>
       </c>
@@ -3864,17 +3742,19 @@
         <v>77</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AB17" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AC17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>75</v>
@@ -3886,13 +3766,13 @@
         <v>77</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>77</v>
+        <v>188</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>77</v>
+        <v>189</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>77</v>
@@ -3904,34 +3784,32 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>189</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>190</v>
+        <v>103</v>
       </c>
       <c r="K18" t="s" s="2">
         <v>191</v>
@@ -3939,7 +3817,9 @@
       <c r="L18" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="M18" s="2"/>
+      <c r="M18" t="s" s="2">
+        <v>193</v>
+      </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>77</v>
@@ -3964,13 +3844,13 @@
         <v>77</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>77</v>
+        <v>194</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>77</v>
+        <v>195</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>77</v>
+        <v>196</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>77</v>
@@ -3988,28 +3868,28 @@
         <v>77</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>193</v>
+        <v>77</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>77</v>
+        <v>197</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>77</v>
+        <v>198</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>77</v>
+        <v>199</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>77</v>
@@ -4020,42 +3900,42 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I19" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="I19" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="J19" t="s" s="2">
-        <v>103</v>
+        <v>201</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>106</v>
+        <v>193</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>77</v>
@@ -4104,28 +3984,28 @@
         <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>77</v>
+        <v>205</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>184</v>
+        <v>126</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>77</v>
+        <v>206</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>77</v>
@@ -4136,7 +4016,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4147,7 +4027,7 @@
         <v>75</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>77</v>
@@ -4159,20 +4039,18 @@
         <v>84</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>203</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>77</v>
       </c>
@@ -4196,13 +4074,13 @@
         <v>77</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>77</v>
+        <v>194</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>77</v>
+        <v>211</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>77</v>
+        <v>212</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>77</v>
@@ -4220,13 +4098,13 @@
         <v>77</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>77</v>
@@ -4235,13 +4113,13 @@
         <v>95</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>206</v>
+        <v>77</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>77</v>
@@ -4252,15 +4130,15 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>77</v>
+        <v>216</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>83</v>
@@ -4275,20 +4153,18 @@
         <v>84</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>212</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>77</v>
       </c>
@@ -4336,13 +4212,13 @@
         <v>77</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>77</v>
@@ -4351,16 +4227,16 @@
         <v>95</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>215</v>
+        <v>77</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>77</v>
@@ -4368,7 +4244,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4394,15 +4270,17 @@
         <v>85</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>227</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>228</v>
+      </c>
       <c r="O22" t="s" s="2">
         <v>77</v>
       </c>
@@ -4450,7 +4328,7 @@
         <v>77</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>75</v>
@@ -4465,13 +4343,13 @@
         <v>95</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>77</v>
@@ -4482,7 +4360,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4493,7 +4371,7 @@
         <v>75</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>77</v>
@@ -4505,20 +4383,18 @@
         <v>84</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>85</v>
+        <v>233</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>227</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>77</v>
       </c>
@@ -4566,25 +4442,25 @@
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>228</v>
+        <v>77</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>77</v>
+        <v>237</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>184</v>
+        <v>238</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>77</v>
@@ -4598,7 +4474,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4618,19 +4494,19 @@
         <v>77</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>85</v>
+        <v>240</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4680,7 +4556,7 @@
         <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>75</v>
@@ -4695,10 +4571,10 @@
         <v>95</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>77</v>
@@ -4712,7 +4588,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4732,20 +4608,22 @@
         <v>77</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="M25" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="N25" t="s" s="2">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>77</v>
@@ -4794,7 +4672,7 @@
         <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>75</v>
@@ -4809,10 +4687,10 @@
         <v>95</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>241</v>
+        <v>169</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>77</v>
@@ -4824,9 +4702,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4834,31 +4712,31 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>84</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>161</v>
+        <v>254</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4884,13 +4762,13 @@
         <v>77</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>77</v>
@@ -4908,13 +4786,13 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>77</v>
@@ -4923,13 +4801,13 @@
         <v>95</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>250</v>
+        <v>169</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>251</v>
+        <v>77</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>77</v>
@@ -4940,7 +4818,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4960,23 +4838,21 @@
         <v>77</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>256</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>77</v>
       </c>
@@ -5024,7 +4900,7 @@
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>75</v>
@@ -5039,16 +4915,16 @@
         <v>95</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>184</v>
+        <v>267</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>77</v>
+        <v>163</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>77</v>
@@ -5056,18 +4932,18 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>77</v>
+        <v>270</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>77</v>
@@ -5076,21 +4952,21 @@
         <v>77</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>161</v>
+        <v>240</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>272</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" t="s" s="2">
+        <v>273</v>
+      </c>
       <c r="O28" t="s" s="2">
         <v>77</v>
       </c>
@@ -5114,13 +4990,13 @@
         <v>77</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>246</v>
+        <v>77</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>263</v>
+        <v>77</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>264</v>
+        <v>77</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>77</v>
@@ -5138,13 +5014,13 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>77</v>
@@ -5153,16 +5029,16 @@
         <v>95</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>266</v>
+        <v>169</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>77</v>
+        <v>163</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>77</v>
@@ -5170,11 +5046,11 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>268</v>
+        <v>77</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -5190,19 +5066,19 @@
         <v>77</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5252,7 +5128,7 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>75</v>
@@ -5267,16 +5143,16 @@
         <v>95</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>275</v>
+        <v>77</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>77</v>
+        <v>163</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -5284,7 +5160,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5304,22 +5180,22 @@
         <v>77</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>85</v>
+        <v>276</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>77</v>
@@ -5368,7 +5244,7 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>75</v>
@@ -5383,16 +5259,16 @@
         <v>95</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>283</v>
+        <v>77</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>77</v>
+        <v>163</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>77</v>
@@ -5400,7 +5276,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5411,7 +5287,7 @@
         <v>75</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>77</v>
@@ -5423,18 +5299,20 @@
         <v>84</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>293</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>294</v>
+      </c>
       <c r="O31" t="s" s="2">
         <v>77</v>
       </c>
@@ -5482,13 +5360,13 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>77</v>
@@ -5497,16 +5375,16 @@
         <v>95</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>290</v>
+        <v>169</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>77</v>
+        <v>163</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>77</v>
@@ -5514,7 +5392,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5525,7 +5403,7 @@
         <v>75</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>77</v>
@@ -5534,21 +5412,21 @@
         <v>77</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>299</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" t="s" s="2">
+        <v>300</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>77</v>
       </c>
@@ -5572,13 +5450,13 @@
         <v>77</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>77</v>
+        <v>301</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>77</v>
+        <v>302</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>77</v>
+        <v>303</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>77</v>
@@ -5596,13 +5474,13 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>77</v>
@@ -5611,10 +5489,10 @@
         <v>95</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>296</v>
+        <v>77</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>77</v>
@@ -5628,7 +5506,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5648,23 +5526,21 @@
         <v>77</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>303</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>77</v>
       </c>
@@ -5712,7 +5588,7 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>75</v>
@@ -5721,16 +5597,16 @@
         <v>76</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>77</v>
+        <v>310</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>95</v>
+        <v>311</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>304</v>
+        <v>77</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>221</v>
+        <v>312</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>77</v>
@@ -5744,7 +5620,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5755,7 +5631,7 @@
         <v>75</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>77</v>
@@ -5764,20 +5640,18 @@
         <v>77</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>306</v>
+        <v>85</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>309</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>77</v>
@@ -5802,13 +5676,13 @@
         <v>77</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>143</v>
+        <v>77</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>310</v>
+        <v>77</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>311</v>
+        <v>77</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>77</v>
@@ -5826,25 +5700,25 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>312</v>
+        <v>77</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>221</v>
+        <v>317</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>77</v>
@@ -5858,7 +5732,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5869,7 +5743,7 @@
         <v>75</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>77</v>
@@ -5881,17 +5755,15 @@
         <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>292</v>
+        <v>128</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>314</v>
+        <v>129</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>316</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>77</v>
@@ -5928,55 +5800,55 @@
         <v>77</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="AB35" s="2"/>
       <c r="AC35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>317</v>
+        <v>77</v>
       </c>
       <c r="AK35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN35" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="AL35" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="36" hidden="true">
-      <c r="A36" t="s" s="2">
+      <c r="B36" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>321</v>
+        <v>77</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5986,7 +5858,7 @@
         <v>83</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>77</v>
@@ -5995,7 +5867,7 @@
         <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>292</v>
+        <v>321</v>
       </c>
       <c r="K36" t="s" s="2">
         <v>322</v>
@@ -6004,9 +5876,7 @@
         <v>323</v>
       </c>
       <c r="M36" s="2"/>
-      <c r="N36" t="s" s="2">
-        <v>324</v>
-      </c>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>77</v>
       </c>
@@ -6054,31 +5924,31 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>77</v>
+        <v>139</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>325</v>
+        <v>77</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>221</v>
+        <v>77</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>215</v>
+        <v>77</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>77</v>
@@ -6086,41 +5956,43 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>77</v>
+        <v>325</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="K37" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>329</v>
-      </c>
       <c r="M37" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>144</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="O37" t="s" s="2">
         <v>77</v>
       </c>
@@ -6168,31 +6040,31 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>331</v>
+        <v>77</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>332</v>
+        <v>126</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>215</v>
+        <v>77</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>77</v>
@@ -6200,7 +6072,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6208,7 +6080,7 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>83</v>
@@ -6223,19 +6095,19 @@
         <v>77</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>327</v>
+        <v>85</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>77</v>
@@ -6284,10 +6156,10 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>83</v>
@@ -6299,24 +6171,24 @@
         <v>95</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>338</v>
+        <v>77</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>215</v>
+        <v>77</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6324,34 +6196,34 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>341</v>
+        <v>97</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>77</v>
@@ -6400,7 +6272,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>75</v>
@@ -6415,16 +6287,16 @@
         <v>95</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>346</v>
+        <v>77</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>221</v>
+        <v>340</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>215</v>
+        <v>77</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>77</v>
@@ -6432,7 +6304,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6452,20 +6324,22 @@
         <v>77</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>139</v>
+        <v>297</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="M40" s="2"/>
+        <v>343</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>344</v>
+      </c>
       <c r="N40" t="s" s="2">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>77</v>
@@ -6490,13 +6364,13 @@
         <v>77</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>351</v>
+        <v>302</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>352</v>
+        <v>303</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>77</v>
@@ -6514,7 +6388,7 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>75</v>
@@ -6523,7 +6397,7 @@
         <v>76</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>77</v>
+        <v>310</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>95</v>
@@ -6532,7 +6406,7 @@
         <v>77</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>353</v>
+        <v>304</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>77</v>
@@ -6546,18 +6420,18 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>77</v>
+        <v>347</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>77</v>
@@ -6569,18 +6443,20 @@
         <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>355</v>
+        <v>85</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>350</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>351</v>
+      </c>
       <c r="O41" t="s" s="2">
         <v>77</v>
       </c>
@@ -6628,25 +6504,25 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>359</v>
+        <v>77</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>360</v>
+        <v>95</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>77</v>
@@ -6658,9 +6534,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6668,13 +6544,13 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>77</v>
@@ -6686,12 +6562,14 @@
         <v>85</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>97</v>
+        <v>354</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="M42" s="2"/>
+        <v>355</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>356</v>
+      </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>77</v>
@@ -6740,7 +6618,7 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>99</v>
+        <v>353</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>75</v>
@@ -6752,13 +6630,13 @@
         <v>77</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>100</v>
+        <v>245</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>77</v>
@@ -6772,7 +6650,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6780,10 +6658,10 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>77</v>
@@ -6798,13 +6676,17 @@
         <v>103</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>186</v>
+        <v>358</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
+        <v>359</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>361</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>77</v>
       </c>
@@ -6828,47 +6710,49 @@
         <v>77</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>77</v>
+        <v>194</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>77</v>
+        <v>362</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>77</v>
+        <v>363</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AB43" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AC43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>110</v>
+        <v>357</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>77</v>
+        <v>364</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>77</v>
@@ -6880,13 +6764,11 @@
         <v>77</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="B44" t="s" s="2">
-        <v>364</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
         <v>77</v>
       </c>
@@ -6895,19 +6777,19 @@
         <v>75</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H44" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="H44" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="I44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>365</v>
+        <v>306</v>
       </c>
       <c r="K44" t="s" s="2">
         <v>366</v>
@@ -6915,8 +6797,12 @@
       <c r="L44" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
+      <c r="M44" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>369</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>77</v>
       </c>
@@ -6964,7 +6850,7 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>110</v>
+        <v>365</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>75</v>
@@ -6973,16 +6859,16 @@
         <v>76</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>193</v>
+        <v>77</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>111</v>
+        <v>370</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>77</v>
+        <v>364</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>77</v>
@@ -6996,43 +6882,39 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>369</v>
+        <v>77</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>370</v>
+        <v>314</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>197</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>77</v>
       </c>
@@ -7080,25 +6962,25 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>372</v>
+        <v>316</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>184</v>
+        <v>317</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>77</v>
@@ -7112,18 +6994,18 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>77</v>
@@ -7135,20 +7017,18 @@
         <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="L46" t="s" s="2">
-        <v>375</v>
-      </c>
       <c r="M46" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>377</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>77</v>
       </c>
@@ -7196,25 +7076,25 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>373</v>
+        <v>319</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>378</v>
+        <v>317</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>77</v>
@@ -7226,44 +7106,44 @@
         <v>77</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>77</v>
+        <v>325</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H47" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="H47" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="I47" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>380</v>
+        <v>326</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>381</v>
+        <v>327</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>382</v>
+        <v>144</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>383</v>
+        <v>145</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>77</v>
@@ -7312,25 +7192,25 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>379</v>
+        <v>328</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>384</v>
+        <v>126</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>77</v>
@@ -7344,7 +7224,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7352,10 +7232,10 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>77</v>
@@ -7367,20 +7247,18 @@
         <v>77</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>139</v>
+        <v>85</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>389</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>77</v>
       </c>
@@ -7404,13 +7282,13 @@
         <v>77</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>151</v>
+        <v>77</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>351</v>
+        <v>77</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>352</v>
+        <v>77</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>77</v>
@@ -7428,16 +7306,16 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>359</v>
+        <v>77</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>95</v>
@@ -7446,7 +7324,7 @@
         <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>77</v>
@@ -7460,15 +7338,15 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>391</v>
+        <v>77</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>83</v>
@@ -7483,20 +7361,16 @@
         <v>77</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>395</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>77</v>
       </c>
@@ -7520,13 +7394,13 @@
         <v>77</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>77</v>
+        <v>194</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>77</v>
+        <v>383</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>77</v>
+        <v>384</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>77</v>
@@ -7544,10 +7418,10 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>83</v>
@@ -7562,7 +7436,7 @@
         <v>77</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>396</v>
+        <v>364</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>77</v>
@@ -7574,9 +7448,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7590,7 +7464,7 @@
         <v>83</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>77</v>
@@ -7599,17 +7473,15 @@
         <v>77</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>85</v>
+        <v>386</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>400</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>77</v>
@@ -7634,13 +7506,13 @@
         <v>77</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>77</v>
+        <v>301</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>77</v>
+        <v>389</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>77</v>
+        <v>390</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>77</v>
@@ -7658,16 +7530,16 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>77</v>
+        <v>391</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>95</v>
@@ -7676,7 +7548,7 @@
         <v>77</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>297</v>
+        <v>364</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>77</v>
@@ -7690,7 +7562,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7698,7 +7570,7 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>83</v>
@@ -7713,20 +7585,18 @@
         <v>77</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>161</v>
+        <v>103</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>405</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>77</v>
       </c>
@@ -7750,13 +7620,13 @@
         <v>77</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>246</v>
+        <v>194</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>77</v>
@@ -7774,16 +7644,16 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>77</v>
+        <v>397</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>95</v>
@@ -7792,7 +7662,7 @@
         <v>77</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>408</v>
+        <v>364</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>77</v>
@@ -7804,9 +7674,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="52" hidden="true">
+    <row r="52">
       <c r="A52" t="s" s="2">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7814,39 +7684,39 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>355</v>
+        <v>201</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>413</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P52" s="2"/>
+      <c r="P52" t="s" s="2">
+        <v>402</v>
+      </c>
       <c r="Q52" t="s" s="2">
         <v>77</v>
       </c>
@@ -7890,25 +7760,25 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>77</v>
+        <v>403</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>414</v>
+        <v>95</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>408</v>
+        <v>364</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>77</v>
@@ -7922,7 +7792,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7945,20 +7815,26 @@
         <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>85</v>
+        <v>201</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>97</v>
+        <v>405</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
+        <v>406</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>408</v>
+      </c>
       <c r="O53" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P53" s="2"/>
+      <c r="P53" t="s" s="2">
+        <v>409</v>
+      </c>
       <c r="Q53" t="s" s="2">
         <v>77</v>
       </c>
@@ -8002,7 +7878,7 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>99</v>
+        <v>404</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>75</v>
@@ -8011,16 +7887,16 @@
         <v>83</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>77</v>
+        <v>403</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>100</v>
+        <v>364</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>77</v>
@@ -8034,18 +7910,18 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>77</v>
@@ -8057,18 +7933,20 @@
         <v>77</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>103</v>
+        <v>201</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>104</v>
+        <v>411</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>105</v>
+        <v>412</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>413</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>414</v>
+      </c>
       <c r="O54" t="s" s="2">
         <v>77</v>
       </c>
@@ -8116,25 +7994,25 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>110</v>
+        <v>410</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>77</v>
+        <v>415</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>100</v>
+        <v>364</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>77</v>
@@ -8148,43 +8026,41 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>369</v>
+        <v>77</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>103</v>
+        <v>417</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>370</v>
+        <v>418</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>371</v>
+        <v>419</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>197</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>77</v>
       </c>
@@ -8232,25 +8108,25 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>372</v>
+        <v>416</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>77</v>
+        <v>421</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>184</v>
+        <v>364</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>77</v>
@@ -8259,12 +8135,12 @@
         <v>77</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>77</v>
+        <v>126</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8272,7 +8148,7 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>83</v>
@@ -8287,16 +8163,16 @@
         <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>85</v>
+        <v>423</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8346,16 +8222,16 @@
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>77</v>
+        <v>427</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>95</v>
@@ -8364,7 +8240,7 @@
         <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>408</v>
+        <v>364</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>77</v>
@@ -8378,7 +8254,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8386,10 +8262,10 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>77</v>
@@ -8401,15 +8277,17 @@
         <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>161</v>
+        <v>306</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="M57" s="2"/>
+        <v>430</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>431</v>
+      </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>77</v>
@@ -8434,13 +8312,13 @@
         <v>77</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>246</v>
+        <v>77</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>425</v>
+        <v>77</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>426</v>
+        <v>77</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>77</v>
@@ -8458,16 +8336,16 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>77</v>
+        <v>427</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>95</v>
@@ -8476,7 +8354,7 @@
         <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>408</v>
+        <v>364</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
@@ -8490,7 +8368,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8498,7 +8376,7 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F58" t="s" s="2">
         <v>83</v>
@@ -8513,13 +8391,13 @@
         <v>77</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>428</v>
+        <v>85</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>429</v>
+        <v>314</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>430</v>
+        <v>315</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8546,13 +8424,13 @@
         <v>77</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>151</v>
+        <v>77</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>431</v>
+        <v>77</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>432</v>
+        <v>77</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>77</v>
@@ -8570,25 +8448,25 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>427</v>
+        <v>316</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>433</v>
+        <v>77</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>408</v>
+        <v>317</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -8602,18 +8480,18 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>77</v>
@@ -8625,16 +8503,16 @@
         <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>161</v>
+        <v>128</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>435</v>
+        <v>373</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>436</v>
+        <v>374</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>437</v>
+        <v>144</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8660,13 +8538,13 @@
         <v>77</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>246</v>
+        <v>77</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>436</v>
+        <v>77</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>438</v>
+        <v>77</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>77</v>
@@ -8684,79 +8562,79 @@
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="60" hidden="true">
+      <c r="A60" t="s" s="2">
         <v>434</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s" s="2">
-        <v>440</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>77</v>
+        <v>325</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H60" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="H60" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="I60" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>253</v>
+        <v>128</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>441</v>
+        <v>326</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>442</v>
+        <v>327</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>144</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P60" t="s" s="2">
-        <v>444</v>
-      </c>
+      <c r="P60" s="2"/>
       <c r="Q60" t="s" s="2">
         <v>77</v>
       </c>
@@ -8800,25 +8678,25 @@
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>440</v>
+        <v>328</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>445</v>
+        <v>77</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>408</v>
+        <v>126</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>77</v>
@@ -8832,7 +8710,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8840,7 +8718,7 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F61" t="s" s="2">
         <v>83</v>
@@ -8855,26 +8733,22 @@
         <v>77</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>253</v>
+        <v>436</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>450</v>
-      </c>
+        <v>439</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P61" t="s" s="2">
-        <v>451</v>
-      </c>
+      <c r="P61" s="2"/>
       <c r="Q61" t="s" s="2">
         <v>77</v>
       </c>
@@ -8894,13 +8768,13 @@
         <v>77</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>77</v>
+        <v>301</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>77</v>
+        <v>389</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>77</v>
+        <v>390</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>77</v>
@@ -8918,16 +8792,16 @@
         <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>445</v>
+        <v>77</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>95</v>
@@ -8936,7 +8810,7 @@
         <v>77</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>408</v>
+        <v>364</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>77</v>
@@ -8950,7 +8824,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8973,24 +8847,24 @@
         <v>77</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>253</v>
+        <v>201</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>456</v>
-      </c>
+        <v>443</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P62" s="2"/>
+      <c r="P62" t="s" s="2">
+        <v>444</v>
+      </c>
       <c r="Q62" t="s" s="2">
         <v>77</v>
       </c>
@@ -9034,7 +8908,7 @@
         <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>75</v>
@@ -9043,7 +8917,7 @@
         <v>83</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>457</v>
+        <v>77</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>95</v>
@@ -9052,7 +8926,7 @@
         <v>77</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>408</v>
+        <v>364</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>77</v>
@@ -9066,7 +8940,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9077,7 +8951,7 @@
         <v>75</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>77</v>
@@ -9089,18 +8963,20 @@
         <v>77</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>459</v>
+        <v>306</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>460</v>
+        <v>446</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>461</v>
+        <v>447</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>448</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>449</v>
+      </c>
       <c r="O63" t="s" s="2">
         <v>77</v>
       </c>
@@ -9148,16 +9024,16 @@
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>95</v>
@@ -9166,7 +9042,7 @@
         <v>77</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>408</v>
+        <v>364</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>77</v>
@@ -9175,12 +9051,12 @@
         <v>77</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>184</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9203,17 +9079,15 @@
         <v>77</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>465</v>
+        <v>85</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>466</v>
+        <v>314</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>468</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="M64" s="2"/>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>77</v>
@@ -9262,7 +9136,7 @@
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>464</v>
+        <v>316</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>75</v>
@@ -9271,16 +9145,16 @@
         <v>83</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>469</v>
+        <v>77</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>408</v>
+        <v>317</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>77</v>
@@ -9294,11 +9168,11 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>470</v>
+        <v>452</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -9317,16 +9191,16 @@
         <v>77</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>355</v>
+        <v>128</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>471</v>
+        <v>373</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>472</v>
+        <v>374</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>473</v>
+        <v>144</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9376,7 +9250,7 @@
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>470</v>
+        <v>319</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>75</v>
@@ -9385,16 +9259,16 @@
         <v>76</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>469</v>
+        <v>77</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>408</v>
+        <v>317</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>77</v>
@@ -9408,39 +9282,43 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>474</v>
+        <v>453</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>77</v>
+        <v>325</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>97</v>
+        <v>326</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="M66" s="2"/>
-      <c r="N66" s="2"/>
+        <v>327</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="O66" t="s" s="2">
         <v>77</v>
       </c>
@@ -9488,25 +9366,25 @@
         <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>99</v>
+        <v>328</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>77</v>
@@ -9520,18 +9398,18 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>475</v>
+        <v>454</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>77</v>
@@ -9543,16 +9421,16 @@
         <v>77</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>103</v>
+        <v>455</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>104</v>
+        <v>456</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>105</v>
+        <v>457</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>106</v>
+        <v>458</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -9578,13 +9456,13 @@
         <v>77</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>77</v>
+        <v>301</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>77</v>
+        <v>389</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>77</v>
+        <v>390</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>77</v>
@@ -9602,25 +9480,25 @@
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>110</v>
+        <v>454</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>100</v>
+        <v>364</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>77</v>
@@ -9634,11 +9512,11 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>476</v>
+        <v>459</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>369</v>
+        <v>77</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9651,25 +9529,25 @@
         <v>77</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>370</v>
+        <v>460</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>371</v>
+        <v>461</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>106</v>
+        <v>462</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>197</v>
+        <v>463</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>77</v>
@@ -9718,7 +9596,7 @@
         <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>372</v>
+        <v>459</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>75</v>
@@ -9727,16 +9605,16 @@
         <v>76</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>77</v>
+        <v>464</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>184</v>
+        <v>465</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>77</v>
@@ -9745,929 +9623,11 @@
         <v>77</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="69" hidden="true">
-      <c r="A69" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="B69" s="2"/>
-      <c r="C69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D69" s="2"/>
-      <c r="E69" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="F69" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J69" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="N69" s="2"/>
-      <c r="O69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P69" s="2"/>
-      <c r="Q69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="70" hidden="true">
-      <c r="A70" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="B70" s="2"/>
-      <c r="C70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D70" s="2"/>
-      <c r="E70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F70" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="N70" s="2"/>
-      <c r="O70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P70" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="Q70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="71" hidden="true">
-      <c r="A71" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="B71" s="2"/>
-      <c r="C71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D71" s="2"/>
-      <c r="E71" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P71" s="2"/>
-      <c r="Q71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="72" hidden="true">
-      <c r="A72" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="B72" s="2"/>
-      <c r="C72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D72" s="2"/>
-      <c r="E72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F72" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
-      <c r="O72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P72" s="2"/>
-      <c r="Q72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="73" hidden="true">
-      <c r="A73" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="B73" s="2"/>
-      <c r="C73" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="D73" s="2"/>
-      <c r="E73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N73" s="2"/>
-      <c r="O73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P73" s="2"/>
-      <c r="Q73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="74" hidden="true">
-      <c r="A74" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="B74" s="2"/>
-      <c r="C74" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="D74" s="2"/>
-      <c r="E74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P74" s="2"/>
-      <c r="Q74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="75" hidden="true">
-      <c r="A75" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="B75" s="2"/>
-      <c r="C75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D75" s="2"/>
-      <c r="E75" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="F75" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="N75" s="2"/>
-      <c r="O75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P75" s="2"/>
-      <c r="Q75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="76" hidden="true">
-      <c r="A76" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="B76" s="2"/>
-      <c r="C76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D76" s="2"/>
-      <c r="E76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P76" s="2"/>
-      <c r="Q76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN76" t="s" s="2">
         <v>77</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN76">
+  <autoFilter ref="A1:AN68">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10677,7 +9637,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI75">
+  <conditionalFormatting sqref="A2:AI67">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-questionnaire-s37.xlsx
+++ b/StructureDefinition-questionnaire-s37.xlsx
@@ -6186,7 +6186,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
         <v>335</v>
       </c>
@@ -6196,13 +6196,13 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>77</v>
@@ -6534,7 +6534,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
         <v>353</v>
       </c>
@@ -6544,13 +6544,13 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>77</v>
@@ -7674,7 +7674,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
         <v>398</v>
       </c>
@@ -7684,13 +7684,13 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F52" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>77</v>

--- a/StructureDefinition-questionnaire-s37.xlsx
+++ b/StructureDefinition-questionnaire-s37.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$68</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$71</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2501" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2611" uniqueCount="478">
   <si>
     <t>Property</t>
   </si>
@@ -1024,6 +1024,45 @@
   </si>
   <si>
     <t xml:space="preserve">Extension : Questionnaire.item.settings </t>
+  </si>
+  <si>
+    <t>hidden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {questionnaire-hidden}
+</t>
+  </si>
+  <si>
+    <t>Don't display to user</t>
+  </si>
+  <si>
+    <t>If true, indicates that the extended item should not be displayed to the user.</t>
+  </si>
+  <si>
+    <t>If an item is hidden, all descendant items are hidden as well.</t>
+  </si>
+  <si>
+    <t>itemControl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {questionnaire-itemControl}
+</t>
+  </si>
+  <si>
+    <t>E.g. Fly-over, Table, Checkbox, Combo-box, Lookup, etc.</t>
+  </si>
+  <si>
+    <t>The type of data entry control or structure that should be used to render the item.</t>
+  </si>
+  <si>
+    <t>Different controls may be appropriate for different item types.  It is up to the system rendering a questionnaire as to what controls it will support and for which data types.</t>
+  </si>
+  <si>
+    <t>observationExtract</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://science37.com/StructureDefinition/observation-Extract}
+</t>
   </si>
   <si>
     <t>Questionnaire.item.modifierExtension</t>
@@ -1787,7 +1826,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN68"/>
+  <dimension ref="A1:AN71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1797,7 +1836,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="49.16796875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="18.44921875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -5956,30 +5995,32 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="B37" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>325</v>
+        <v>77</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>128</v>
+        <v>325</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>326</v>
@@ -5988,11 +6029,9 @@
         <v>327</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>77</v>
       </c>
@@ -6040,7 +6079,7 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>75</v>
@@ -6049,7 +6088,7 @@
         <v>76</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>77</v>
+        <v>139</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>134</v>
@@ -6058,7 +6097,7 @@
         <v>77</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>77</v>
@@ -6072,15 +6111,17 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="B38" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>83</v>
@@ -6095,20 +6136,18 @@
         <v>77</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>85</v>
+        <v>330</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="N38" t="s" s="2">
         <v>333</v>
       </c>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>77</v>
       </c>
@@ -6156,25 +6195,25 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>77</v>
+        <v>139</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>334</v>
+        <v>77</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>77</v>
@@ -6188,9 +6227,11 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="B39" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>334</v>
+      </c>
       <c r="C39" t="s" s="2">
         <v>77</v>
       </c>
@@ -6211,20 +6252,16 @@
         <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>97</v>
+        <v>335</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>339</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>77</v>
       </c>
@@ -6272,25 +6309,25 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>77</v>
+        <v>139</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>340</v>
+        <v>77</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>77</v>
@@ -6304,11 +6341,11 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>77</v>
+        <v>337</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -6321,25 +6358,25 @@
         <v>77</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>297</v>
+        <v>128</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>344</v>
+        <v>144</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>345</v>
+        <v>145</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>77</v>
@@ -6364,13 +6401,13 @@
         <v>77</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>301</v>
+        <v>77</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>302</v>
+        <v>77</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>303</v>
+        <v>77</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>77</v>
@@ -6388,7 +6425,7 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>75</v>
@@ -6397,16 +6434,16 @@
         <v>76</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>310</v>
+        <v>77</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>304</v>
+        <v>126</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>77</v>
@@ -6420,15 +6457,15 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>347</v>
+        <v>77</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F41" t="s" s="2">
         <v>83</v>
@@ -6446,16 +6483,16 @@
         <v>85</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>77</v>
@@ -6504,10 +6541,10 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>83</v>
@@ -6522,7 +6559,7 @@
         <v>77</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>77</v>
@@ -6536,7 +6573,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6559,18 +6596,20 @@
         <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>350</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>351</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>77</v>
       </c>
@@ -6618,7 +6657,7 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>75</v>
@@ -6636,7 +6675,7 @@
         <v>77</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>245</v>
+        <v>352</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>77</v>
@@ -6650,7 +6689,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6658,10 +6697,10 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>77</v>
@@ -6673,19 +6712,19 @@
         <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>103</v>
+        <v>297</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>77</v>
@@ -6710,13 +6749,13 @@
         <v>77</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>194</v>
+        <v>301</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>362</v>
+        <v>302</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>363</v>
+        <v>303</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>77</v>
@@ -6734,16 +6773,16 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>77</v>
+        <v>310</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>95</v>
@@ -6752,7 +6791,7 @@
         <v>77</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>364</v>
+        <v>304</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>77</v>
@@ -6766,42 +6805,42 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>77</v>
+        <v>359</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>306</v>
+        <v>85</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>77</v>
@@ -6850,19 +6889,19 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>370</v>
+        <v>95</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>77</v>
@@ -6882,7 +6921,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6908,12 +6947,14 @@
         <v>85</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>314</v>
+        <v>366</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="M45" s="2"/>
+        <v>367</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>368</v>
+      </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>77</v>
@@ -6962,7 +7003,7 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>316</v>
+        <v>365</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>75</v>
@@ -6974,13 +7015,13 @@
         <v>77</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>317</v>
+        <v>245</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>77</v>
@@ -6994,18 +7035,18 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>141</v>
+        <v>77</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>77</v>
@@ -7017,18 +7058,20 @@
         <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="N46" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="L46" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>77</v>
       </c>
@@ -7052,13 +7095,13 @@
         <v>77</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>77</v>
+        <v>194</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>77</v>
+        <v>374</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>77</v>
+        <v>375</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>77</v>
@@ -7076,25 +7119,25 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>319</v>
+        <v>369</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>317</v>
+        <v>376</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>77</v>
@@ -7108,11 +7151,11 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>325</v>
+        <v>77</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7128,22 +7171,22 @@
         <v>84</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>128</v>
+        <v>306</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>326</v>
+        <v>378</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>327</v>
+        <v>379</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>144</v>
+        <v>380</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>145</v>
+        <v>381</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>77</v>
@@ -7192,7 +7235,7 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>328</v>
+        <v>377</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>75</v>
@@ -7204,13 +7247,13 @@
         <v>77</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>134</v>
+        <v>382</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>126</v>
+        <v>376</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>77</v>
@@ -7224,7 +7267,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7232,7 +7275,7 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>83</v>
@@ -7250,14 +7293,12 @@
         <v>85</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>377</v>
+        <v>314</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>379</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>77</v>
@@ -7306,10 +7347,10 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>376</v>
+        <v>316</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>83</v>
@@ -7318,13 +7359,13 @@
         <v>77</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>364</v>
+        <v>317</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>77</v>
@@ -7338,18 +7379,18 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>77</v>
@@ -7361,15 +7402,17 @@
         <v>77</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="M49" s="2"/>
+        <v>386</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>77</v>
@@ -7394,13 +7437,13 @@
         <v>77</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>383</v>
+        <v>77</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>384</v>
+        <v>77</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>77</v>
@@ -7418,25 +7461,25 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>380</v>
+        <v>319</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>364</v>
+        <v>317</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>77</v>
@@ -7450,39 +7493,43 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>77</v>
+        <v>337</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>386</v>
+        <v>128</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>387</v>
+        <v>338</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
+        <v>339</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>77</v>
       </c>
@@ -7506,13 +7553,13 @@
         <v>77</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>301</v>
+        <v>77</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>389</v>
+        <v>77</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>390</v>
+        <v>77</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>77</v>
@@ -7530,25 +7577,25 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>385</v>
+        <v>340</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>391</v>
+        <v>77</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>364</v>
+        <v>126</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>77</v>
@@ -7562,7 +7609,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7570,7 +7617,7 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>83</v>
@@ -7585,16 +7632,16 @@
         <v>77</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7620,13 +7667,13 @@
         <v>77</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>394</v>
+        <v>77</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>396</v>
+        <v>77</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>77</v>
@@ -7644,16 +7691,16 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>397</v>
+        <v>77</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>95</v>
@@ -7662,7 +7709,7 @@
         <v>77</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>77</v>
@@ -7676,7 +7723,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7684,7 +7731,7 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F52" t="s" s="2">
         <v>83</v>
@@ -7699,24 +7746,20 @@
         <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>201</v>
+        <v>103</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>401</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P52" t="s" s="2">
-        <v>402</v>
-      </c>
+      <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
         <v>77</v>
       </c>
@@ -7736,13 +7779,13 @@
         <v>77</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>77</v>
+        <v>194</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>77</v>
+        <v>395</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>77</v>
+        <v>396</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>77</v>
@@ -7760,16 +7803,16 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>403</v>
+        <v>77</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>95</v>
@@ -7778,7 +7821,7 @@
         <v>77</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>77</v>
@@ -7792,7 +7835,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7800,7 +7843,7 @@
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F53" t="s" s="2">
         <v>83</v>
@@ -7815,26 +7858,20 @@
         <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>201</v>
+        <v>398</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>408</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P53" t="s" s="2">
-        <v>409</v>
-      </c>
+      <c r="P53" s="2"/>
       <c r="Q53" t="s" s="2">
         <v>77</v>
       </c>
@@ -7854,13 +7891,13 @@
         <v>77</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>77</v>
+        <v>301</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>77</v>
+        <v>401</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>77</v>
+        <v>402</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>77</v>
@@ -7878,10 +7915,10 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>83</v>
@@ -7896,7 +7933,7 @@
         <v>77</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>77</v>
@@ -7910,7 +7947,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7933,20 +7970,18 @@
         <v>77</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>201</v>
+        <v>103</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>414</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>77</v>
       </c>
@@ -7970,13 +8005,13 @@
         <v>77</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>77</v>
+        <v>194</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>77</v>
+        <v>406</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>77</v>
+        <v>408</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>77</v>
@@ -7994,7 +8029,7 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>75</v>
@@ -8003,7 +8038,7 @@
         <v>83</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>95</v>
@@ -8012,7 +8047,7 @@
         <v>77</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>77</v>
@@ -8026,7 +8061,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8049,22 +8084,24 @@
         <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>417</v>
+        <v>201</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P55" s="2"/>
+      <c r="P55" t="s" s="2">
+        <v>414</v>
+      </c>
       <c r="Q55" t="s" s="2">
         <v>77</v>
       </c>
@@ -8108,7 +8145,7 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>75</v>
@@ -8117,7 +8154,7 @@
         <v>83</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>95</v>
@@ -8126,7 +8163,7 @@
         <v>77</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>77</v>
@@ -8135,12 +8172,12 @@
         <v>77</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>126</v>
+        <v>77</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8163,22 +8200,26 @@
         <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>423</v>
+        <v>201</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>419</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>420</v>
+      </c>
       <c r="O56" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P56" s="2"/>
+      <c r="P56" t="s" s="2">
+        <v>421</v>
+      </c>
       <c r="Q56" t="s" s="2">
         <v>77</v>
       </c>
@@ -8222,7 +8263,7 @@
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>75</v>
@@ -8231,7 +8272,7 @@
         <v>83</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>95</v>
@@ -8240,7 +8281,7 @@
         <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>77</v>
@@ -8254,7 +8295,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8265,7 +8306,7 @@
         <v>75</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>77</v>
@@ -8277,18 +8318,20 @@
         <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>306</v>
+        <v>201</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>425</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>426</v>
+      </c>
       <c r="O57" t="s" s="2">
         <v>77</v>
       </c>
@@ -8336,13 +8379,13 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>427</v>
@@ -8354,7 +8397,7 @@
         <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
@@ -8368,7 +8411,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8391,15 +8434,17 @@
         <v>77</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>85</v>
+        <v>429</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>314</v>
+        <v>430</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="M58" s="2"/>
+        <v>431</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>432</v>
+      </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>77</v>
@@ -8448,7 +8493,7 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>316</v>
+        <v>428</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>75</v>
@@ -8457,16 +8502,16 @@
         <v>83</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>77</v>
+        <v>433</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>317</v>
+        <v>376</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -8475,23 +8520,23 @@
         <v>77</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>77</v>
+        <v>126</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>141</v>
+        <v>77</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>77</v>
@@ -8503,16 +8548,16 @@
         <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>128</v>
+        <v>435</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>373</v>
+        <v>436</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>374</v>
+        <v>437</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>144</v>
+        <v>438</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8562,25 +8607,25 @@
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>319</v>
+        <v>434</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>77</v>
+        <v>439</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>317</v>
+        <v>376</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>77</v>
@@ -8594,11 +8639,11 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>325</v>
+        <v>77</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8611,26 +8656,24 @@
         <v>77</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>128</v>
+        <v>306</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>326</v>
+        <v>441</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>327</v>
+        <v>442</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>443</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>77</v>
       </c>
@@ -8678,7 +8721,7 @@
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>328</v>
+        <v>440</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>75</v>
@@ -8687,16 +8730,16 @@
         <v>76</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>77</v>
+        <v>439</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>126</v>
+        <v>376</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>77</v>
@@ -8710,7 +8753,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8718,7 +8761,7 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F61" t="s" s="2">
         <v>83</v>
@@ -8733,17 +8776,15 @@
         <v>77</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>436</v>
+        <v>85</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>437</v>
+        <v>314</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>439</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>77</v>
@@ -8768,13 +8809,13 @@
         <v>77</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>301</v>
+        <v>77</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>389</v>
+        <v>77</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>390</v>
+        <v>77</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>77</v>
@@ -8792,10 +8833,10 @@
         <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>435</v>
+        <v>316</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>83</v>
@@ -8804,13 +8845,13 @@
         <v>77</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>364</v>
+        <v>317</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>77</v>
@@ -8824,18 +8865,18 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>77</v>
@@ -8847,24 +8888,22 @@
         <v>77</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>201</v>
+        <v>128</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>441</v>
+        <v>385</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>442</v>
+        <v>386</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>443</v>
+        <v>144</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P62" t="s" s="2">
-        <v>444</v>
-      </c>
+      <c r="P62" s="2"/>
       <c r="Q62" t="s" s="2">
         <v>77</v>
       </c>
@@ -8908,25 +8947,25 @@
         <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>440</v>
+        <v>319</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>364</v>
+        <v>317</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>77</v>
@@ -8940,11 +8979,11 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>77</v>
+        <v>337</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -8957,25 +8996,25 @@
         <v>77</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>306</v>
+        <v>128</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>446</v>
+        <v>338</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>447</v>
+        <v>339</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>448</v>
+        <v>144</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>449</v>
+        <v>145</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>77</v>
@@ -9024,7 +9063,7 @@
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>445</v>
+        <v>340</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>75</v>
@@ -9033,16 +9072,16 @@
         <v>76</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>450</v>
+        <v>77</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>364</v>
+        <v>126</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>77</v>
@@ -9056,7 +9095,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9064,7 +9103,7 @@
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F64" t="s" s="2">
         <v>83</v>
@@ -9079,15 +9118,17 @@
         <v>77</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>85</v>
+        <v>448</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>314</v>
+        <v>449</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="M64" s="2"/>
+        <v>450</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>451</v>
+      </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>77</v>
@@ -9112,13 +9153,13 @@
         <v>77</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>77</v>
+        <v>301</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>77</v>
+        <v>401</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>77</v>
+        <v>402</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>77</v>
@@ -9136,10 +9177,10 @@
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>316</v>
+        <v>447</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>83</v>
@@ -9148,13 +9189,13 @@
         <v>77</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>317</v>
+        <v>376</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>77</v>
@@ -9172,14 +9213,14 @@
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>141</v>
+        <v>77</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>77</v>
@@ -9191,22 +9232,24 @@
         <v>77</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>128</v>
+        <v>201</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>373</v>
+        <v>453</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>374</v>
+        <v>454</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>144</v>
+        <v>455</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P65" s="2"/>
+      <c r="P65" t="s" s="2">
+        <v>456</v>
+      </c>
       <c r="Q65" t="s" s="2">
         <v>77</v>
       </c>
@@ -9250,25 +9293,25 @@
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>319</v>
+        <v>452</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>317</v>
+        <v>376</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>77</v>
@@ -9282,11 +9325,11 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>325</v>
+        <v>77</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
@@ -9299,25 +9342,25 @@
         <v>77</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>128</v>
+        <v>306</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>326</v>
+        <v>458</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>327</v>
+        <v>459</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>144</v>
+        <v>460</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>145</v>
+        <v>461</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>77</v>
@@ -9366,7 +9409,7 @@
         <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>328</v>
+        <v>457</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>75</v>
@@ -9375,16 +9418,16 @@
         <v>76</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>77</v>
+        <v>462</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>126</v>
+        <v>376</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>77</v>
@@ -9398,7 +9441,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9406,7 +9449,7 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F67" t="s" s="2">
         <v>83</v>
@@ -9421,17 +9464,15 @@
         <v>77</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>455</v>
+        <v>85</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>456</v>
+        <v>314</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>458</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="M67" s="2"/>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>77</v>
@@ -9456,13 +9497,13 @@
         <v>77</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>301</v>
+        <v>77</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>389</v>
+        <v>77</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>390</v>
+        <v>77</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>77</v>
@@ -9480,10 +9521,10 @@
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>454</v>
+        <v>316</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>83</v>
@@ -9492,13 +9533,13 @@
         <v>77</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>364</v>
+        <v>317</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>77</v>
@@ -9512,11 +9553,11 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9535,20 +9576,18 @@
         <v>77</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>460</v>
+        <v>385</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>461</v>
+        <v>386</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>463</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>77</v>
       </c>
@@ -9596,7 +9635,7 @@
         <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>459</v>
+        <v>319</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>75</v>
@@ -9605,29 +9644,375 @@
         <v>76</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>464</v>
+        <v>77</v>
       </c>
       <c r="AI68" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="69" hidden="true">
+      <c r="A69" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="70" hidden="true">
+      <c r="A70" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI70" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN68" t="s" s="2">
+      <c r="AJ70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN71" t="s" s="2">
         <v>77</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN68">
+  <autoFilter ref="A1:AN71">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9637,7 +10022,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI67">
+  <conditionalFormatting sqref="A2:AI70">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-questionnaire-s37.xlsx
+++ b/StructureDefinition-questionnaire-s37.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$71</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$79</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2611" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2898" uniqueCount="518">
   <si>
     <t>Property</t>
   </si>
@@ -311,13 +311,190 @@
 </t>
   </si>
   <si>
-    <t>Questionnaire.implicitRules</t>
+    <t>Questionnaire.meta.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Questionnaire.meta.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Questionnaire.meta.versionId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Version specific identifier</t>
+  </si>
+  <si>
+    <t>The version specific identifier, as it appears in the version portion of the URL. This value changes when the resource is created, updated, or deleted.</t>
+  </si>
+  <si>
+    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
+  </si>
+  <si>
+    <t>Meta.versionId</t>
+  </si>
+  <si>
+    <t>Questionnaire.meta.lastUpdated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant
+</t>
+  </si>
+  <si>
+    <t>When the resource version last changed</t>
+  </si>
+  <si>
+    <t>When the resource last changed - e.g. when the version changed.</t>
+  </si>
+  <si>
+    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant. This is equivalent to the HTTP Last-Modified and SHOULD have the same value on a [read](http://hl7.org/fhir/R4/http.html#read) interaction.</t>
+  </si>
+  <si>
+    <t>Meta.lastUpdated</t>
+  </si>
+  <si>
+    <t>Questionnaire.meta.source</t>
   </si>
   <si>
     <t xml:space="preserve">uri
 </t>
   </si>
   <si>
+    <t>Identifies where the resource comes from</t>
+  </si>
+  <si>
+    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](http://hl7.org/fhir/R4/provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
+  </si>
+  <si>
+    <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
+This element can be used to indicate where the current master source of a resource that has a canonical URL if the resource is no longer hosted at the canonical URL.</t>
+  </si>
+  <si>
+    <t>Meta.source</t>
+  </si>
+  <si>
+    <t>Questionnaire.meta.profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">canonical(StructureDefinition)
+</t>
+  </si>
+  <si>
+    <t>Profiles this resource claims to conform to</t>
+  </si>
+  <si>
+    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
+  </si>
+  <si>
+    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
+  </si>
+  <si>
+    <t>Meta.profile</t>
+  </si>
+  <si>
+    <t>Questionnaire.meta.security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Security Labels applied to this resource</t>
+  </si>
+  <si>
+    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
+  </si>
+  <si>
+    <t>The security labels can be updated without changing the stated version of the resource. The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+  </si>
+  <si>
+    <t>Meta.security</t>
+  </si>
+  <si>
+    <t>Questionnaire.meta.tag</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
+  </si>
+  <si>
+    <t>The tags can be updated without changing the stated version of the resource. The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+  </si>
+  <si>
+    <t>Meta.tag</t>
+  </si>
+  <si>
+    <t>Questionnaire.implicitRules</t>
+  </si>
+  <si>
     <t>A set of rules under which this content was created</t>
   </si>
   <si>
@@ -413,28 +590,13 @@
     <t>Questionnaire.extension</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
     <t>Extension</t>
   </si>
   <si>
     <t>An Extension</t>
   </si>
   <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>settings</t>
@@ -457,10 +619,6 @@
     <t>Questionnaire.modifierExtension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -468,9 +626,6 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -820,9 +975,6 @@
     <t>It may be possible for the questionnaire to be used in jurisdictions other than those for which it was originally designed or intended.</t>
   </si>
   <si>
-    <t>extensible</t>
-  </si>
-  <si>
     <t>Countries and regions within which this artifact is targeted for use.</t>
   </si>
   <si>
@@ -940,10 +1092,6 @@
     <t>Questionnaire.code</t>
   </si>
   <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
     <t>Concept that represents the overall questionnaire</t>
   </si>
   <si>
@@ -951,9 +1099,6 @@
   </si>
   <si>
     <t>Allows linking of the complete Questionnaire resources to formal terminologies.  It's common for "panels" of questions to be identified by a code.</t>
-  </si>
-  <si>
-    <t>example</t>
   </si>
   <si>
     <t>Codes for questionnaires, groups and individual questions.</t>
@@ -995,22 +1140,7 @@
     <t>Questionnaire.item.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Questionnaire.item.extension</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Settings</t>
@@ -1221,12 +1351,6 @@
   </si>
   <si>
     <t>Questionnaire.item.enableWhen.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Questionnaire.item.enableWhen.modifierExtension</t>
@@ -1826,7 +1950,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN71"/>
+  <dimension ref="A1:AN79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1858,11 +1982,11 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="86.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="98.61328125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="59.69140625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="45.5390625" customWidth="true" bestFit="true" hidden="true"/>
@@ -2356,23 +2480,21 @@
         <v>77</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="L5" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>100</v>
-      </c>
+      <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
         <v>77</v>
@@ -2421,7 +2543,7 @@
         <v>77</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>75</v>
@@ -2433,13 +2555,13 @@
         <v>77</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="AL5" t="s" s="2">
         <v>77</v>
@@ -2453,18 +2575,18 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>77</v>
@@ -2511,28 +2633,28 @@
         <v>77</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA6" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="AB6" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="AC6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD6" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="Z6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>77</v>
       </c>
       <c r="AE6" t="s" s="2">
         <v>110</v>
@@ -2541,19 +2663,19 @@
         <v>75</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>77</v>
@@ -2567,11 +2689,11 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -2587,7 +2709,7 @@
         <v>77</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J7" t="s" s="2">
         <v>113</v>
@@ -2610,7 +2732,7 @@
         <v>77</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>77</v>
+        <v>5</v>
       </c>
       <c r="S7" t="s" s="2">
         <v>77</v>
@@ -2667,7 +2789,7 @@
         <v>77</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>77</v>
@@ -2681,18 +2803,18 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>77</v>
@@ -2701,19 +2823,19 @@
         <v>77</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="K8" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="L8" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2763,25 +2885,25 @@
         <v>77</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>77</v>
@@ -2795,7 +2917,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -2806,7 +2928,7 @@
         <v>75</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>77</v>
@@ -2815,18 +2937,20 @@
         <v>77</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="K9" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="K9" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>77</v>
@@ -2863,29 +2987,31 @@
         <v>77</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AB9" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AC9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>77</v>
@@ -2905,11 +3031,9 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
         <v>77</v>
       </c>
@@ -2918,7 +3042,7 @@
         <v>75</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>77</v>
@@ -2927,18 +3051,20 @@
         <v>77</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="M10" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>77</v>
@@ -2987,7 +3113,7 @@
         <v>77</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>75</v>
@@ -2996,10 +3122,10 @@
         <v>76</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>77</v>
@@ -3019,11 +3145,11 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>141</v>
+        <v>77</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -3036,26 +3162,24 @@
         <v>77</v>
       </c>
       <c r="H11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I11" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="I11" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="J11" t="s" s="2">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>77</v>
       </c>
@@ -3079,13 +3203,13 @@
         <v>77</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="Z11" t="s" s="2">
         <v>77</v>
@@ -3103,7 +3227,7 @@
         <v>77</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>75</v>
@@ -3115,13 +3239,13 @@
         <v>77</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>77</v>
@@ -3135,7 +3259,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3146,7 +3270,7 @@
         <v>75</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>77</v>
@@ -3158,20 +3282,18 @@
         <v>84</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="L12" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>151</v>
-      </c>
+      <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>77</v>
       </c>
@@ -3195,13 +3317,13 @@
         <v>77</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>77</v>
+        <v>149</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>77</v>
+        <v>150</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>77</v>
+        <v>151</v>
       </c>
       <c r="Z12" t="s" s="2">
         <v>77</v>
@@ -3219,13 +3341,13 @@
         <v>77</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>77</v>
@@ -3234,13 +3356,13 @@
         <v>95</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>152</v>
+        <v>77</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>153</v>
+        <v>77</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>154</v>
+        <v>77</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>77</v>
@@ -3251,7 +3373,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3259,7 +3381,7 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>83</v>
@@ -3268,26 +3390,24 @@
         <v>77</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>84</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="K13" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>160</v>
-      </c>
+      <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>77</v>
       </c>
@@ -3335,13 +3455,13 @@
         <v>77</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>77</v>
@@ -3350,16 +3470,16 @@
         <v>95</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>161</v>
+        <v>77</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>162</v>
+        <v>77</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>154</v>
+        <v>77</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>163</v>
+        <v>77</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>77</v>
@@ -3367,7 +3487,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3387,19 +3507,19 @@
         <v>77</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>85</v>
+        <v>159</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -3425,13 +3545,13 @@
         <v>77</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>77</v>
+        <v>163</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>77</v>
@@ -3449,7 +3569,7 @@
         <v>77</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>75</v>
@@ -3464,13 +3584,13 @@
         <v>95</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>168</v>
+        <v>77</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>169</v>
+        <v>77</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>170</v>
+        <v>77</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>77</v>
@@ -3481,11 +3601,11 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -3501,23 +3621,21 @@
         <v>77</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>85</v>
+        <v>169</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="L15" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>175</v>
-      </c>
+      <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>77</v>
       </c>
@@ -3565,7 +3683,7 @@
         <v>77</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>75</v>
@@ -3574,7 +3692,7 @@
         <v>83</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>176</v>
+        <v>77</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>95</v>
@@ -3583,7 +3701,7 @@
         <v>77</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>126</v>
+        <v>174</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>77</v>
@@ -3597,18 +3715,18 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>77</v>
+        <v>176</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>77</v>
@@ -3617,10 +3735,10 @@
         <v>77</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>85</v>
+        <v>177</v>
       </c>
       <c r="K16" t="s" s="2">
         <v>178</v>
@@ -3679,22 +3797,22 @@
         <v>77</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>181</v>
+        <v>77</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>182</v>
@@ -3734,18 +3852,16 @@
         <v>77</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="L17" t="s" s="2">
-        <v>186</v>
-      </c>
       <c r="M17" s="2"/>
-      <c r="N17" t="s" s="2">
-        <v>187</v>
-      </c>
+      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>77</v>
       </c>
@@ -3781,19 +3897,17 @@
         <v>77</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="AB17" s="2"/>
       <c r="AC17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>75</v>
@@ -3805,13 +3919,13 @@
         <v>77</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>188</v>
+        <v>77</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>189</v>
+        <v>77</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>77</v>
@@ -3823,42 +3937,42 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="B18" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="C18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>103</v>
+        <v>188</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>193</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>77</v>
@@ -3883,13 +3997,13 @@
         <v>77</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>195</v>
+        <v>77</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>196</v>
+        <v>77</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>77</v>
@@ -3907,28 +4021,28 @@
         <v>77</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>77</v>
+        <v>191</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>197</v>
+        <v>77</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>198</v>
+        <v>77</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>199</v>
+        <v>77</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>77</v>
@@ -3939,42 +4053,42 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>201</v>
+        <v>103</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>193</v>
+        <v>106</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>77</v>
@@ -4023,28 +4137,28 @@
         <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>205</v>
+        <v>77</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>126</v>
+        <v>182</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>206</v>
+        <v>77</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>77</v>
@@ -4055,7 +4169,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4066,7 +4180,7 @@
         <v>75</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>77</v>
@@ -4078,18 +4192,20 @@
         <v>84</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>201</v>
+      </c>
       <c r="O20" t="s" s="2">
         <v>77</v>
       </c>
@@ -4113,13 +4229,13 @@
         <v>77</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>211</v>
+        <v>77</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>212</v>
+        <v>77</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>77</v>
@@ -4137,13 +4253,13 @@
         <v>77</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>77</v>
@@ -4152,13 +4268,13 @@
         <v>95</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>77</v>
+        <v>204</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>77</v>
@@ -4169,15 +4285,15 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>216</v>
+        <v>77</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>83</v>
@@ -4192,18 +4308,20 @@
         <v>84</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>210</v>
+      </c>
       <c r="O21" t="s" s="2">
         <v>77</v>
       </c>
@@ -4251,13 +4369,13 @@
         <v>77</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>77</v>
@@ -4266,16 +4384,16 @@
         <v>95</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>77</v>
+        <v>213</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>77</v>
@@ -4283,7 +4401,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4309,17 +4427,15 @@
         <v>85</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>228</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>77</v>
       </c>
@@ -4367,7 +4483,7 @@
         <v>77</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>75</v>
@@ -4382,13 +4498,13 @@
         <v>95</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>77</v>
@@ -4399,7 +4515,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4410,7 +4526,7 @@
         <v>75</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>77</v>
@@ -4422,18 +4538,20 @@
         <v>84</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>233</v>
+        <v>85</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="O23" t="s" s="2">
         <v>77</v>
       </c>
@@ -4481,25 +4599,25 @@
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>77</v>
+        <v>226</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>237</v>
+        <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>238</v>
+        <v>182</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>77</v>
@@ -4513,7 +4631,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4533,19 +4651,19 @@
         <v>77</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>240</v>
+        <v>85</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4595,7 +4713,7 @@
         <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>75</v>
@@ -4610,10 +4728,10 @@
         <v>95</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>77</v>
@@ -4627,7 +4745,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4647,22 +4765,20 @@
         <v>77</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>250</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="M25" s="2"/>
       <c r="N25" t="s" s="2">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>77</v>
@@ -4711,7 +4827,7 @@
         <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>75</v>
@@ -4726,10 +4842,10 @@
         <v>95</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>169</v>
+        <v>239</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>77</v>
@@ -4741,9 +4857,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4751,31 +4867,31 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>84</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>254</v>
+        <v>159</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4801,13 +4917,13 @@
         <v>77</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>77</v>
@@ -4825,13 +4941,13 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>77</v>
@@ -4840,13 +4956,13 @@
         <v>95</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>169</v>
+        <v>248</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>77</v>
+        <v>249</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>77</v>
@@ -4857,7 +4973,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4877,21 +4993,23 @@
         <v>77</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>243</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>77</v>
       </c>
@@ -4939,7 +5057,7 @@
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>75</v>
@@ -4954,16 +5072,16 @@
         <v>95</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>267</v>
+        <v>182</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>163</v>
+        <v>77</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>77</v>
@@ -4971,18 +5089,18 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>270</v>
+        <v>77</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>77</v>
@@ -4991,21 +5109,21 @@
         <v>77</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>240</v>
+        <v>159</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="M28" s="2"/>
-      <c r="N28" t="s" s="2">
-        <v>273</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>77</v>
       </c>
@@ -5029,13 +5147,13 @@
         <v>77</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>77</v>
+        <v>244</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>77</v>
+        <v>261</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>77</v>
+        <v>262</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>77</v>
@@ -5053,13 +5171,13 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>77</v>
@@ -5068,16 +5186,16 @@
         <v>95</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>169</v>
+        <v>264</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>163</v>
+        <v>77</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>77</v>
@@ -5085,11 +5203,11 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>77</v>
+        <v>266</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -5105,19 +5223,19 @@
         <v>77</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5167,7 +5285,7 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>75</v>
@@ -5182,16 +5300,16 @@
         <v>95</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>77</v>
+        <v>273</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>163</v>
+        <v>77</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -5199,7 +5317,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5219,22 +5337,22 @@
         <v>77</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="K30" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>284</v>
-      </c>
       <c r="M30" t="s" s="2">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>77</v>
@@ -5283,7 +5401,7 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>75</v>
@@ -5298,16 +5416,16 @@
         <v>95</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>77</v>
+        <v>281</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>163</v>
+        <v>77</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>77</v>
@@ -5315,7 +5433,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5326,7 +5444,7 @@
         <v>75</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>77</v>
@@ -5338,20 +5456,18 @@
         <v>84</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>294</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>77</v>
       </c>
@@ -5399,13 +5515,13 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>77</v>
@@ -5414,16 +5530,16 @@
         <v>95</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>169</v>
+        <v>288</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>163</v>
+        <v>77</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>77</v>
@@ -5431,7 +5547,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5442,7 +5558,7 @@
         <v>75</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>77</v>
@@ -5451,21 +5567,21 @@
         <v>77</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="M32" s="2"/>
-      <c r="N32" t="s" s="2">
-        <v>300</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>77</v>
       </c>
@@ -5489,13 +5605,13 @@
         <v>77</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>301</v>
+        <v>77</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>302</v>
+        <v>77</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>303</v>
+        <v>77</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>77</v>
@@ -5513,13 +5629,13 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>77</v>
@@ -5528,10 +5644,10 @@
         <v>95</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>77</v>
+        <v>294</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>77</v>
@@ -5545,7 +5661,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5565,21 +5681,23 @@
         <v>77</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>300</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>301</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>77</v>
       </c>
@@ -5627,7 +5745,7 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>75</v>
@@ -5636,16 +5754,16 @@
         <v>76</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>310</v>
+        <v>77</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>311</v>
+        <v>95</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>77</v>
+        <v>302</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>312</v>
+        <v>219</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>77</v>
@@ -5659,7 +5777,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5670,7 +5788,7 @@
         <v>75</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>77</v>
@@ -5679,18 +5797,20 @@
         <v>77</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>85</v>
+        <v>304</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>306</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>307</v>
+      </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>77</v>
@@ -5715,13 +5835,13 @@
         <v>77</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>77</v>
+        <v>308</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>77</v>
+        <v>309</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>77</v>
@@ -5739,25 +5859,25 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>77</v>
+        <v>310</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>317</v>
+        <v>219</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>77</v>
@@ -5771,7 +5891,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5782,7 +5902,7 @@
         <v>75</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>77</v>
@@ -5794,15 +5914,17 @@
         <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>128</v>
+        <v>290</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>129</v>
+        <v>312</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="M35" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>77</v>
@@ -5839,55 +5961,55 @@
         <v>77</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AB35" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AC35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>77</v>
+        <v>315</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>77</v>
+        <v>316</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>77</v>
+        <v>317</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>77</v>
+        <v>213</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="B36" t="s" s="2">
-        <v>320</v>
-      </c>
+      <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>77</v>
+        <v>319</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5897,7 +6019,7 @@
         <v>83</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>77</v>
@@ -5906,16 +6028,18 @@
         <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="M36" s="2"/>
+      <c r="N36" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="L36" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>77</v>
       </c>
@@ -5963,31 +6087,31 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>77</v>
+        <v>323</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>77</v>
+        <v>219</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>77</v>
+        <v>213</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>77</v>
@@ -5995,11 +6119,9 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="B37" t="s" s="2">
         <v>324</v>
       </c>
+      <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
         <v>77</v>
       </c>
@@ -6079,31 +6201,31 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>77</v>
+        <v>329</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>77</v>
+        <v>330</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>77</v>
+        <v>213</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>77</v>
@@ -6111,11 +6233,9 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="B38" t="s" s="2">
-        <v>329</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
         <v>77</v>
       </c>
@@ -6136,18 +6256,20 @@
         <v>77</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>334</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>335</v>
+      </c>
       <c r="O38" t="s" s="2">
         <v>77</v>
       </c>
@@ -6195,31 +6317,31 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>77</v>
+        <v>336</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>77</v>
+        <v>337</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>77</v>
+        <v>213</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>77</v>
@@ -6227,11 +6349,9 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>334</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
         <v>77</v>
       </c>
@@ -6249,19 +6369,23 @@
         <v>77</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
+        <v>341</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>343</v>
+      </c>
       <c r="O39" t="s" s="2">
         <v>77</v>
       </c>
@@ -6309,31 +6433,31 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>319</v>
+        <v>338</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>77</v>
+        <v>344</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>77</v>
+        <v>219</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>77</v>
+        <v>213</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>77</v>
@@ -6341,11 +6465,11 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>337</v>
+        <v>77</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -6358,25 +6482,23 @@
         <v>77</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>84</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>145</v>
+        <v>348</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>77</v>
@@ -6401,13 +6523,13 @@
         <v>77</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>77</v>
+        <v>149</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>77</v>
+        <v>349</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>77</v>
+        <v>350</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>77</v>
@@ -6425,7 +6547,7 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>75</v>
@@ -6437,13 +6559,13 @@
         <v>77</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>126</v>
+        <v>351</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>77</v>
@@ -6457,7 +6579,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6465,10 +6587,10 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>77</v>
@@ -6480,20 +6602,18 @@
         <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>85</v>
+        <v>353</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>345</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>77</v>
       </c>
@@ -6541,25 +6661,25 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>77</v>
+        <v>357</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>95</v>
+        <v>358</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>77</v>
@@ -6573,7 +6693,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6596,20 +6716,16 @@
         <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="K42" t="s" s="2">
-        <v>348</v>
-      </c>
       <c r="L42" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>351</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>77</v>
       </c>
@@ -6657,7 +6773,7 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>347</v>
+        <v>99</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>75</v>
@@ -6669,13 +6785,13 @@
         <v>77</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>352</v>
+        <v>100</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>77</v>
@@ -6689,7 +6805,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6712,20 +6828,16 @@
         <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>297</v>
+        <v>103</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>354</v>
+        <v>184</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>357</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>77</v>
       </c>
@@ -6749,31 +6861,29 @@
         <v>77</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>301</v>
+        <v>77</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>302</v>
+        <v>77</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>303</v>
+        <v>77</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="AB43" s="2"/>
       <c r="AC43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>353</v>
+        <v>110</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>75</v>
@@ -6782,16 +6892,16 @@
         <v>76</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>310</v>
+        <v>77</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>304</v>
+        <v>77</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>77</v>
@@ -6803,13 +6913,15 @@
         <v>77</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="B44" s="2"/>
+        <v>361</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>362</v>
+      </c>
       <c r="C44" t="s" s="2">
-        <v>359</v>
+        <v>77</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6819,7 +6931,7 @@
         <v>83</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>77</v>
@@ -6828,20 +6940,16 @@
         <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>85</v>
+        <v>363</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>363</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>77</v>
       </c>
@@ -6889,25 +6997,25 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>358</v>
+        <v>110</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>77</v>
+        <v>191</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>364</v>
+        <v>77</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>77</v>
@@ -6921,9 +7029,11 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="B45" s="2"/>
+        <v>361</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>366</v>
+      </c>
       <c r="C45" t="s" s="2">
         <v>77</v>
       </c>
@@ -6944,16 +7054,16 @@
         <v>77</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>85</v>
+        <v>367</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -7003,25 +7113,25 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>365</v>
+        <v>110</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>77</v>
+        <v>191</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>245</v>
+        <v>77</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>77</v>
@@ -7035,15 +7145,17 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="B46" s="2"/>
+        <v>361</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>371</v>
+      </c>
       <c r="C46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F46" t="s" s="2">
         <v>83</v>
@@ -7058,20 +7170,18 @@
         <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>103</v>
+        <v>372</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>373</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>77</v>
       </c>
@@ -7095,13 +7205,13 @@
         <v>77</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>374</v>
+        <v>77</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>375</v>
+        <v>77</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>77</v>
@@ -7119,25 +7229,25 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>369</v>
+        <v>110</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>77</v>
+        <v>191</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>376</v>
+        <v>77</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>77</v>
@@ -7151,9 +7261,11 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="B47" s="2"/>
+        <v>361</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>376</v>
+      </c>
       <c r="C47" t="s" s="2">
         <v>77</v>
       </c>
@@ -7162,32 +7274,28 @@
         <v>75</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>306</v>
+        <v>377</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>381</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>77</v>
       </c>
@@ -7235,7 +7343,7 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>377</v>
+        <v>110</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>75</v>
@@ -7244,16 +7352,16 @@
         <v>76</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>77</v>
+        <v>191</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>382</v>
+        <v>111</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>376</v>
+        <v>77</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>77</v>
@@ -7267,39 +7375,43 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>77</v>
+        <v>379</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>314</v>
+        <v>380</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
+        <v>381</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>77</v>
       </c>
@@ -7347,25 +7459,25 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>316</v>
+        <v>382</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>317</v>
+        <v>182</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>77</v>
@@ -7379,18 +7491,18 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>141</v>
+        <v>77</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>77</v>
@@ -7402,18 +7514,20 @@
         <v>77</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="M49" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="N49" s="2"/>
+      <c r="N49" t="s" s="2">
+        <v>387</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>77</v>
       </c>
@@ -7461,25 +7575,25 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>319</v>
+        <v>383</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>317</v>
+        <v>388</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>77</v>
@@ -7493,42 +7607,42 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>337</v>
+        <v>77</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>338</v>
+        <v>390</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>339</v>
+        <v>391</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>144</v>
+        <v>392</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>145</v>
+        <v>393</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>77</v>
@@ -7577,25 +7691,25 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>340</v>
+        <v>389</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>126</v>
+        <v>394</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>77</v>
@@ -7609,7 +7723,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7617,10 +7731,10 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>77</v>
@@ -7632,18 +7746,20 @@
         <v>77</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>85</v>
+        <v>137</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>398</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>399</v>
+      </c>
       <c r="O51" t="s" s="2">
         <v>77</v>
       </c>
@@ -7667,13 +7783,13 @@
         <v>77</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>77</v>
+        <v>149</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>77</v>
+        <v>349</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>77</v>
+        <v>350</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>77</v>
@@ -7691,16 +7807,16 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>77</v>
+        <v>357</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>95</v>
@@ -7709,7 +7825,7 @@
         <v>77</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>376</v>
+        <v>351</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>77</v>
@@ -7723,15 +7839,15 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>77</v>
+        <v>401</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F52" t="s" s="2">
         <v>83</v>
@@ -7746,16 +7862,20 @@
         <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
+        <v>403</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>405</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>77</v>
       </c>
@@ -7779,13 +7899,13 @@
         <v>77</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>395</v>
+        <v>77</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>396</v>
+        <v>77</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>77</v>
@@ -7803,10 +7923,10 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>83</v>
@@ -7821,7 +7941,7 @@
         <v>77</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>376</v>
+        <v>406</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>77</v>
@@ -7835,7 +7955,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7843,7 +7963,7 @@
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F53" t="s" s="2">
         <v>83</v>
@@ -7858,15 +7978,17 @@
         <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>398</v>
+        <v>85</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="M53" s="2"/>
+        <v>409</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>410</v>
+      </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>77</v>
@@ -7891,13 +8013,13 @@
         <v>77</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>301</v>
+        <v>77</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>401</v>
+        <v>77</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>402</v>
+        <v>77</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>77</v>
@@ -7915,16 +8037,16 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>403</v>
+        <v>77</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>95</v>
@@ -7933,7 +8055,7 @@
         <v>77</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>376</v>
+        <v>295</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>77</v>
@@ -7947,7 +8069,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7955,7 +8077,7 @@
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F54" t="s" s="2">
         <v>83</v>
@@ -7970,18 +8092,20 @@
         <v>77</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>103</v>
+        <v>159</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>414</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>415</v>
+      </c>
       <c r="O54" t="s" s="2">
         <v>77</v>
       </c>
@@ -8005,13 +8129,13 @@
         <v>77</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>194</v>
+        <v>244</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>77</v>
@@ -8029,16 +8153,16 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>409</v>
+        <v>77</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>95</v>
@@ -8047,7 +8171,7 @@
         <v>77</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>376</v>
+        <v>418</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>77</v>
@@ -8061,7 +8185,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8072,36 +8196,36 @@
         <v>75</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>201</v>
+        <v>353</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>422</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>423</v>
+      </c>
       <c r="O55" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P55" t="s" s="2">
-        <v>414</v>
-      </c>
+      <c r="P55" s="2"/>
       <c r="Q55" t="s" s="2">
         <v>77</v>
       </c>
@@ -8145,25 +8269,25 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>415</v>
+        <v>77</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>95</v>
+        <v>424</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>376</v>
+        <v>418</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>77</v>
@@ -8177,7 +8301,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8200,26 +8324,20 @@
         <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>201</v>
+        <v>85</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>417</v>
+        <v>97</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>420</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P56" t="s" s="2">
-        <v>421</v>
-      </c>
+      <c r="P56" s="2"/>
       <c r="Q56" t="s" s="2">
         <v>77</v>
       </c>
@@ -8263,7 +8381,7 @@
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>416</v>
+        <v>99</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>75</v>
@@ -8272,16 +8390,16 @@
         <v>83</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>415</v>
+        <v>77</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>376</v>
+        <v>100</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>77</v>
@@ -8295,18 +8413,18 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>77</v>
@@ -8318,20 +8436,18 @@
         <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>201</v>
+        <v>103</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>423</v>
+        <v>104</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>424</v>
+        <v>105</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>426</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>77</v>
       </c>
@@ -8379,25 +8495,25 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>422</v>
+        <v>110</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>427</v>
+        <v>77</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>376</v>
+        <v>100</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
@@ -8411,41 +8527,43 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>77</v>
+        <v>379</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>429</v>
+        <v>103</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>430</v>
+        <v>380</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>431</v>
+        <v>381</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="O58" t="s" s="2">
         <v>77</v>
       </c>
@@ -8493,25 +8611,25 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>428</v>
+        <v>382</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>433</v>
+        <v>77</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>376</v>
+        <v>182</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -8520,12 +8638,12 @@
         <v>77</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>126</v>
+        <v>77</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8533,7 +8651,7 @@
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F59" t="s" s="2">
         <v>83</v>
@@ -8548,16 +8666,16 @@
         <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>435</v>
+        <v>85</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8607,16 +8725,16 @@
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>439</v>
+        <v>77</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>95</v>
@@ -8625,7 +8743,7 @@
         <v>77</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>376</v>
+        <v>418</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>77</v>
@@ -8639,7 +8757,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8647,10 +8765,10 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>77</v>
@@ -8662,17 +8780,15 @@
         <v>77</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>306</v>
+        <v>159</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>443</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="M60" s="2"/>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>77</v>
@@ -8697,13 +8813,13 @@
         <v>77</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>77</v>
+        <v>244</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>77</v>
+        <v>435</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>77</v>
+        <v>436</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>77</v>
@@ -8721,16 +8837,16 @@
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>439</v>
+        <v>77</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>95</v>
@@ -8739,7 +8855,7 @@
         <v>77</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>376</v>
+        <v>418</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>77</v>
@@ -8753,7 +8869,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8761,7 +8877,7 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F61" t="s" s="2">
         <v>83</v>
@@ -8776,13 +8892,13 @@
         <v>77</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>85</v>
+        <v>438</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>314</v>
+        <v>439</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>315</v>
+        <v>440</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8809,13 +8925,13 @@
         <v>77</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>77</v>
+        <v>149</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>77</v>
+        <v>441</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>77</v>
+        <v>442</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>77</v>
@@ -8833,25 +8949,25 @@
         <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>316</v>
+        <v>437</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>77</v>
+        <v>443</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>317</v>
+        <v>418</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>77</v>
@@ -8865,18 +8981,18 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>141</v>
+        <v>77</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>77</v>
@@ -8888,16 +9004,16 @@
         <v>77</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>128</v>
+        <v>159</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>385</v>
+        <v>445</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>386</v>
+        <v>446</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>144</v>
+        <v>447</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -8923,13 +9039,13 @@
         <v>77</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>77</v>
+        <v>244</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>77</v>
+        <v>446</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>77</v>
+        <v>448</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>77</v>
@@ -8947,25 +9063,25 @@
         <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>319</v>
+        <v>444</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>77</v>
+        <v>449</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>317</v>
+        <v>418</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>77</v>
@@ -8979,47 +9095,47 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>337</v>
+        <v>77</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>128</v>
+        <v>251</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>338</v>
+        <v>451</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>339</v>
+        <v>452</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P63" s="2"/>
+      <c r="P63" t="s" s="2">
+        <v>454</v>
+      </c>
       <c r="Q63" t="s" s="2">
         <v>77</v>
       </c>
@@ -9063,25 +9179,25 @@
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>340</v>
+        <v>450</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>77</v>
+        <v>455</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>126</v>
+        <v>418</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>77</v>
@@ -9095,7 +9211,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9103,7 +9219,7 @@
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F64" t="s" s="2">
         <v>83</v>
@@ -9118,22 +9234,26 @@
         <v>77</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>448</v>
+        <v>251</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>459</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>460</v>
+      </c>
       <c r="O64" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P64" s="2"/>
+      <c r="P64" t="s" s="2">
+        <v>461</v>
+      </c>
       <c r="Q64" t="s" s="2">
         <v>77</v>
       </c>
@@ -9153,13 +9273,13 @@
         <v>77</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>301</v>
+        <v>77</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>401</v>
+        <v>77</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>402</v>
+        <v>77</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>77</v>
@@ -9177,16 +9297,16 @@
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>77</v>
+        <v>455</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>95</v>
@@ -9195,7 +9315,7 @@
         <v>77</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>376</v>
+        <v>418</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>77</v>
@@ -9209,7 +9329,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9232,24 +9352,24 @@
         <v>77</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="N65" s="2"/>
+        <v>465</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>466</v>
+      </c>
       <c r="O65" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P65" t="s" s="2">
-        <v>456</v>
-      </c>
+      <c r="P65" s="2"/>
       <c r="Q65" t="s" s="2">
         <v>77</v>
       </c>
@@ -9293,7 +9413,7 @@
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>75</v>
@@ -9302,7 +9422,7 @@
         <v>83</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>77</v>
+        <v>467</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>95</v>
@@ -9311,7 +9431,7 @@
         <v>77</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>376</v>
+        <v>418</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>77</v>
@@ -9325,7 +9445,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9336,7 +9456,7 @@
         <v>75</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>77</v>
@@ -9348,20 +9468,18 @@
         <v>77</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>306</v>
+        <v>469</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>461</v>
-      </c>
+        <v>472</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>77</v>
       </c>
@@ -9409,16 +9527,16 @@
         <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>462</v>
+        <v>473</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>95</v>
@@ -9427,7 +9545,7 @@
         <v>77</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>376</v>
+        <v>418</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>77</v>
@@ -9436,12 +9554,12 @@
         <v>77</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>77</v>
+        <v>182</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9464,15 +9582,17 @@
         <v>77</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>85</v>
+        <v>475</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>314</v>
+        <v>476</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="M67" s="2"/>
+        <v>477</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>478</v>
+      </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>77</v>
@@ -9521,7 +9641,7 @@
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>316</v>
+        <v>474</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>75</v>
@@ -9530,16 +9650,16 @@
         <v>83</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>77</v>
+        <v>479</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>317</v>
+        <v>418</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>77</v>
@@ -9553,11 +9673,11 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>464</v>
+        <v>480</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>141</v>
+        <v>77</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9576,16 +9696,16 @@
         <v>77</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>128</v>
+        <v>353</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>385</v>
+        <v>481</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>386</v>
+        <v>482</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>144</v>
+        <v>483</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -9635,7 +9755,7 @@
         <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>319</v>
+        <v>480</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>75</v>
@@ -9644,16 +9764,16 @@
         <v>76</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>77</v>
+        <v>479</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>317</v>
+        <v>418</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>77</v>
@@ -9667,43 +9787,39 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>465</v>
+        <v>484</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>337</v>
+        <v>77</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>338</v>
+        <v>97</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>77</v>
       </c>
@@ -9751,25 +9867,25 @@
         <v>77</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>340</v>
+        <v>99</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>77</v>
@@ -9783,18 +9899,18 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>466</v>
+        <v>485</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>77</v>
@@ -9806,16 +9922,16 @@
         <v>77</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>467</v>
+        <v>103</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>468</v>
+        <v>104</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>469</v>
+        <v>105</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>470</v>
+        <v>106</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -9841,13 +9957,13 @@
         <v>77</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>301</v>
+        <v>77</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>401</v>
+        <v>77</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>402</v>
+        <v>77</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>77</v>
@@ -9865,25 +9981,25 @@
         <v>77</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>466</v>
+        <v>110</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>376</v>
+        <v>100</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>77</v>
@@ -9897,11 +10013,11 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>471</v>
+        <v>486</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>77</v>
+        <v>379</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -9914,25 +10030,25 @@
         <v>77</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>472</v>
+        <v>380</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>473</v>
+        <v>381</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>474</v>
+        <v>106</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>475</v>
+        <v>195</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>77</v>
@@ -9981,7 +10097,7 @@
         <v>77</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>471</v>
+        <v>382</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>75</v>
@@ -9990,29 +10106,947 @@
         <v>76</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>476</v>
+        <v>77</v>
       </c>
       <c r="AI71" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="72" hidden="true">
+      <c r="A72" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="N72" s="2"/>
+      <c r="O72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI72" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN71" t="s" s="2">
+      <c r="AJ72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="73" hidden="true">
+      <c r="A73" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P73" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="Q73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
+      <c r="O75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="N76" s="2"/>
+      <c r="O76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78" hidden="true">
+      <c r="A78" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P78" s="2"/>
+      <c r="Q78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN79" t="s" s="2">
         <v>77</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN71">
+  <autoFilter ref="A1:AN79">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10022,7 +11056,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI70">
+  <conditionalFormatting sqref="A2:AI78">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-questionnaire-s37.xlsx
+++ b/StructureDefinition-questionnaire-s37.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2898" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2898" uniqueCount="519">
   <si>
     <t>Property</t>
   </si>
@@ -694,6 +694,9 @@
   </si>
   <si>
     <t>There may be different questionnaire instances that have the same identifier but different versions.  The version can be appended to the url in a reference to allow a reference to a particular business version of the questionnaire with the format [url]|[version].</t>
+  </si>
+  <si>
+    <t>1.0.0-S37-Questionnaire-version</t>
   </si>
   <si>
     <t>Definition.version</t>
@@ -4444,7 +4447,7 @@
         <v>77</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>77</v>
+        <v>218</v>
       </c>
       <c r="S22" t="s" s="2">
         <v>77</v>
@@ -4498,13 +4501,13 @@
         <v>95</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>77</v>
@@ -4515,7 +4518,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4541,16 +4544,16 @@
         <v>85</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>77</v>
@@ -4599,7 +4602,7 @@
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>75</v>
@@ -4608,7 +4611,7 @@
         <v>83</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>95</v>
@@ -4631,7 +4634,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4657,13 +4660,13 @@
         <v>85</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4713,7 +4716,7 @@
         <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>75</v>
@@ -4728,10 +4731,10 @@
         <v>95</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>77</v>
@@ -4745,7 +4748,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4768,17 +4771,17 @@
         <v>77</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>77</v>
@@ -4827,7 +4830,7 @@
         <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>75</v>
@@ -4842,10 +4845,10 @@
         <v>95</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>77</v>
@@ -4859,7 +4862,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4885,13 +4888,13 @@
         <v>159</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4917,13 +4920,13 @@
         <v>77</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>77</v>
@@ -4941,7 +4944,7 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>83</v>
@@ -4956,13 +4959,13 @@
         <v>95</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>77</v>
@@ -4973,7 +4976,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4996,19 +4999,19 @@
         <v>84</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>77</v>
@@ -5057,7 +5060,7 @@
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>75</v>
@@ -5072,13 +5075,13 @@
         <v>95</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>182</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>77</v>
@@ -5089,7 +5092,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5115,13 +5118,13 @@
         <v>159</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -5147,13 +5150,13 @@
         <v>77</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>77</v>
@@ -5171,7 +5174,7 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>75</v>
@@ -5186,10 +5189,10 @@
         <v>95</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>
@@ -5203,11 +5206,11 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -5226,16 +5229,16 @@
         <v>84</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5285,7 +5288,7 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>75</v>
@@ -5300,13 +5303,13 @@
         <v>95</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>77</v>
@@ -5317,7 +5320,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5343,16 +5346,16 @@
         <v>85</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>77</v>
@@ -5401,7 +5404,7 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>75</v>
@@ -5416,13 +5419,13 @@
         <v>95</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>77</v>
@@ -5433,7 +5436,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5456,16 +5459,16 @@
         <v>84</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5515,7 +5518,7 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>75</v>
@@ -5530,10 +5533,10 @@
         <v>95</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>77</v>
@@ -5547,7 +5550,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5570,16 +5573,16 @@
         <v>77</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5629,7 +5632,7 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>75</v>
@@ -5644,10 +5647,10 @@
         <v>95</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>77</v>
@@ -5661,7 +5664,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5684,19 +5687,19 @@
         <v>84</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>77</v>
@@ -5745,7 +5748,7 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>75</v>
@@ -5760,10 +5763,10 @@
         <v>95</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>77</v>
@@ -5777,7 +5780,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5800,16 +5803,16 @@
         <v>84</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5838,10 +5841,10 @@
         <v>141</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>77</v>
@@ -5859,7 +5862,7 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>75</v>
@@ -5874,10 +5877,10 @@
         <v>95</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>77</v>
@@ -5891,7 +5894,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5914,16 +5917,16 @@
         <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5973,7 +5976,7 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>75</v>
@@ -5988,13 +5991,13 @@
         <v>95</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>213</v>
@@ -6005,11 +6008,11 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -6028,17 +6031,17 @@
         <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>77</v>
@@ -6087,7 +6090,7 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>75</v>
@@ -6102,10 +6105,10 @@
         <v>95</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>77</v>
@@ -6119,7 +6122,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6142,16 +6145,16 @@
         <v>77</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6201,7 +6204,7 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>75</v>
@@ -6216,10 +6219,10 @@
         <v>95</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>77</v>
@@ -6233,7 +6236,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6256,19 +6259,19 @@
         <v>77</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>77</v>
@@ -6317,7 +6320,7 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>75</v>
@@ -6332,10 +6335,10 @@
         <v>95</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>77</v>
@@ -6349,7 +6352,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6372,19 +6375,19 @@
         <v>84</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>77</v>
@@ -6433,7 +6436,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>75</v>
@@ -6448,10 +6451,10 @@
         <v>95</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>77</v>
@@ -6465,7 +6468,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6491,14 +6494,14 @@
         <v>137</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>77</v>
@@ -6526,10 +6529,10 @@
         <v>149</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>77</v>
@@ -6547,7 +6550,7 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>75</v>
@@ -6565,7 +6568,7 @@
         <v>77</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>77</v>
@@ -6579,7 +6582,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6602,16 +6605,16 @@
         <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6661,7 +6664,7 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>75</v>
@@ -6670,16 +6673,16 @@
         <v>76</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>77</v>
@@ -6693,7 +6696,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6805,7 +6808,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6915,10 +6918,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C44" t="s" s="2">
         <v>77</v>
@@ -6940,13 +6943,13 @@
         <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -7029,10 +7032,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C45" t="s" s="2">
         <v>77</v>
@@ -7054,16 +7057,16 @@
         <v>77</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -7145,10 +7148,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C46" t="s" s="2">
         <v>77</v>
@@ -7170,16 +7173,16 @@
         <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7261,10 +7264,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C47" t="s" s="2">
         <v>77</v>
@@ -7286,10 +7289,10 @@
         <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="K47" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="K47" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="L47" t="s" s="2">
         <v>185</v>
@@ -7375,11 +7378,11 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7401,10 +7404,10 @@
         <v>103</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M48" t="s" s="2">
         <v>106</v>
@@ -7459,7 +7462,7 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>75</v>
@@ -7491,7 +7494,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7517,16 +7520,16 @@
         <v>85</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>77</v>
@@ -7575,7 +7578,7 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>83</v>
@@ -7593,7 +7596,7 @@
         <v>77</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>77</v>
@@ -7607,7 +7610,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7633,16 +7636,16 @@
         <v>125</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>77</v>
@@ -7691,7 +7694,7 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>75</v>
@@ -7709,7 +7712,7 @@
         <v>77</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>77</v>
@@ -7723,7 +7726,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7749,16 +7752,16 @@
         <v>137</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>77</v>
@@ -7786,10 +7789,10 @@
         <v>149</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>77</v>
@@ -7807,7 +7810,7 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>75</v>
@@ -7816,7 +7819,7 @@
         <v>76</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>95</v>
@@ -7825,7 +7828,7 @@
         <v>77</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>77</v>
@@ -7839,11 +7842,11 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7865,16 +7868,16 @@
         <v>85</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>77</v>
@@ -7923,7 +7926,7 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>75</v>
@@ -7941,7 +7944,7 @@
         <v>77</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>77</v>
@@ -7955,7 +7958,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7981,13 +7984,13 @@
         <v>85</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -8037,7 +8040,7 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>75</v>
@@ -8055,7 +8058,7 @@
         <v>77</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>77</v>
@@ -8069,7 +8072,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8095,16 +8098,16 @@
         <v>159</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>77</v>
@@ -8129,13 +8132,13 @@
         <v>77</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>77</v>
@@ -8153,7 +8156,7 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>83</v>
@@ -8171,7 +8174,7 @@
         <v>77</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>77</v>
@@ -8185,7 +8188,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8208,19 +8211,19 @@
         <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>77</v>
@@ -8269,7 +8272,7 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>75</v>
@@ -8281,13 +8284,13 @@
         <v>77</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>77</v>
@@ -8301,7 +8304,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8413,7 +8416,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8527,11 +8530,11 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8553,10 +8556,10 @@
         <v>103</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M58" t="s" s="2">
         <v>106</v>
@@ -8611,7 +8614,7 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>75</v>
@@ -8643,7 +8646,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8669,13 +8672,13 @@
         <v>85</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8725,7 +8728,7 @@
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>83</v>
@@ -8743,7 +8746,7 @@
         <v>77</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>77</v>
@@ -8757,7 +8760,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8783,10 +8786,10 @@
         <v>159</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8813,13 +8816,13 @@
         <v>77</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>77</v>
@@ -8837,7 +8840,7 @@
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>83</v>
@@ -8855,7 +8858,7 @@
         <v>77</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>77</v>
@@ -8869,7 +8872,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8892,13 +8895,13 @@
         <v>77</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8928,10 +8931,10 @@
         <v>149</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>77</v>
@@ -8949,7 +8952,7 @@
         <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>83</v>
@@ -8958,7 +8961,7 @@
         <v>83</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>95</v>
@@ -8967,7 +8970,7 @@
         <v>77</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>77</v>
@@ -8981,7 +8984,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9007,13 +9010,13 @@
         <v>159</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -9039,13 +9042,13 @@
         <v>77</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>77</v>
@@ -9063,7 +9066,7 @@
         <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>75</v>
@@ -9072,7 +9075,7 @@
         <v>83</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>95</v>
@@ -9081,7 +9084,7 @@
         <v>77</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>77</v>
@@ -9095,7 +9098,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9118,23 +9121,23 @@
         <v>77</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P63" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="Q63" t="s" s="2">
         <v>77</v>
@@ -9179,7 +9182,7 @@
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>75</v>
@@ -9188,7 +9191,7 @@
         <v>83</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>95</v>
@@ -9197,7 +9200,7 @@
         <v>77</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>77</v>
@@ -9211,7 +9214,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9234,70 +9237,70 @@
         <v>77</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P64" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="Q64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE64" t="s" s="2">
         <v>457</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P64" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="Q64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE64" t="s" s="2">
-        <v>456</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>75</v>
@@ -9306,7 +9309,7 @@
         <v>83</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>95</v>
@@ -9315,7 +9318,7 @@
         <v>77</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>77</v>
@@ -9329,7 +9332,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9352,19 +9355,19 @@
         <v>77</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>77</v>
@@ -9413,7 +9416,7 @@
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>75</v>
@@ -9422,7 +9425,7 @@
         <v>83</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>95</v>
@@ -9431,7 +9434,7 @@
         <v>77</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>77</v>
@@ -9445,7 +9448,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9468,16 +9471,16 @@
         <v>77</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9527,7 +9530,7 @@
         <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>75</v>
@@ -9536,7 +9539,7 @@
         <v>83</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>95</v>
@@ -9545,7 +9548,7 @@
         <v>77</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>77</v>
@@ -9559,7 +9562,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9582,16 +9585,16 @@
         <v>77</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -9641,7 +9644,7 @@
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>75</v>
@@ -9650,7 +9653,7 @@
         <v>83</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>95</v>
@@ -9659,7 +9662,7 @@
         <v>77</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>77</v>
@@ -9673,7 +9676,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9696,16 +9699,16 @@
         <v>77</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -9755,7 +9758,7 @@
         <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>75</v>
@@ -9764,7 +9767,7 @@
         <v>76</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>95</v>
@@ -9773,7 +9776,7 @@
         <v>77</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>77</v>
@@ -9787,7 +9790,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9899,7 +9902,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10013,11 +10016,11 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -10039,10 +10042,10 @@
         <v>103</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M71" t="s" s="2">
         <v>106</v>
@@ -10097,7 +10100,7 @@
         <v>77</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>75</v>
@@ -10129,7 +10132,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10152,16 +10155,16 @@
         <v>77</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -10190,10 +10193,10 @@
         <v>149</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>77</v>
@@ -10211,7 +10214,7 @@
         <v>77</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>83</v>
@@ -10229,7 +10232,7 @@
         <v>77</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>77</v>
@@ -10243,7 +10246,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10266,23 +10269,23 @@
         <v>77</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P73" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="Q73" t="s" s="2">
         <v>77</v>
@@ -10327,7 +10330,7 @@
         <v>77</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>75</v>
@@ -10345,7 +10348,7 @@
         <v>77</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>77</v>
@@ -10359,7 +10362,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10382,19 +10385,19 @@
         <v>77</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>77</v>
@@ -10443,7 +10446,7 @@
         <v>77</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>75</v>
@@ -10452,7 +10455,7 @@
         <v>76</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>95</v>
@@ -10461,7 +10464,7 @@
         <v>77</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>77</v>
@@ -10475,7 +10478,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10587,7 +10590,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10701,11 +10704,11 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -10727,10 +10730,10 @@
         <v>103</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M77" t="s" s="2">
         <v>106</v>
@@ -10785,7 +10788,7 @@
         <v>77</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>75</v>
@@ -10817,7 +10820,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10840,16 +10843,16 @@
         <v>77</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -10878,10 +10881,10 @@
         <v>149</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>77</v>
@@ -10899,7 +10902,7 @@
         <v>77</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>83</v>
@@ -10917,7 +10920,7 @@
         <v>77</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>77</v>
@@ -10931,7 +10934,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10957,16 +10960,16 @@
         <v>77</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>77</v>
@@ -11015,7 +11018,7 @@
         <v>77</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>75</v>
@@ -11024,7 +11027,7 @@
         <v>76</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>95</v>
@@ -11033,7 +11036,7 @@
         <v>77</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>77</v>

--- a/StructureDefinition-questionnaire-s37.xlsx
+++ b/StructureDefinition-questionnaire-s37.xlsx
@@ -379,6 +379,9 @@
     <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
   </si>
   <si>
+    <t>1.0.0a-S37</t>
+  </si>
+  <si>
     <t>Meta.versionId</t>
   </si>
   <si>
@@ -694,9 +697,6 @@
   </si>
   <si>
     <t>There may be different questionnaire instances that have the same identifier but different versions.  The version can be appended to the url in a reference to allow a reference to a particular business version of the questionnaire with the format [url]|[version].</t>
-  </si>
-  <si>
-    <t>1.0.0-S37-Questionnaire-version</t>
   </si>
   <si>
     <t>Definition.version</t>
@@ -2735,7 +2735,7 @@
         <v>77</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>5</v>
+        <v>117</v>
       </c>
       <c r="S7" t="s" s="2">
         <v>77</v>
@@ -2774,7 +2774,7 @@
         <v>77</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>75</v>
@@ -2806,7 +2806,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -2829,16 +2829,16 @@
         <v>84</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2888,7 +2888,7 @@
         <v>77</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>75</v>
@@ -2920,7 +2920,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -2943,16 +2943,16 @@
         <v>84</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -3002,7 +3002,7 @@
         <v>77</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>75</v>
@@ -3034,7 +3034,7 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -3057,16 +3057,16 @@
         <v>84</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -3116,7 +3116,7 @@
         <v>77</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>75</v>
@@ -3148,7 +3148,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -3171,16 +3171,16 @@
         <v>84</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
@@ -3206,13 +3206,13 @@
         <v>77</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Z11" t="s" s="2">
         <v>77</v>
@@ -3230,7 +3230,7 @@
         <v>77</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>75</v>
@@ -3262,7 +3262,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3285,16 +3285,16 @@
         <v>84</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -3320,13 +3320,13 @@
         <v>77</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Z12" t="s" s="2">
         <v>77</v>
@@ -3344,7 +3344,7 @@
         <v>77</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>75</v>
@@ -3376,7 +3376,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3399,16 +3399,16 @@
         <v>84</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3458,7 +3458,7 @@
         <v>77</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>75</v>
@@ -3490,7 +3490,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3513,16 +3513,16 @@
         <v>77</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -3548,13 +3548,13 @@
         <v>77</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>77</v>
@@ -3572,7 +3572,7 @@
         <v>77</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>75</v>
@@ -3604,11 +3604,11 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -3627,16 +3627,16 @@
         <v>77</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3686,7 +3686,7 @@
         <v>77</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>75</v>
@@ -3704,7 +3704,7 @@
         <v>77</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>77</v>
@@ -3718,11 +3718,11 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3741,16 +3741,16 @@
         <v>77</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3800,7 +3800,7 @@
         <v>77</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>75</v>
@@ -3818,7 +3818,7 @@
         <v>77</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>77</v>
@@ -3832,7 +3832,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3858,10 +3858,10 @@
         <v>103</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3910,7 +3910,7 @@
         <v>109</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>75</v>
@@ -3942,10 +3942,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>77</v>
@@ -3967,13 +3967,13 @@
         <v>77</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -4024,7 +4024,7 @@
         <v>77</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>75</v>
@@ -4033,7 +4033,7 @@
         <v>76</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>111</v>
@@ -4056,7 +4056,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4082,16 +4082,16 @@
         <v>103</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M19" t="s" s="2">
         <v>106</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>77</v>
@@ -4140,7 +4140,7 @@
         <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>75</v>
@@ -4158,7 +4158,7 @@
         <v>77</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>77</v>
@@ -4172,7 +4172,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4195,19 +4195,19 @@
         <v>84</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>77</v>
@@ -4256,7 +4256,7 @@
         <v>77</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>75</v>
@@ -4271,13 +4271,13 @@
         <v>95</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>77</v>
@@ -4288,7 +4288,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4311,19 +4311,19 @@
         <v>84</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>77</v>
@@ -4372,7 +4372,7 @@
         <v>77</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>75</v>
@@ -4387,16 +4387,16 @@
         <v>95</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>77</v>
@@ -4404,7 +4404,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4430,13 +4430,13 @@
         <v>85</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4447,7 +4447,7 @@
         <v>77</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>218</v>
+        <v>77</v>
       </c>
       <c r="S22" t="s" s="2">
         <v>77</v>
@@ -4486,7 +4486,7 @@
         <v>77</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>75</v>
@@ -4620,7 +4620,7 @@
         <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>77</v>
@@ -4885,7 +4885,7 @@
         <v>84</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K26" t="s" s="2">
         <v>242</v>
@@ -5078,7 +5078,7 @@
         <v>256</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>257</v>
@@ -5115,7 +5115,7 @@
         <v>84</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K28" t="s" s="2">
         <v>259</v>
@@ -5838,7 +5838,7 @@
         <v>77</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="X34" t="s" s="2">
         <v>309</v>
@@ -6000,7 +6000,7 @@
         <v>318</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>77</v>
@@ -6114,7 +6114,7 @@
         <v>77</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>77</v>
@@ -6228,7 +6228,7 @@
         <v>77</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>77</v>
@@ -6344,7 +6344,7 @@
         <v>77</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>77</v>
@@ -6460,7 +6460,7 @@
         <v>77</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>77</v>
@@ -6491,7 +6491,7 @@
         <v>84</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K40" t="s" s="2">
         <v>347</v>
@@ -6526,7 +6526,7 @@
         <v>77</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="X40" t="s" s="2">
         <v>350</v>
@@ -6834,10 +6834,10 @@
         <v>103</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -7009,7 +7009,7 @@
         <v>76</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>111</v>
@@ -7125,7 +7125,7 @@
         <v>76</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>111</v>
@@ -7241,7 +7241,7 @@
         <v>76</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>111</v>
@@ -7295,7 +7295,7 @@
         <v>377</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7355,7 +7355,7 @@
         <v>76</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>111</v>
@@ -7413,7 +7413,7 @@
         <v>106</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>77</v>
@@ -7480,7 +7480,7 @@
         <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>77</v>
@@ -7633,7 +7633,7 @@
         <v>77</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K50" t="s" s="2">
         <v>391</v>
@@ -7749,7 +7749,7 @@
         <v>77</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K51" t="s" s="2">
         <v>397</v>
@@ -7786,7 +7786,7 @@
         <v>77</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="X51" t="s" s="2">
         <v>350</v>
@@ -8095,7 +8095,7 @@
         <v>77</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K54" t="s" s="2">
         <v>413</v>
@@ -8565,7 +8565,7 @@
         <v>106</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>77</v>
@@ -8632,7 +8632,7 @@
         <v>77</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -8783,7 +8783,7 @@
         <v>77</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K60" t="s" s="2">
         <v>434</v>
@@ -8928,7 +8928,7 @@
         <v>77</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="X61" t="s" s="2">
         <v>442</v>
@@ -9007,7 +9007,7 @@
         <v>77</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K62" t="s" s="2">
         <v>446</v>
@@ -9557,7 +9557,7 @@
         <v>77</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="67" hidden="true">
@@ -10051,7 +10051,7 @@
         <v>106</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>77</v>
@@ -10118,7 +10118,7 @@
         <v>77</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>77</v>
@@ -10190,7 +10190,7 @@
         <v>77</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="X72" t="s" s="2">
         <v>442</v>
@@ -10739,7 +10739,7 @@
         <v>106</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>77</v>
@@ -10806,7 +10806,7 @@
         <v>77</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>77</v>
@@ -10878,7 +10878,7 @@
         <v>77</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="X78" t="s" s="2">
         <v>442</v>

--- a/StructureDefinition-questionnaire-s37.xlsx
+++ b/StructureDefinition-questionnaire-s37.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2898" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2898" uniqueCount="520">
   <si>
     <t>Property</t>
   </si>
@@ -1196,6 +1196,9 @@
   <si>
     <t xml:space="preserve">Extension {http://science37.com/StructureDefinition/observation-Extract}
 </t>
+  </si>
+  <si>
+    <t>Extension : observationExtract</t>
   </si>
   <si>
     <t>Questionnaire.item.modifierExtension</t>
@@ -7292,7 +7295,7 @@
         <v>378</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="L47" t="s" s="2">
         <v>186</v>
@@ -7378,11 +7381,11 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7404,10 +7407,10 @@
         <v>103</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M48" t="s" s="2">
         <v>106</v>
@@ -7462,7 +7465,7 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>75</v>
@@ -7494,7 +7497,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7520,16 +7523,16 @@
         <v>85</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>77</v>
@@ -7578,7 +7581,7 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>83</v>
@@ -7596,7 +7599,7 @@
         <v>77</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>77</v>
@@ -7610,7 +7613,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7636,16 +7639,16 @@
         <v>126</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>77</v>
@@ -7694,7 +7697,7 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>75</v>
@@ -7712,7 +7715,7 @@
         <v>77</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>77</v>
@@ -7726,7 +7729,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7752,16 +7755,16 @@
         <v>138</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>77</v>
@@ -7810,7 +7813,7 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>75</v>
@@ -7842,11 +7845,11 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7868,16 +7871,16 @@
         <v>85</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>77</v>
@@ -7926,7 +7929,7 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>75</v>
@@ -7944,7 +7947,7 @@
         <v>77</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>77</v>
@@ -7958,7 +7961,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7984,13 +7987,13 @@
         <v>85</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -8040,7 +8043,7 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>75</v>
@@ -8072,7 +8075,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8098,16 +8101,16 @@
         <v>160</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>77</v>
@@ -8135,10 +8138,10 @@
         <v>245</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>77</v>
@@ -8156,7 +8159,7 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>83</v>
@@ -8174,7 +8177,7 @@
         <v>77</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>77</v>
@@ -8188,7 +8191,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8214,16 +8217,16 @@
         <v>354</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>77</v>
@@ -8272,7 +8275,7 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>75</v>
@@ -8284,13 +8287,13 @@
         <v>77</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>77</v>
@@ -8304,7 +8307,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8416,7 +8419,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8530,11 +8533,11 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8556,10 +8559,10 @@
         <v>103</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M58" t="s" s="2">
         <v>106</v>
@@ -8614,7 +8617,7 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>75</v>
@@ -8646,7 +8649,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8672,13 +8675,13 @@
         <v>85</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8728,7 +8731,7 @@
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>83</v>
@@ -8746,7 +8749,7 @@
         <v>77</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>77</v>
@@ -8760,7 +8763,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8786,10 +8789,10 @@
         <v>160</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8819,10 +8822,10 @@
         <v>245</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>77</v>
@@ -8840,7 +8843,7 @@
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>83</v>
@@ -8858,7 +8861,7 @@
         <v>77</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>77</v>
@@ -8872,7 +8875,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8895,13 +8898,13 @@
         <v>77</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8931,10 +8934,10 @@
         <v>150</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>77</v>
@@ -8952,7 +8955,7 @@
         <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>83</v>
@@ -8961,7 +8964,7 @@
         <v>83</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>95</v>
@@ -8970,7 +8973,7 @@
         <v>77</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>77</v>
@@ -8984,7 +8987,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9010,13 +9013,13 @@
         <v>160</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -9045,10 +9048,10 @@
         <v>245</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>77</v>
@@ -9066,7 +9069,7 @@
         <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>75</v>
@@ -9075,7 +9078,7 @@
         <v>83</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>95</v>
@@ -9084,7 +9087,7 @@
         <v>77</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>77</v>
@@ -9098,7 +9101,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9124,20 +9127,20 @@
         <v>252</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P63" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="Q63" t="s" s="2">
         <v>77</v>
@@ -9182,7 +9185,7 @@
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>75</v>
@@ -9191,7 +9194,7 @@
         <v>83</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>95</v>
@@ -9200,7 +9203,7 @@
         <v>77</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>77</v>
@@ -9214,7 +9217,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9240,67 +9243,67 @@
         <v>252</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P64" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="Q64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE64" t="s" s="2">
         <v>458</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P64" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="Q64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE64" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>75</v>
@@ -9309,7 +9312,7 @@
         <v>83</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>95</v>
@@ -9318,7 +9321,7 @@
         <v>77</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>77</v>
@@ -9332,7 +9335,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9358,16 +9361,16 @@
         <v>252</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>77</v>
@@ -9416,7 +9419,7 @@
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>75</v>
@@ -9425,7 +9428,7 @@
         <v>83</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>95</v>
@@ -9434,7 +9437,7 @@
         <v>77</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>77</v>
@@ -9448,7 +9451,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9471,16 +9474,16 @@
         <v>77</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9530,7 +9533,7 @@
         <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>75</v>
@@ -9539,7 +9542,7 @@
         <v>83</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>95</v>
@@ -9548,7 +9551,7 @@
         <v>77</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>77</v>
@@ -9562,7 +9565,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9585,16 +9588,16 @@
         <v>77</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -9644,7 +9647,7 @@
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>75</v>
@@ -9653,7 +9656,7 @@
         <v>83</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>95</v>
@@ -9662,7 +9665,7 @@
         <v>77</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>77</v>
@@ -9676,7 +9679,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9702,13 +9705,13 @@
         <v>354</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -9758,7 +9761,7 @@
         <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>75</v>
@@ -9767,7 +9770,7 @@
         <v>76</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>95</v>
@@ -9776,7 +9779,7 @@
         <v>77</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>77</v>
@@ -9790,7 +9793,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9902,7 +9905,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10016,11 +10019,11 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -10042,10 +10045,10 @@
         <v>103</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M71" t="s" s="2">
         <v>106</v>
@@ -10100,7 +10103,7 @@
         <v>77</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>75</v>
@@ -10132,7 +10135,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10155,16 +10158,16 @@
         <v>77</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -10193,10 +10196,10 @@
         <v>150</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>77</v>
@@ -10214,7 +10217,7 @@
         <v>77</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>83</v>
@@ -10232,7 +10235,7 @@
         <v>77</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>77</v>
@@ -10246,7 +10249,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10272,20 +10275,20 @@
         <v>252</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P73" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="Q73" t="s" s="2">
         <v>77</v>
@@ -10330,7 +10333,7 @@
         <v>77</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>75</v>
@@ -10348,7 +10351,7 @@
         <v>77</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>77</v>
@@ -10362,7 +10365,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10388,16 +10391,16 @@
         <v>354</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>77</v>
@@ -10446,7 +10449,7 @@
         <v>77</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>75</v>
@@ -10455,7 +10458,7 @@
         <v>76</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>95</v>
@@ -10464,7 +10467,7 @@
         <v>77</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>77</v>
@@ -10478,7 +10481,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10590,7 +10593,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10704,11 +10707,11 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -10730,10 +10733,10 @@
         <v>103</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M77" t="s" s="2">
         <v>106</v>
@@ -10788,7 +10791,7 @@
         <v>77</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>75</v>
@@ -10820,7 +10823,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10843,16 +10846,16 @@
         <v>77</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -10881,10 +10884,10 @@
         <v>150</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>77</v>
@@ -10902,7 +10905,7 @@
         <v>77</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>83</v>
@@ -10920,7 +10923,7 @@
         <v>77</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>77</v>
@@ -10934,7 +10937,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10960,16 +10963,16 @@
         <v>77</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>77</v>
@@ -11018,7 +11021,7 @@
         <v>77</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>75</v>
@@ -11027,7 +11030,7 @@
         <v>76</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>95</v>
@@ -11036,7 +11039,7 @@
         <v>77</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>77</v>

--- a/StructureDefinition-questionnaire-s37.xlsx
+++ b/StructureDefinition-questionnaire-s37.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$79</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$82</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2898" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3004" uniqueCount="528">
   <si>
     <t>Property</t>
   </si>
@@ -379,10 +379,34 @@
     <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
   </si>
   <si>
+    <t>Meta.versionId</t>
+  </si>
+  <si>
+    <t>Questionnaire.meta.versionId.id</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references)</t>
+  </si>
+  <si>
+    <t>Questionnaire.meta.versionId.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Questionnaire.meta.versionId.value</t>
+  </si>
+  <si>
+    <t>Primitive value for id</t>
+  </si>
+  <si>
     <t>1.0.0a-S37</t>
   </si>
   <si>
-    <t>Meta.versionId</t>
+    <t>string.value</t>
   </si>
   <si>
     <t>Questionnaire.meta.lastUpdated</t>
@@ -1956,7 +1980,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN79"/>
+  <dimension ref="A1:AN82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2738,46 +2762,46 @@
         <v>77</v>
       </c>
       <c r="R7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE7" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="S7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE7" t="s" s="2">
-        <v>118</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>75</v>
@@ -2809,7 +2833,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -2829,20 +2853,18 @@
         <v>77</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K8" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="K8" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="L8" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>123</v>
-      </c>
+      <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
         <v>77</v>
@@ -2891,7 +2913,7 @@
         <v>77</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>75</v>
@@ -2903,7 +2925,7 @@
         <v>77</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>77</v>
@@ -2923,18 +2945,18 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>77</v>
@@ -2943,19 +2965,19 @@
         <v>77</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -3005,19 +3027,19 @@
         <v>77</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>77</v>
@@ -3037,7 +3059,7 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -3048,7 +3070,7 @@
         <v>75</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>77</v>
@@ -3057,20 +3079,18 @@
         <v>77</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>132</v>
+        <v>85</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>77</v>
@@ -3080,7 +3100,7 @@
         <v>77</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="S10" t="s" s="2">
         <v>77</v>
@@ -3119,19 +3139,19 @@
         <v>77</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>77</v>
@@ -3151,7 +3171,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -3162,7 +3182,7 @@
         <v>75</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>77</v>
@@ -3174,16 +3194,16 @@
         <v>84</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
@@ -3209,13 +3229,13 @@
         <v>77</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>143</v>
+        <v>77</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="Z11" t="s" s="2">
         <v>77</v>
@@ -3233,13 +3253,13 @@
         <v>77</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>77</v>
@@ -3265,7 +3285,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3276,7 +3296,7 @@
         <v>75</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>77</v>
@@ -3288,16 +3308,16 @@
         <v>84</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -3323,13 +3343,13 @@
         <v>77</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>150</v>
+        <v>77</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>151</v>
+        <v>77</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>152</v>
+        <v>77</v>
       </c>
       <c r="Z12" t="s" s="2">
         <v>77</v>
@@ -3347,13 +3367,13 @@
         <v>77</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>77</v>
@@ -3379,7 +3399,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3390,28 +3410,28 @@
         <v>75</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>84</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -3461,13 +3481,13 @@
         <v>77</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>77</v>
@@ -3493,7 +3513,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3504,7 +3524,7 @@
         <v>75</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>77</v>
@@ -3513,19 +3533,19 @@
         <v>77</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -3551,13 +3571,13 @@
         <v>77</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>77</v>
@@ -3575,13 +3595,13 @@
         <v>77</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>77</v>
@@ -3607,18 +3627,18 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>169</v>
+        <v>77</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>77</v>
@@ -3627,19 +3647,19 @@
         <v>77</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3665,13 +3685,13 @@
         <v>77</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>77</v>
+        <v>158</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>77</v>
+        <v>159</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>77</v>
@@ -3689,13 +3709,13 @@
         <v>77</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>77</v>
@@ -3707,7 +3727,7 @@
         <v>77</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>175</v>
+        <v>77</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>77</v>
@@ -3721,39 +3741,39 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>177</v>
+        <v>77</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>178</v>
+        <v>134</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3803,25 +3823,25 @@
         <v>77</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>183</v>
+        <v>77</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>77</v>
@@ -3835,7 +3855,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3846,7 +3866,7 @@
         <v>75</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>77</v>
@@ -3858,15 +3878,17 @@
         <v>77</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>103</v>
+        <v>168</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M17" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>77</v>
@@ -3891,41 +3913,43 @@
         <v>77</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>77</v>
+        <v>172</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>77</v>
+        <v>173</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>77</v>
+        <v>174</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AB17" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AC17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>77</v>
@@ -3945,13 +3969,11 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>188</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>77</v>
+        <v>177</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -3970,15 +3992,17 @@
         <v>77</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="M18" s="2"/>
+        <v>180</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>77</v>
@@ -4027,25 +4051,25 @@
         <v>77</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>192</v>
+        <v>77</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>77</v>
+        <v>183</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>77</v>
@@ -4059,11 +4083,11 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>102</v>
+        <v>185</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -4076,26 +4100,24 @@
         <v>77</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>103</v>
+        <v>186</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>77</v>
       </c>
@@ -4143,7 +4165,7 @@
         <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>75</v>
@@ -4155,13 +4177,13 @@
         <v>77</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>77</v>
@@ -4175,7 +4197,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4186,7 +4208,7 @@
         <v>75</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>77</v>
@@ -4195,23 +4217,19 @@
         <v>77</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>202</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>77</v>
       </c>
@@ -4247,40 +4265,38 @@
         <v>77</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="AB20" s="2"/>
       <c r="AC20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>203</v>
+        <v>77</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>204</v>
+        <v>77</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>205</v>
+        <v>77</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>77</v>
@@ -4291,15 +4307,17 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="B21" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>196</v>
+      </c>
       <c r="C21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>83</v>
@@ -4311,23 +4329,19 @@
         <v>77</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>77</v>
       </c>
@@ -4375,7 +4389,7 @@
         <v>77</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>75</v>
@@ -4384,22 +4398,22 @@
         <v>76</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>77</v>
+        <v>200</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>212</v>
+        <v>77</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>213</v>
+        <v>77</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>205</v>
+        <v>77</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>214</v>
+        <v>77</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>77</v>
@@ -4407,41 +4421,43 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="O22" t="s" s="2">
         <v>77</v>
       </c>
@@ -4489,28 +4505,28 @@
         <v>77</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>219</v>
+        <v>77</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>220</v>
+        <v>191</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>221</v>
+        <v>77</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>77</v>
@@ -4521,7 +4537,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4544,19 +4560,19 @@
         <v>84</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>85</v>
+        <v>134</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>77</v>
@@ -4605,7 +4621,7 @@
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>75</v>
@@ -4614,19 +4630,19 @@
         <v>83</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>227</v>
+        <v>77</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>77</v>
+        <v>211</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>183</v>
+        <v>212</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>77</v>
+        <v>213</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>77</v>
@@ -4637,7 +4653,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4645,7 +4661,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>83</v>
@@ -4660,18 +4676,20 @@
         <v>84</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>85</v>
+        <v>215</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>218</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>77</v>
       </c>
@@ -4719,13 +4737,13 @@
         <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>77</v>
@@ -4734,16 +4752,16 @@
         <v>95</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>77</v>
+        <v>213</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>77</v>
+        <v>222</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>77</v>
@@ -4751,7 +4769,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4762,7 +4780,7 @@
         <v>75</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>77</v>
@@ -4771,21 +4789,21 @@
         <v>77</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>235</v>
+        <v>85</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="M25" s="2"/>
-      <c r="N25" t="s" s="2">
-        <v>238</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>77</v>
       </c>
@@ -4833,13 +4851,13 @@
         <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>77</v>
@@ -4848,13 +4866,13 @@
         <v>95</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>77</v>
+        <v>229</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>77</v>
@@ -4863,9 +4881,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4873,33 +4891,35 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>84</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>160</v>
+        <v>85</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="O26" t="s" s="2">
         <v>77</v>
       </c>
@@ -4923,13 +4943,13 @@
         <v>77</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>245</v>
+        <v>77</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>246</v>
+        <v>77</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>247</v>
+        <v>77</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>77</v>
@@ -4947,28 +4967,28 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>77</v>
+        <v>235</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>248</v>
+        <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>249</v>
+        <v>191</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>250</v>
+        <v>77</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>77</v>
@@ -4979,7 +4999,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5002,20 +5022,18 @@
         <v>84</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>252</v>
+        <v>85</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>255</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>77</v>
       </c>
@@ -5063,7 +5081,7 @@
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>75</v>
@@ -5078,13 +5096,13 @@
         <v>95</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>183</v>
+        <v>241</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>257</v>
+        <v>77</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>77</v>
@@ -5095,7 +5113,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5115,21 +5133,21 @@
         <v>77</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>160</v>
+        <v>243</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="O28" t="s" s="2">
         <v>77</v>
       </c>
@@ -5153,13 +5171,13 @@
         <v>77</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>245</v>
+        <v>77</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>262</v>
+        <v>77</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>263</v>
+        <v>77</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>77</v>
@@ -5177,7 +5195,7 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>75</v>
@@ -5192,10 +5210,10 @@
         <v>95</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>
@@ -5207,41 +5225,41 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>267</v>
+        <v>77</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>84</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>268</v>
+        <v>168</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5267,13 +5285,13 @@
         <v>77</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>77</v>
+        <v>253</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>77</v>
+        <v>254</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>77</v>
+        <v>255</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>77</v>
@@ -5291,10 +5309,10 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>83</v>
@@ -5306,13 +5324,13 @@
         <v>95</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>77</v>
@@ -5323,7 +5341,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5346,19 +5364,19 @@
         <v>84</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>85</v>
+        <v>260</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>77</v>
@@ -5407,7 +5425,7 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>75</v>
@@ -5422,13 +5440,13 @@
         <v>95</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>281</v>
+        <v>191</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>77</v>
@@ -5439,7 +5457,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5462,16 +5480,16 @@
         <v>84</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>284</v>
+        <v>168</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5497,13 +5515,13 @@
         <v>77</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>77</v>
+        <v>253</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>77</v>
+        <v>270</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>77</v>
+        <v>271</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>77</v>
@@ -5521,7 +5539,7 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>75</v>
@@ -5536,10 +5554,10 @@
         <v>95</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>77</v>
@@ -5553,11 +5571,11 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>77</v>
+        <v>275</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -5573,19 +5591,19 @@
         <v>77</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5635,7 +5653,7 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>75</v>
@@ -5650,13 +5668,13 @@
         <v>95</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>77</v>
+        <v>282</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>77</v>
@@ -5667,7 +5685,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5678,7 +5696,7 @@
         <v>75</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>77</v>
@@ -5690,19 +5708,19 @@
         <v>84</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>298</v>
+        <v>85</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>77</v>
@@ -5751,13 +5769,13 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>77</v>
@@ -5766,13 +5784,13 @@
         <v>95</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>220</v>
+        <v>289</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>77</v>
+        <v>290</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>77</v>
@@ -5783,7 +5801,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5806,16 +5824,16 @@
         <v>84</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5841,13 +5859,13 @@
         <v>77</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>309</v>
+        <v>77</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>310</v>
+        <v>77</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>77</v>
@@ -5865,7 +5883,7 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>75</v>
@@ -5880,10 +5898,10 @@
         <v>95</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>220</v>
+        <v>297</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>77</v>
@@ -5897,7 +5915,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5920,16 +5938,16 @@
         <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5979,7 +5997,7 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>75</v>
@@ -5994,16 +6012,16 @@
         <v>95</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>318</v>
+        <v>77</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>214</v>
+        <v>77</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>77</v>
@@ -6011,18 +6029,18 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>320</v>
+        <v>77</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>77</v>
@@ -6031,20 +6049,22 @@
         <v>77</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="M36" s="2"/>
+        <v>308</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>309</v>
+      </c>
       <c r="N36" t="s" s="2">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>77</v>
@@ -6093,13 +6113,13 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>77</v>
@@ -6108,16 +6128,16 @@
         <v>95</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>214</v>
+        <v>77</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>77</v>
@@ -6125,7 +6145,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6136,7 +6156,7 @@
         <v>75</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>77</v>
@@ -6145,19 +6165,19 @@
         <v>77</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6183,13 +6203,13 @@
         <v>77</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>77</v>
+        <v>150</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>77</v>
+        <v>317</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>77</v>
+        <v>318</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>77</v>
@@ -6207,13 +6227,13 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>77</v>
@@ -6222,16 +6242,16 @@
         <v>95</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>331</v>
+        <v>228</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>214</v>
+        <v>77</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>77</v>
@@ -6239,7 +6259,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6262,20 +6282,18 @@
         <v>77</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>326</v>
+        <v>299</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>336</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>77</v>
       </c>
@@ -6323,7 +6341,7 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>75</v>
@@ -6338,16 +6356,16 @@
         <v>95</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>77</v>
+        <v>326</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>77</v>
@@ -6355,11 +6373,11 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>77</v>
+        <v>328</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -6375,22 +6393,20 @@
         <v>77</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>340</v>
+        <v>299</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>343</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>77</v>
@@ -6439,7 +6455,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>75</v>
@@ -6454,16 +6470,16 @@
         <v>95</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>77</v>
@@ -6471,7 +6487,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6482,7 +6498,7 @@
         <v>75</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>77</v>
@@ -6491,21 +6507,21 @@
         <v>77</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>138</v>
+        <v>334</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="M40" s="2"/>
-      <c r="N40" t="s" s="2">
-        <v>349</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>77</v>
       </c>
@@ -6529,13 +6545,13 @@
         <v>77</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>150</v>
+        <v>77</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>350</v>
+        <v>77</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>351</v>
+        <v>77</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>77</v>
@@ -6553,13 +6569,13 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>77</v>
@@ -6568,16 +6584,16 @@
         <v>95</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>77</v>
+        <v>338</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>77</v>
+        <v>222</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>77</v>
@@ -6585,7 +6601,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6596,7 +6612,7 @@
         <v>75</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>77</v>
@@ -6608,18 +6624,20 @@
         <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>354</v>
+        <v>334</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>343</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>344</v>
+      </c>
       <c r="O41" t="s" s="2">
         <v>77</v>
       </c>
@@ -6667,31 +6685,31 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>358</v>
+        <v>77</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>359</v>
+        <v>95</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>77</v>
+        <v>345</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>77</v>
+        <v>222</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>77</v>
@@ -6699,7 +6717,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6719,19 +6737,23 @@
         <v>77</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>85</v>
+        <v>348</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>97</v>
+        <v>349</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
+        <v>350</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>352</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>77</v>
       </c>
@@ -6779,7 +6801,7 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>99</v>
+        <v>347</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>75</v>
@@ -6791,19 +6813,19 @@
         <v>77</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>77</v>
+        <v>353</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>100</v>
+        <v>228</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>77</v>
+        <v>222</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>77</v>
@@ -6811,7 +6833,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6831,19 +6853,21 @@
         <v>77</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>185</v>
+        <v>355</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>186</v>
+        <v>356</v>
       </c>
       <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
+      <c r="N43" t="s" s="2">
+        <v>357</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>77</v>
       </c>
@@ -6867,29 +6891,31 @@
         <v>77</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>77</v>
+        <v>158</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>77</v>
+        <v>358</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>77</v>
+        <v>359</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AB43" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AC43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>110</v>
+        <v>354</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>75</v>
@@ -6901,13 +6927,13 @@
         <v>77</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>77</v>
+        <v>360</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>77</v>
@@ -6919,13 +6945,11 @@
         <v>77</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="B44" t="s" s="2">
-        <v>363</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
         <v>77</v>
       </c>
@@ -6934,10 +6958,10 @@
         <v>75</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>77</v>
@@ -6946,15 +6970,17 @@
         <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="L44" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>77</v>
@@ -7003,7 +7029,7 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>110</v>
+        <v>361</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>75</v>
@@ -7012,16 +7038,16 @@
         <v>76</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>192</v>
+        <v>366</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>111</v>
+        <v>367</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>77</v>
+        <v>368</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>77</v>
@@ -7035,11 +7061,9 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="B45" t="s" s="2">
-        <v>367</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
         <v>77</v>
       </c>
@@ -7060,17 +7084,15 @@
         <v>77</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>368</v>
+        <v>85</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>369</v>
+        <v>97</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>371</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>77</v>
@@ -7119,25 +7141,25 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>192</v>
+        <v>77</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>77</v>
@@ -7151,11 +7173,9 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="B46" t="s" s="2">
-        <v>372</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
         <v>77</v>
       </c>
@@ -7164,7 +7184,7 @@
         <v>75</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>77</v>
@@ -7176,17 +7196,15 @@
         <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>373</v>
+        <v>103</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>374</v>
+        <v>193</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>376</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>77</v>
@@ -7223,16 +7241,14 @@
         <v>77</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="AB46" s="2"/>
       <c r="AC46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="AE46" t="s" s="2">
         <v>110</v>
@@ -7244,7 +7260,7 @@
         <v>76</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>192</v>
+        <v>77</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>111</v>
@@ -7265,12 +7281,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="C47" t="s" s="2">
         <v>77</v>
@@ -7283,7 +7299,7 @@
         <v>83</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>77</v>
@@ -7292,13 +7308,13 @@
         <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>186</v>
+        <v>374</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7358,7 +7374,7 @@
         <v>76</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>111</v>
@@ -7381,43 +7397,43 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="B48" s="2"/>
+        <v>370</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>375</v>
+      </c>
       <c r="C48" t="s" s="2">
-        <v>381</v>
+        <v>77</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>103</v>
+        <v>376</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>77</v>
       </c>
@@ -7465,7 +7481,7 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>384</v>
+        <v>110</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>75</v>
@@ -7474,7 +7490,7 @@
         <v>76</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>77</v>
+        <v>200</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>111</v>
@@ -7483,7 +7499,7 @@
         <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>183</v>
+        <v>77</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>77</v>
@@ -7497,15 +7513,17 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="B49" s="2"/>
+        <v>370</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>380</v>
+      </c>
       <c r="C49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>83</v>
@@ -7520,20 +7538,18 @@
         <v>77</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>85</v>
+        <v>381</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>389</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>77</v>
       </c>
@@ -7581,25 +7597,25 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>385</v>
+        <v>110</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>77</v>
+        <v>200</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>390</v>
+        <v>77</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>77</v>
@@ -7613,9 +7629,11 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="B50" s="2"/>
+        <v>370</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>385</v>
+      </c>
       <c r="C50" t="s" s="2">
         <v>77</v>
       </c>
@@ -7636,20 +7654,16 @@
         <v>77</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>126</v>
+        <v>386</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>395</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>77</v>
       </c>
@@ -7697,25 +7711,25 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>391</v>
+        <v>110</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>77</v>
+        <v>200</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>396</v>
+        <v>77</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>77</v>
@@ -7729,11 +7743,11 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>77</v>
+        <v>389</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7746,25 +7760,25 @@
         <v>77</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>400</v>
+        <v>106</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>401</v>
+        <v>204</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>77</v>
@@ -7789,13 +7803,13 @@
         <v>77</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>150</v>
+        <v>77</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>350</v>
+        <v>77</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>351</v>
+        <v>77</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>77</v>
@@ -7813,7 +7827,7 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>75</v>
@@ -7822,16 +7836,16 @@
         <v>76</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>358</v>
+        <v>77</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>352</v>
+        <v>191</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>77</v>
@@ -7845,15 +7859,15 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>403</v>
+        <v>77</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F52" t="s" s="2">
         <v>83</v>
@@ -7871,16 +7885,16 @@
         <v>85</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>77</v>
@@ -7929,10 +7943,10 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>83</v>
@@ -7947,7 +7961,7 @@
         <v>77</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>77</v>
@@ -7961,7 +7975,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7984,18 +7998,20 @@
         <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>85</v>
+        <v>134</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>402</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>403</v>
+      </c>
       <c r="O53" t="s" s="2">
         <v>77</v>
       </c>
@@ -8043,7 +8059,7 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>75</v>
@@ -8061,7 +8077,7 @@
         <v>77</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>296</v>
+        <v>404</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>77</v>
@@ -8075,7 +8091,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8083,10 +8099,10 @@
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>77</v>
@@ -8098,19 +8114,19 @@
         <v>77</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>77</v>
@@ -8135,13 +8151,13 @@
         <v>77</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>245</v>
+        <v>158</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>418</v>
+        <v>358</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>419</v>
+        <v>359</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>77</v>
@@ -8159,16 +8175,16 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>77</v>
+        <v>366</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>95</v>
@@ -8177,7 +8193,7 @@
         <v>77</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>420</v>
+        <v>360</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>77</v>
@@ -8191,42 +8207,42 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>77</v>
+        <v>411</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>354</v>
+        <v>85</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>77</v>
@@ -8275,25 +8291,25 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>426</v>
+        <v>95</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>77</v>
@@ -8307,7 +8323,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8333,12 +8349,14 @@
         <v>85</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>97</v>
+        <v>418</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="M56" s="2"/>
+        <v>419</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>420</v>
+      </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>77</v>
@@ -8387,7 +8405,7 @@
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>99</v>
+        <v>417</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>75</v>
@@ -8399,13 +8417,13 @@
         <v>77</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>100</v>
+        <v>304</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>77</v>
@@ -8419,18 +8437,18 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>77</v>
@@ -8442,18 +8460,20 @@
         <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>103</v>
+        <v>168</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>104</v>
+        <v>422</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>105</v>
+        <v>423</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>424</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>425</v>
+      </c>
       <c r="O57" t="s" s="2">
         <v>77</v>
       </c>
@@ -8477,13 +8497,13 @@
         <v>77</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>77</v>
+        <v>253</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>77</v>
+        <v>426</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>77</v>
+        <v>427</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>77</v>
@@ -8501,25 +8521,25 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>110</v>
+        <v>421</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>100</v>
+        <v>428</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
@@ -8537,7 +8557,7 @@
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>381</v>
+        <v>77</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8553,22 +8573,22 @@
         <v>84</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>103</v>
+        <v>362</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>382</v>
+        <v>430</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>383</v>
+        <v>431</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>106</v>
+        <v>432</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>196</v>
+        <v>433</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>77</v>
@@ -8617,7 +8637,7 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>384</v>
+        <v>429</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>75</v>
@@ -8629,13 +8649,13 @@
         <v>77</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>111</v>
+        <v>434</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>183</v>
+        <v>428</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -8649,7 +8669,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8657,7 +8677,7 @@
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F59" t="s" s="2">
         <v>83</v>
@@ -8675,14 +8695,12 @@
         <v>85</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>431</v>
+        <v>97</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>433</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="M59" s="2"/>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>77</v>
@@ -8731,10 +8749,10 @@
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>430</v>
+        <v>99</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>83</v>
@@ -8743,13 +8761,13 @@
         <v>77</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>420</v>
+        <v>100</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>77</v>
@@ -8763,18 +8781,18 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>77</v>
@@ -8786,15 +8804,17 @@
         <v>77</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>160</v>
+        <v>103</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>435</v>
+        <v>104</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="M60" s="2"/>
+        <v>105</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>77</v>
@@ -8819,13 +8839,13 @@
         <v>77</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>245</v>
+        <v>77</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>437</v>
+        <v>77</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>438</v>
+        <v>77</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>77</v>
@@ -8843,25 +8863,25 @@
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>434</v>
+        <v>110</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>420</v>
+        <v>100</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>77</v>
@@ -8875,39 +8895,43 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>77</v>
+        <v>389</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>440</v>
+        <v>103</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>441</v>
+        <v>390</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
+        <v>391</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="O61" t="s" s="2">
         <v>77</v>
       </c>
@@ -8931,13 +8955,13 @@
         <v>77</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>150</v>
+        <v>77</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>443</v>
+        <v>77</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>444</v>
+        <v>77</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>77</v>
@@ -8955,25 +8979,25 @@
         <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>439</v>
+        <v>392</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>445</v>
+        <v>77</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>420</v>
+        <v>191</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>77</v>
@@ -8987,7 +9011,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8995,7 +9019,7 @@
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F62" t="s" s="2">
         <v>83</v>
@@ -9010,16 +9034,16 @@
         <v>77</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>160</v>
+        <v>85</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -9045,13 +9069,13 @@
         <v>77</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>245</v>
+        <v>77</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>448</v>
+        <v>77</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>450</v>
+        <v>77</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>77</v>
@@ -9069,16 +9093,16 @@
         <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>451</v>
+        <v>77</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>95</v>
@@ -9087,7 +9111,7 @@
         <v>77</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>77</v>
@@ -9101,7 +9125,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9109,7 +9133,7 @@
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F63" t="s" s="2">
         <v>83</v>
@@ -9124,24 +9148,20 @@
         <v>77</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>252</v>
+        <v>168</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>455</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="M63" s="2"/>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P63" t="s" s="2">
-        <v>456</v>
-      </c>
+      <c r="P63" s="2"/>
       <c r="Q63" t="s" s="2">
         <v>77</v>
       </c>
@@ -9161,13 +9181,13 @@
         <v>77</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>77</v>
+        <v>253</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>77</v>
+        <v>445</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>77</v>
+        <v>446</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>77</v>
@@ -9185,16 +9205,16 @@
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>457</v>
+        <v>77</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>95</v>
@@ -9203,7 +9223,7 @@
         <v>77</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>77</v>
@@ -9217,7 +9237,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9225,7 +9245,7 @@
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F64" t="s" s="2">
         <v>83</v>
@@ -9240,26 +9260,20 @@
         <v>77</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>252</v>
+        <v>448</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>462</v>
-      </c>
+        <v>450</v>
+      </c>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P64" t="s" s="2">
-        <v>463</v>
-      </c>
+      <c r="P64" s="2"/>
       <c r="Q64" t="s" s="2">
         <v>77</v>
       </c>
@@ -9279,13 +9293,13 @@
         <v>77</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>77</v>
+        <v>158</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>77</v>
+        <v>451</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>77</v>
+        <v>452</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>77</v>
@@ -9303,16 +9317,16 @@
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>95</v>
@@ -9321,7 +9335,7 @@
         <v>77</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>77</v>
@@ -9335,7 +9349,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9358,20 +9372,18 @@
         <v>77</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>252</v>
+        <v>168</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>468</v>
-      </c>
+        <v>457</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>77</v>
       </c>
@@ -9395,13 +9407,13 @@
         <v>77</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>77</v>
+        <v>253</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>77</v>
+        <v>456</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>77</v>
+        <v>458</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>77</v>
@@ -9419,7 +9431,7 @@
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>75</v>
@@ -9428,7 +9440,7 @@
         <v>83</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>95</v>
@@ -9437,7 +9449,7 @@
         <v>77</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>77</v>
@@ -9451,7 +9463,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9474,22 +9486,24 @@
         <v>77</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>471</v>
+        <v>260</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P66" s="2"/>
+      <c r="P66" t="s" s="2">
+        <v>464</v>
+      </c>
       <c r="Q66" t="s" s="2">
         <v>77</v>
       </c>
@@ -9533,7 +9547,7 @@
         <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>75</v>
@@ -9542,7 +9556,7 @@
         <v>83</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>95</v>
@@ -9551,7 +9565,7 @@
         <v>77</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>77</v>
@@ -9560,12 +9574,12 @@
         <v>77</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>183</v>
+        <v>77</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9588,22 +9602,26 @@
         <v>77</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>477</v>
+        <v>260</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="N67" s="2"/>
+        <v>469</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>470</v>
+      </c>
       <c r="O67" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P67" s="2"/>
+      <c r="P67" t="s" s="2">
+        <v>471</v>
+      </c>
       <c r="Q67" t="s" s="2">
         <v>77</v>
       </c>
@@ -9647,7 +9665,7 @@
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>75</v>
@@ -9656,7 +9674,7 @@
         <v>83</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>481</v>
+        <v>465</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>95</v>
@@ -9665,7 +9683,7 @@
         <v>77</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>77</v>
@@ -9679,7 +9697,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9690,7 +9708,7 @@
         <v>75</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>77</v>
@@ -9702,18 +9720,20 @@
         <v>77</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>354</v>
+        <v>260</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>475</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>476</v>
+      </c>
       <c r="O68" t="s" s="2">
         <v>77</v>
       </c>
@@ -9761,16 +9781,16 @@
         <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>95</v>
@@ -9779,7 +9799,7 @@
         <v>77</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>77</v>
@@ -9793,7 +9813,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9816,15 +9836,17 @@
         <v>77</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>85</v>
+        <v>479</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>97</v>
+        <v>480</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="M69" s="2"/>
+        <v>481</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>482</v>
+      </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>77</v>
@@ -9873,7 +9895,7 @@
         <v>77</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>99</v>
+        <v>478</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>75</v>
@@ -9882,16 +9904,16 @@
         <v>83</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>77</v>
+        <v>483</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>100</v>
+        <v>428</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>77</v>
@@ -9900,23 +9922,23 @@
         <v>77</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>77</v>
+        <v>191</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>77</v>
@@ -9928,16 +9950,16 @@
         <v>77</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>103</v>
+        <v>485</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>104</v>
+        <v>486</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>105</v>
+        <v>487</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>106</v>
+        <v>488</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -9987,25 +10009,25 @@
         <v>77</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>110</v>
+        <v>484</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>77</v>
+        <v>489</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>100</v>
+        <v>428</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>77</v>
@@ -10019,11 +10041,11 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>381</v>
+        <v>77</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -10036,26 +10058,24 @@
         <v>77</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>103</v>
+        <v>362</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>382</v>
+        <v>491</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>383</v>
+        <v>492</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>493</v>
+      </c>
+      <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>77</v>
       </c>
@@ -10103,7 +10123,7 @@
         <v>77</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>384</v>
+        <v>490</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>75</v>
@@ -10112,16 +10132,16 @@
         <v>76</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>77</v>
+        <v>489</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>183</v>
+        <v>428</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>77</v>
@@ -10135,7 +10155,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10143,7 +10163,7 @@
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F72" t="s" s="2">
         <v>83</v>
@@ -10158,17 +10178,15 @@
         <v>77</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>490</v>
+        <v>85</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>491</v>
+        <v>97</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>493</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="M72" s="2"/>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>77</v>
@@ -10193,13 +10211,13 @@
         <v>77</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>150</v>
+        <v>77</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>443</v>
+        <v>77</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>444</v>
+        <v>77</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>77</v>
@@ -10217,10 +10235,10 @@
         <v>77</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>489</v>
+        <v>99</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>83</v>
@@ -10229,13 +10247,13 @@
         <v>77</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>420</v>
+        <v>100</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>77</v>
@@ -10249,18 +10267,18 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>77</v>
@@ -10272,24 +10290,22 @@
         <v>77</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>252</v>
+        <v>103</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>495</v>
+        <v>104</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>496</v>
+        <v>105</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>497</v>
+        <v>106</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P73" t="s" s="2">
-        <v>498</v>
-      </c>
+      <c r="P73" s="2"/>
       <c r="Q73" t="s" s="2">
         <v>77</v>
       </c>
@@ -10333,25 +10349,25 @@
         <v>77</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>494</v>
+        <v>110</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>420</v>
+        <v>100</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>77</v>
@@ -10365,11 +10381,11 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>77</v>
+        <v>389</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -10382,25 +10398,25 @@
         <v>77</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>354</v>
+        <v>103</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>500</v>
+        <v>390</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>501</v>
+        <v>391</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>502</v>
+        <v>106</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>503</v>
+        <v>204</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>77</v>
@@ -10449,7 +10465,7 @@
         <v>77</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>499</v>
+        <v>392</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>75</v>
@@ -10458,16 +10474,16 @@
         <v>76</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>504</v>
+        <v>77</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>420</v>
+        <v>191</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>77</v>
@@ -10481,7 +10497,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10489,7 +10505,7 @@
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F75" t="s" s="2">
         <v>83</v>
@@ -10504,15 +10520,17 @@
         <v>77</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>85</v>
+        <v>498</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>97</v>
+        <v>499</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="M75" s="2"/>
+        <v>500</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>501</v>
+      </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>77</v>
@@ -10537,13 +10555,13 @@
         <v>77</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>77</v>
+        <v>158</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>77</v>
+        <v>451</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>77</v>
+        <v>452</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>77</v>
@@ -10561,10 +10579,10 @@
         <v>77</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>99</v>
+        <v>497</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>83</v>
@@ -10573,13 +10591,13 @@
         <v>77</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>100</v>
+        <v>428</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>77</v>
@@ -10593,18 +10611,18 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>77</v>
@@ -10616,22 +10634,24 @@
         <v>77</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>103</v>
+        <v>260</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>104</v>
+        <v>503</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>105</v>
+        <v>504</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>106</v>
+        <v>505</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P76" s="2"/>
+      <c r="P76" t="s" s="2">
+        <v>506</v>
+      </c>
       <c r="Q76" t="s" s="2">
         <v>77</v>
       </c>
@@ -10675,25 +10695,25 @@
         <v>77</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>110</v>
+        <v>502</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>100</v>
+        <v>428</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>77</v>
@@ -10711,7 +10731,7 @@
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>381</v>
+        <v>77</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -10724,25 +10744,25 @@
         <v>77</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>103</v>
+        <v>362</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>382</v>
+        <v>508</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>383</v>
+        <v>509</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>106</v>
+        <v>510</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>196</v>
+        <v>511</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>77</v>
@@ -10791,7 +10811,7 @@
         <v>77</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>384</v>
+        <v>507</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>75</v>
@@ -10800,16 +10820,16 @@
         <v>76</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>77</v>
+        <v>512</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>183</v>
+        <v>428</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>77</v>
@@ -10823,7 +10843,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10831,7 +10851,7 @@
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F78" t="s" s="2">
         <v>83</v>
@@ -10846,17 +10866,15 @@
         <v>77</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>509</v>
+        <v>85</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>510</v>
+        <v>97</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>512</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="M78" s="2"/>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>77</v>
@@ -10881,13 +10899,13 @@
         <v>77</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>150</v>
+        <v>77</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>443</v>
+        <v>77</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>444</v>
+        <v>77</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>77</v>
@@ -10905,10 +10923,10 @@
         <v>77</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>508</v>
+        <v>99</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>83</v>
@@ -10917,13 +10935,13 @@
         <v>77</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>420</v>
+        <v>100</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>77</v>
@@ -10937,11 +10955,11 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -10960,20 +10978,18 @@
         <v>77</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>514</v>
+        <v>104</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>515</v>
+        <v>105</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>517</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>77</v>
       </c>
@@ -11021,7 +11037,7 @@
         <v>77</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>513</v>
+        <v>110</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>75</v>
@@ -11030,29 +11046,375 @@
         <v>76</v>
       </c>
       <c r="AH79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" hidden="true">
+      <c r="A80" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P80" s="2"/>
+      <c r="Q80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="81" hidden="true">
+      <c r="A81" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="K81" t="s" s="2">
         <v>518</v>
       </c>
-      <c r="AI79" t="s" s="2">
+      <c r="L81" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="N81" s="2"/>
+      <c r="O81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P81" s="2"/>
+      <c r="Q81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI81" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="AJ79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN79" t="s" s="2">
+      <c r="AJ81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="82" hidden="true">
+      <c r="A82" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="O82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P82" s="2"/>
+      <c r="Q82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN82" t="s" s="2">
         <v>77</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN79">
+  <autoFilter ref="A1:AN82">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11062,7 +11424,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI78">
+  <conditionalFormatting sqref="A2:AI81">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-questionnaire-s37.xlsx
+++ b/StructureDefinition-questionnaire-s37.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$82</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$71</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3004" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2611" uniqueCount="479">
   <si>
     <t>Property</t>
   </si>
@@ -311,821 +311,649 @@
 </t>
   </si>
   <si>
-    <t>Questionnaire.meta.id</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Questionnaire.meta.extension</t>
+    <t>Questionnaire.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>Questionnaire.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>Questionnaire.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Questionnaire.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Questionnaire.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>settings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://science37.com/StructureDefinition/form-settings}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension : Form Settings </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension : Questionnaire.settings </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>Questionnaire.modifierExtension</t>
   </si>
   <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Questionnaire.url</t>
+  </si>
+  <si>
+    <t>Canonical identifier for this questionnaire, represented as a URI (globally unique)</t>
+  </si>
+  <si>
+    <t>An absolute URI that is used to identify this questionnaire when it is referenced in a specification, model, design or an instance; also called its canonical identifier. This SHOULD be globally unique and SHOULD be a literal address at which at which an authoritative instance of this questionnaire is (or will be) published. This URL can be the target of a canonical reference. It SHALL remain the same when the questionnaire is stored on different servers.</t>
+  </si>
+  <si>
+    <t>The name of the referenced questionnaire can be conveyed using the http://hl7.org/fhir/StructureDefinition/display extension.</t>
+  </si>
+  <si>
+    <t>…  This is the id that will be used to link a QuestionnaireResponse to the Questionnaire the response is for.</t>
+  </si>
+  <si>
+    <t>Definition.url</t>
+  </si>
+  <si>
+    <t>.identifier[scope=BUSN;reliability=ISS]</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>Questionnaire.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
 </t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
+    <t>Additional identifier for the questionnaire</t>
+  </si>
+  <si>
+    <t>A formal identifier that is used to identify this questionnaire when it is represented in other formats, or referenced in a specification, model, design or an instance.</t>
+  </si>
+  <si>
+    <t>Typically, this is used for identifiers that can go in an HL7 V3 II (instance identifier) data type, and can then identify this questionnaire outside of FHIR, where it is not possible to use the logical URI.</t>
+  </si>
+  <si>
+    <t>Allows externally provided and/or usable business identifiers to be easily associated with the module.</t>
+  </si>
+  <si>
+    <t>Definition.identifier</t>
+  </si>
+  <si>
+    <t>.identifier</t>
+  </si>
+  <si>
+    <t>no-gen-base</t>
+  </si>
+  <si>
+    <t>Questionnaire.version</t>
+  </si>
+  <si>
+    <t>Business version of the questionnaire</t>
+  </si>
+  <si>
+    <t>The identifier that is used to identify this version of the questionnaire when it is referenced in a specification, model, design or instance. This is an arbitrary value managed by the questionnaire author and is not expected to be globally unique. For example, it might be a timestamp (e.g. yyyymmdd) if a managed version is not available. There is also no expectation that versions can be placed in a lexicographical sequence.</t>
+  </si>
+  <si>
+    <t>There may be different questionnaire instances that have the same identifier but different versions.  The version can be appended to the url in a reference to allow a reference to a particular business version of the questionnaire with the format [url]|[version].</t>
+  </si>
+  <si>
+    <t>Definition.version</t>
+  </si>
+  <si>
+    <t>N/A (to add?)</t>
+  </si>
+  <si>
+    <t>FiveWs.version</t>
+  </si>
+  <si>
+    <t>Questionnaire.name</t>
+  </si>
+  <si>
+    <t>Name for this questionnaire (computer friendly)</t>
+  </si>
+  <si>
+    <t>A natural language name identifying the questionnaire. This name should be usable as an identifier for the module by machine processing applications such as code generation.</t>
+  </si>
+  <si>
+    <t>The name is not expected to be globally unique. The name should be a simple alphanumeric type name to ensure that it is machine-processing friendly.</t>
+  </si>
+  <si>
+    <t>Support human navigation and code generation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inv-0
 </t>
   </si>
   <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Questionnaire.meta.versionId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id
+    <t>Questionnaire.title</t>
+  </si>
+  <si>
+    <t>Name for this questionnaire (human friendly)</t>
+  </si>
+  <si>
+    <t>A short, descriptive, user-friendly title for the questionnaire.</t>
+  </si>
+  <si>
+    <t>This name does not need to be machine-processing friendly and may contain punctuation, white-space, etc.</t>
+  </si>
+  <si>
+    <t>Definition.title</t>
+  </si>
+  <si>
+    <t>.title</t>
+  </si>
+  <si>
+    <t>Questionnaire.derivedFrom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">canonical(Questionnaire)
 </t>
   </si>
   <si>
-    <t>Version specific identifier</t>
-  </si>
-  <si>
-    <t>The version specific identifier, as it appears in the version portion of the URL. This value changes when the resource is created, updated, or deleted.</t>
-  </si>
-  <si>
-    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
-  </si>
-  <si>
-    <t>Meta.versionId</t>
-  </si>
-  <si>
-    <t>Questionnaire.meta.versionId.id</t>
-  </si>
-  <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references)</t>
-  </si>
-  <si>
-    <t>Questionnaire.meta.versionId.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Questionnaire.meta.versionId.value</t>
-  </si>
-  <si>
-    <t>Primitive value for id</t>
-  </si>
-  <si>
-    <t>1.0.0a-S37</t>
-  </si>
-  <si>
-    <t>string.value</t>
-  </si>
-  <si>
-    <t>Questionnaire.meta.lastUpdated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instant
+    <t>Instantiates protocol or definition</t>
+  </si>
+  <si>
+    <t>The URL of a Questionnaire that this Questionnaire is based on.</t>
+  </si>
+  <si>
+    <t>Allows a Questionnaire to be created based on another Questionnaire.</t>
+  </si>
+  <si>
+    <t>Definition.derivedFrom</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=DRIV].target[classCode=OBS, moodCode=DEFN]</t>
+  </si>
+  <si>
+    <t>Questionnaire.status</t>
+  </si>
+  <si>
+    <t>draft | active | retired | unknown</t>
+  </si>
+  <si>
+    <t>The status of this questionnaire. Enables tracking the life-cycle of the content.</t>
+  </si>
+  <si>
+    <t>Allows filtering of questionnaires that are appropriate for use versus not.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>The lifecycle status of an artifact.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/publication-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Definition.status</t>
+  </si>
+  <si>
+    <t>.status</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>Questionnaire.experimental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
 </t>
   </si>
   <si>
-    <t>When the resource version last changed</t>
-  </si>
-  <si>
-    <t>When the resource last changed - e.g. when the version changed.</t>
-  </si>
-  <si>
-    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant. This is equivalent to the HTTP Last-Modified and SHOULD have the same value on a [read](http://hl7.org/fhir/R4/http.html#read) interaction.</t>
-  </si>
-  <si>
-    <t>Meta.lastUpdated</t>
-  </si>
-  <si>
-    <t>Questionnaire.meta.source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
+    <t>For testing purposes, not real usage</t>
+  </si>
+  <si>
+    <t>A Boolean value to indicate that this questionnaire is authored for testing purposes (or education/evaluation/marketing) and is not intended to be used for genuine usage.</t>
+  </si>
+  <si>
+    <t>Enables experimental content to be developed following the same lifecycle that would be used for a production-level questionnaire.</t>
+  </si>
+  <si>
+    <t>Definition.experimental</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>Questionnaire.subjectType</t>
+  </si>
+  <si>
+    <t>Resource that can be subject of QuestionnaireResponse</t>
+  </si>
+  <si>
+    <t>The types of subjects that can be the subject of responses created for the questionnaire.</t>
+  </si>
+  <si>
+    <t>If none are specified, then the subject is unlimited.</t>
+  </si>
+  <si>
+    <t>One of the resource types defined as part of this version of FHIR.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
+  </si>
+  <si>
+    <t>Definition.subject[x]</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=META].target[classCode=OBS, moodCode=DEFN, isCriterion=true].participation.role.classCode</t>
+  </si>
+  <si>
+    <t>Questionnaire.date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revision Date
 </t>
   </si>
   <si>
-    <t>Identifies where the resource comes from</t>
-  </si>
-  <si>
-    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](http://hl7.org/fhir/R4/provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
-  </si>
-  <si>
-    <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
-This element can be used to indicate where the current master source of a resource that has a canonical URL if the resource is no longer hosted at the canonical URL.</t>
-  </si>
-  <si>
-    <t>Meta.source</t>
-  </si>
-  <si>
-    <t>Questionnaire.meta.profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">canonical(StructureDefinition)
+    <t xml:space="preserve">dateTime
 </t>
   </si>
   <si>
-    <t>Profiles this resource claims to conform to</t>
-  </si>
-  <si>
-    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
-  </si>
-  <si>
-    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
-  </si>
-  <si>
-    <t>Meta.profile</t>
-  </si>
-  <si>
-    <t>Questionnaire.meta.security</t>
+    <t>Date last changed</t>
+  </si>
+  <si>
+    <t>The date  (and optionally time) when the questionnaire was published. The date must change when the business version changes and it must change if the status code changes. In addition, it should change when the substantive content of the questionnaire changes.</t>
+  </si>
+  <si>
+    <t>Note that this is not the same as the resource last-modified-date, since the resource may be a secondary representation of the questionnaire. Additional specific dates may be added as extensions or be found by consulting Provenances associated with past versions of the resource.</t>
+  </si>
+  <si>
+    <t>Definition.date</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=AUT].time</t>
+  </si>
+  <si>
+    <t>FiveWs.recorded</t>
+  </si>
+  <si>
+    <t>Questionnaire.publisher</t>
+  </si>
+  <si>
+    <t>Name of the publisher (organization or individual)</t>
+  </si>
+  <si>
+    <t>The name of the organization or individual that published the questionnaire.</t>
+  </si>
+  <si>
+    <t>Usually an organization but may be an individual. The publisher (or steward) of the questionnaire is the organization or individual primarily responsible for the maintenance and upkeep of the questionnaire. This is not necessarily the same individual or organization that developed and initially authored the content. The publisher is the primary point of contact for questions or issues with the questionnaire. This item SHOULD be populated unless the information is available from context.</t>
+  </si>
+  <si>
+    <t>Helps establish the "authority/credibility" of the questionnaire.  May also allow for contact.</t>
+  </si>
+  <si>
+    <t>Definition.publisher</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=AUT].role</t>
+  </si>
+  <si>
+    <t>FiveWs.witness</t>
+  </si>
+  <si>
+    <t>Questionnaire.contact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ContactDetail
+</t>
+  </si>
+  <si>
+    <t>Contact details for the publisher</t>
+  </si>
+  <si>
+    <t>Contact details to assist a user in finding and communicating with the publisher.</t>
+  </si>
+  <si>
+    <t>May be a web site, an email address, a telephone number, etc.</t>
+  </si>
+  <si>
+    <t>Definition.contact</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=CALLBCK].role</t>
+  </si>
+  <si>
+    <t>Questionnaire.description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">markdown
+</t>
+  </si>
+  <si>
+    <t>Natural language description of the questionnaire</t>
+  </si>
+  <si>
+    <t>A free text natural language description of the questionnaire from a consumer's perspective.</t>
+  </si>
+  <si>
+    <t>This description can be used to capture details such as why the questionnaire was built, comments about misuse, instructions for clinical use and interpretation, literature references, examples from the paper world, etc. It is not a rendering of the questionnaire as conveyed in the 'text' field of the resource itself. This item SHOULD be populated unless the information is available from context (e.g. the language of the questionnaire is presumed to be the predominant language in the place the questionnaire was created).</t>
+  </si>
+  <si>
+    <t>Definition.description</t>
+  </si>
+  <si>
+    <t>.text</t>
+  </si>
+  <si>
+    <t>Questionnaire.useContext</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UsageContext
+</t>
+  </si>
+  <si>
+    <t>The context that the content is intended to support</t>
+  </si>
+  <si>
+    <t>The content was developed with a focus and intent of supporting the contexts that are listed. These contexts may be general categories (gender, age, ...) or may be references to specific programs (insurance plans, studies, ...) and may be used to assist with indexing and searching for appropriate questionnaire instances.</t>
+  </si>
+  <si>
+    <t>When multiple useContexts are specified, there is no expectation that all or any of the contexts apply.</t>
+  </si>
+  <si>
+    <t>Assist in searching for appropriate content.</t>
+  </si>
+  <si>
+    <t>Definition.useContext</t>
+  </si>
+  <si>
+    <t>Questionnaire.jurisdiction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Intended jurisdiction for questionnaire (if applicable)</t>
+  </si>
+  <si>
+    <t>A legal or geographic region in which the questionnaire is intended to be used.</t>
+  </si>
+  <si>
+    <t>It may be possible for the questionnaire to be used in jurisdictions other than those for which it was originally designed or intended.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Countries and regions within which this artifact is targeted for use.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/jurisdiction</t>
+  </si>
+  <si>
+    <t>Definition.jurisdiction</t>
+  </si>
+  <si>
+    <t>Questionnaire.purpose</t>
+  </si>
+  <si>
+    <t>Why this questionnaire is defined</t>
+  </si>
+  <si>
+    <t>Explanation of why this questionnaire is needed and why it has been designed as it has.</t>
+  </si>
+  <si>
+    <t>This element does not describe the usage of the questionnaire. Instead, it provides traceability of ''why'' the resource is either needed or ''why'' it is defined as it is.  This may be used to point to source materials or specifications that drove the structure of this questionnaire.</t>
+  </si>
+  <si>
+    <t>Definition.purpose</t>
+  </si>
+  <si>
+    <t>.reasonCode.text</t>
+  </si>
+  <si>
+    <t>FiveWs.why[x]</t>
+  </si>
+  <si>
+    <t>Questionnaire.copyright</t>
+  </si>
+  <si>
+    <t>License
+Restrictions</t>
+  </si>
+  <si>
+    <t>Use and/or publishing restrictions</t>
+  </si>
+  <si>
+    <t>A copyright statement relating to the questionnaire and/or its contents. Copyright statements are generally legal restrictions on the use and publishing of the questionnaire.</t>
+  </si>
+  <si>
+    <t>Consumers must be able to determine any legal restrictions on the use of the questionnaire and/or its content.</t>
+  </si>
+  <si>
+    <t>Definition.copyright</t>
+  </si>
+  <si>
+    <t>Questionnaire.approvalDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date
+</t>
+  </si>
+  <si>
+    <t>When the questionnaire was approved by publisher</t>
+  </si>
+  <si>
+    <t>The date on which the resource content was approved by the publisher. Approval happens once when the content is officially approved for usage.</t>
+  </si>
+  <si>
+    <t>The 'date' element may be more recent than the approval date because of minor changes or editorial corrections.</t>
+  </si>
+  <si>
+    <t>Definition.approvalDate</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode="SUBJ"].act[classCode=CACT;moodCode=EVN;code="approval"].effectiveTime</t>
+  </si>
+  <si>
+    <t>Questionnaire.lastReviewDate</t>
+  </si>
+  <si>
+    <t>When the questionnaire was last reviewed</t>
+  </si>
+  <si>
+    <t>The date on which the resource content was last reviewed. Review happens periodically after approval but does not change the original approval date.</t>
+  </si>
+  <si>
+    <t>If specified, this date follows the original approval date.</t>
+  </si>
+  <si>
+    <t>Gives a sense of how "current" the content is.  Resources that have not been reviewed in a long time may have a risk of being less appropriate/relevant.</t>
+  </si>
+  <si>
+    <t>Definition.lastReviewDate</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode="SUBJ"; subsetCode="RECENT"].act[classCode=CACT;moodCode=EVN;code="review"].effectiveTime</t>
+  </si>
+  <si>
+    <t>Questionnaire.effectivePeriod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>When the questionnaire is expected to be used</t>
+  </si>
+  <si>
+    <t>The period during which the questionnaire content was or is planned to be in active use.</t>
+  </si>
+  <si>
+    <t>The effective period for a questionnaire  determines when the content is applicable for usage and is independent of publication and review dates. For example, a measure intended to be used for the year 2016 might be published in 2015.</t>
+  </si>
+  <si>
+    <t>Allows establishing a transition before a resource comes into effect and also allows for a sunsetting  process when new versions of the questionnaire are or are expected to be used instead.</t>
+  </si>
+  <si>
+    <t>Definition.effectivePeriod</t>
+  </si>
+  <si>
+    <t>Questionnaire.code</t>
   </si>
   <si>
     <t xml:space="preserve">Coding
 </t>
   </si>
   <si>
-    <t>Security Labels applied to this resource</t>
-  </si>
-  <si>
-    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
-  </si>
-  <si>
-    <t>The security labels can be updated without changing the stated version of the resource. The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
-  </si>
-  <si>
-    <t>Meta.security</t>
-  </si>
-  <si>
-    <t>Questionnaire.meta.tag</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
-  </si>
-  <si>
-    <t>The tags can be updated without changing the stated version of the resource. The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+    <t>Concept that represents the overall questionnaire</t>
+  </si>
+  <si>
+    <t>An identifier for this question or group of questions in a particular terminology such as LOINC.</t>
+  </si>
+  <si>
+    <t>Allows linking of the complete Questionnaire resources to formal terminologies.  It's common for "panels" of questions to be identified by a code.</t>
   </si>
   <si>
     <t>example</t>
-  </si>
-  <si>
-    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
-  </si>
-  <si>
-    <t>Meta.tag</t>
-  </si>
-  <si>
-    <t>Questionnaire.implicitRules</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>Questionnaire.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>Questionnaire.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>Questionnaire.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Questionnaire.extension</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>settings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://science37.com/StructureDefinition/form-settings}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension : Form Settings </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension : Questionnaire.settings </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>Questionnaire.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Questionnaire.url</t>
-  </si>
-  <si>
-    <t>Canonical identifier for this questionnaire, represented as a URI (globally unique)</t>
-  </si>
-  <si>
-    <t>An absolute URI that is used to identify this questionnaire when it is referenced in a specification, model, design or an instance; also called its canonical identifier. This SHOULD be globally unique and SHOULD be a literal address at which at which an authoritative instance of this questionnaire is (or will be) published. This URL can be the target of a canonical reference. It SHALL remain the same when the questionnaire is stored on different servers.</t>
-  </si>
-  <si>
-    <t>The name of the referenced questionnaire can be conveyed using the http://hl7.org/fhir/StructureDefinition/display extension.</t>
-  </si>
-  <si>
-    <t>…  This is the id that will be used to link a QuestionnaireResponse to the Questionnaire the response is for.</t>
-  </si>
-  <si>
-    <t>Definition.url</t>
-  </si>
-  <si>
-    <t>.identifier[scope=BUSN;reliability=ISS]</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>Questionnaire.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Additional identifier for the questionnaire</t>
-  </si>
-  <si>
-    <t>A formal identifier that is used to identify this questionnaire when it is represented in other formats, or referenced in a specification, model, design or an instance.</t>
-  </si>
-  <si>
-    <t>Typically, this is used for identifiers that can go in an HL7 V3 II (instance identifier) data type, and can then identify this questionnaire outside of FHIR, where it is not possible to use the logical URI.</t>
-  </si>
-  <si>
-    <t>Allows externally provided and/or usable business identifiers to be easily associated with the module.</t>
-  </si>
-  <si>
-    <t>Definition.identifier</t>
-  </si>
-  <si>
-    <t>.identifier</t>
-  </si>
-  <si>
-    <t>no-gen-base</t>
-  </si>
-  <si>
-    <t>Questionnaire.version</t>
-  </si>
-  <si>
-    <t>Business version of the questionnaire</t>
-  </si>
-  <si>
-    <t>The identifier that is used to identify this version of the questionnaire when it is referenced in a specification, model, design or instance. This is an arbitrary value managed by the questionnaire author and is not expected to be globally unique. For example, it might be a timestamp (e.g. yyyymmdd) if a managed version is not available. There is also no expectation that versions can be placed in a lexicographical sequence.</t>
-  </si>
-  <si>
-    <t>There may be different questionnaire instances that have the same identifier but different versions.  The version can be appended to the url in a reference to allow a reference to a particular business version of the questionnaire with the format [url]|[version].</t>
-  </si>
-  <si>
-    <t>Definition.version</t>
-  </si>
-  <si>
-    <t>N/A (to add?)</t>
-  </si>
-  <si>
-    <t>FiveWs.version</t>
-  </si>
-  <si>
-    <t>Questionnaire.name</t>
-  </si>
-  <si>
-    <t>Name for this questionnaire (computer friendly)</t>
-  </si>
-  <si>
-    <t>A natural language name identifying the questionnaire. This name should be usable as an identifier for the module by machine processing applications such as code generation.</t>
-  </si>
-  <si>
-    <t>The name is not expected to be globally unique. The name should be a simple alphanumeric type name to ensure that it is machine-processing friendly.</t>
-  </si>
-  <si>
-    <t>Support human navigation and code generation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inv-0
-</t>
-  </si>
-  <si>
-    <t>Questionnaire.title</t>
-  </si>
-  <si>
-    <t>Name for this questionnaire (human friendly)</t>
-  </si>
-  <si>
-    <t>A short, descriptive, user-friendly title for the questionnaire.</t>
-  </si>
-  <si>
-    <t>This name does not need to be machine-processing friendly and may contain punctuation, white-space, etc.</t>
-  </si>
-  <si>
-    <t>Definition.title</t>
-  </si>
-  <si>
-    <t>.title</t>
-  </si>
-  <si>
-    <t>Questionnaire.derivedFrom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">canonical(Questionnaire)
-</t>
-  </si>
-  <si>
-    <t>Instantiates protocol or definition</t>
-  </si>
-  <si>
-    <t>The URL of a Questionnaire that this Questionnaire is based on.</t>
-  </si>
-  <si>
-    <t>Allows a Questionnaire to be created based on another Questionnaire.</t>
-  </si>
-  <si>
-    <t>Definition.derivedFrom</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=DRIV].target[classCode=OBS, moodCode=DEFN]</t>
-  </si>
-  <si>
-    <t>Questionnaire.status</t>
-  </si>
-  <si>
-    <t>draft | active | retired | unknown</t>
-  </si>
-  <si>
-    <t>The status of this questionnaire. Enables tracking the life-cycle of the content.</t>
-  </si>
-  <si>
-    <t>Allows filtering of questionnaires that are appropriate for use versus not.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>The lifecycle status of an artifact.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/publication-status|4.0.1</t>
-  </si>
-  <si>
-    <t>Definition.status</t>
-  </si>
-  <si>
-    <t>.status</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>Questionnaire.experimental</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>For testing purposes, not real usage</t>
-  </si>
-  <si>
-    <t>A Boolean value to indicate that this questionnaire is authored for testing purposes (or education/evaluation/marketing) and is not intended to be used for genuine usage.</t>
-  </si>
-  <si>
-    <t>Enables experimental content to be developed following the same lifecycle that would be used for a production-level questionnaire.</t>
-  </si>
-  <si>
-    <t>Definition.experimental</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>Questionnaire.subjectType</t>
-  </si>
-  <si>
-    <t>Resource that can be subject of QuestionnaireResponse</t>
-  </si>
-  <si>
-    <t>The types of subjects that can be the subject of responses created for the questionnaire.</t>
-  </si>
-  <si>
-    <t>If none are specified, then the subject is unlimited.</t>
-  </si>
-  <si>
-    <t>One of the resource types defined as part of this version of FHIR.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
-  </si>
-  <si>
-    <t>Definition.subject[x]</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=META].target[classCode=OBS, moodCode=DEFN, isCriterion=true].participation.role.classCode</t>
-  </si>
-  <si>
-    <t>Questionnaire.date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Revision Date
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
-</t>
-  </si>
-  <si>
-    <t>Date last changed</t>
-  </si>
-  <si>
-    <t>The date  (and optionally time) when the questionnaire was published. The date must change when the business version changes and it must change if the status code changes. In addition, it should change when the substantive content of the questionnaire changes.</t>
-  </si>
-  <si>
-    <t>Note that this is not the same as the resource last-modified-date, since the resource may be a secondary representation of the questionnaire. Additional specific dates may be added as extensions or be found by consulting Provenances associated with past versions of the resource.</t>
-  </si>
-  <si>
-    <t>Definition.date</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=AUT].time</t>
-  </si>
-  <si>
-    <t>FiveWs.recorded</t>
-  </si>
-  <si>
-    <t>Questionnaire.publisher</t>
-  </si>
-  <si>
-    <t>Name of the publisher (organization or individual)</t>
-  </si>
-  <si>
-    <t>The name of the organization or individual that published the questionnaire.</t>
-  </si>
-  <si>
-    <t>Usually an organization but may be an individual. The publisher (or steward) of the questionnaire is the organization or individual primarily responsible for the maintenance and upkeep of the questionnaire. This is not necessarily the same individual or organization that developed and initially authored the content. The publisher is the primary point of contact for questions or issues with the questionnaire. This item SHOULD be populated unless the information is available from context.</t>
-  </si>
-  <si>
-    <t>Helps establish the "authority/credibility" of the questionnaire.  May also allow for contact.</t>
-  </si>
-  <si>
-    <t>Definition.publisher</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=AUT].role</t>
-  </si>
-  <si>
-    <t>FiveWs.witness</t>
-  </si>
-  <si>
-    <t>Questionnaire.contact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ContactDetail
-</t>
-  </si>
-  <si>
-    <t>Contact details for the publisher</t>
-  </si>
-  <si>
-    <t>Contact details to assist a user in finding and communicating with the publisher.</t>
-  </si>
-  <si>
-    <t>May be a web site, an email address, a telephone number, etc.</t>
-  </si>
-  <si>
-    <t>Definition.contact</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=CALLBCK].role</t>
-  </si>
-  <si>
-    <t>Questionnaire.description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">markdown
-</t>
-  </si>
-  <si>
-    <t>Natural language description of the questionnaire</t>
-  </si>
-  <si>
-    <t>A free text natural language description of the questionnaire from a consumer's perspective.</t>
-  </si>
-  <si>
-    <t>This description can be used to capture details such as why the questionnaire was built, comments about misuse, instructions for clinical use and interpretation, literature references, examples from the paper world, etc. It is not a rendering of the questionnaire as conveyed in the 'text' field of the resource itself. This item SHOULD be populated unless the information is available from context (e.g. the language of the questionnaire is presumed to be the predominant language in the place the questionnaire was created).</t>
-  </si>
-  <si>
-    <t>Definition.description</t>
-  </si>
-  <si>
-    <t>.text</t>
-  </si>
-  <si>
-    <t>Questionnaire.useContext</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UsageContext
-</t>
-  </si>
-  <si>
-    <t>The context that the content is intended to support</t>
-  </si>
-  <si>
-    <t>The content was developed with a focus and intent of supporting the contexts that are listed. These contexts may be general categories (gender, age, ...) or may be references to specific programs (insurance plans, studies, ...) and may be used to assist with indexing and searching for appropriate questionnaire instances.</t>
-  </si>
-  <si>
-    <t>When multiple useContexts are specified, there is no expectation that all or any of the contexts apply.</t>
-  </si>
-  <si>
-    <t>Assist in searching for appropriate content.</t>
-  </si>
-  <si>
-    <t>Definition.useContext</t>
-  </si>
-  <si>
-    <t>Questionnaire.jurisdiction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Intended jurisdiction for questionnaire (if applicable)</t>
-  </si>
-  <si>
-    <t>A legal or geographic region in which the questionnaire is intended to be used.</t>
-  </si>
-  <si>
-    <t>It may be possible for the questionnaire to be used in jurisdictions other than those for which it was originally designed or intended.</t>
-  </si>
-  <si>
-    <t>Countries and regions within which this artifact is targeted for use.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/jurisdiction</t>
-  </si>
-  <si>
-    <t>Definition.jurisdiction</t>
-  </si>
-  <si>
-    <t>Questionnaire.purpose</t>
-  </si>
-  <si>
-    <t>Why this questionnaire is defined</t>
-  </si>
-  <si>
-    <t>Explanation of why this questionnaire is needed and why it has been designed as it has.</t>
-  </si>
-  <si>
-    <t>This element does not describe the usage of the questionnaire. Instead, it provides traceability of ''why'' the resource is either needed or ''why'' it is defined as it is.  This may be used to point to source materials or specifications that drove the structure of this questionnaire.</t>
-  </si>
-  <si>
-    <t>Definition.purpose</t>
-  </si>
-  <si>
-    <t>.reasonCode.text</t>
-  </si>
-  <si>
-    <t>FiveWs.why[x]</t>
-  </si>
-  <si>
-    <t>Questionnaire.copyright</t>
-  </si>
-  <si>
-    <t>License
-Restrictions</t>
-  </si>
-  <si>
-    <t>Use and/or publishing restrictions</t>
-  </si>
-  <si>
-    <t>A copyright statement relating to the questionnaire and/or its contents. Copyright statements are generally legal restrictions on the use and publishing of the questionnaire.</t>
-  </si>
-  <si>
-    <t>Consumers must be able to determine any legal restrictions on the use of the questionnaire and/or its content.</t>
-  </si>
-  <si>
-    <t>Definition.copyright</t>
-  </si>
-  <si>
-    <t>Questionnaire.approvalDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date
-</t>
-  </si>
-  <si>
-    <t>When the questionnaire was approved by publisher</t>
-  </si>
-  <si>
-    <t>The date on which the resource content was approved by the publisher. Approval happens once when the content is officially approved for usage.</t>
-  </si>
-  <si>
-    <t>The 'date' element may be more recent than the approval date because of minor changes or editorial corrections.</t>
-  </si>
-  <si>
-    <t>Definition.approvalDate</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode="SUBJ"].act[classCode=CACT;moodCode=EVN;code="approval"].effectiveTime</t>
-  </si>
-  <si>
-    <t>Questionnaire.lastReviewDate</t>
-  </si>
-  <si>
-    <t>When the questionnaire was last reviewed</t>
-  </si>
-  <si>
-    <t>The date on which the resource content was last reviewed. Review happens periodically after approval but does not change the original approval date.</t>
-  </si>
-  <si>
-    <t>If specified, this date follows the original approval date.</t>
-  </si>
-  <si>
-    <t>Gives a sense of how "current" the content is.  Resources that have not been reviewed in a long time may have a risk of being less appropriate/relevant.</t>
-  </si>
-  <si>
-    <t>Definition.lastReviewDate</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode="SUBJ"; subsetCode="RECENT"].act[classCode=CACT;moodCode=EVN;code="review"].effectiveTime</t>
-  </si>
-  <si>
-    <t>Questionnaire.effectivePeriod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>When the questionnaire is expected to be used</t>
-  </si>
-  <si>
-    <t>The period during which the questionnaire content was or is planned to be in active use.</t>
-  </si>
-  <si>
-    <t>The effective period for a questionnaire  determines when the content is applicable for usage and is independent of publication and review dates. For example, a measure intended to be used for the year 2016 might be published in 2015.</t>
-  </si>
-  <si>
-    <t>Allows establishing a transition before a resource comes into effect and also allows for a sunsetting  process when new versions of the questionnaire are or are expected to be used instead.</t>
-  </si>
-  <si>
-    <t>Definition.effectivePeriod</t>
-  </si>
-  <si>
-    <t>Questionnaire.code</t>
-  </si>
-  <si>
-    <t>Concept that represents the overall questionnaire</t>
-  </si>
-  <si>
-    <t>An identifier for this question or group of questions in a particular terminology such as LOINC.</t>
-  </si>
-  <si>
-    <t>Allows linking of the complete Questionnaire resources to formal terminologies.  It's common for "panels" of questions to be identified by a code.</t>
   </si>
   <si>
     <t>Codes for questionnaires, groups and individual questions.</t>
@@ -1167,7 +995,22 @@
     <t>Questionnaire.item.id</t>
   </si>
   <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>Questionnaire.item.extension</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
   </si>
   <si>
     <t>Settings</t>
@@ -1381,6 +1224,12 @@
   </si>
   <si>
     <t>Questionnaire.item.enableWhen.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Questionnaire.item.enableWhen.modifierExtension</t>
@@ -1980,7 +1829,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN82"/>
+  <dimension ref="A1:AN71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2012,11 +1861,11 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="98.61328125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="86.30859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="59.69140625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="45.5390625" customWidth="true" bestFit="true" hidden="true"/>
@@ -2510,21 +2359,23 @@
         <v>77</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="M5" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="M5" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
         <v>77</v>
@@ -2573,7 +2424,7 @@
         <v>77</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>75</v>
@@ -2585,13 +2436,13 @@
         <v>77</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AL5" t="s" s="2">
         <v>77</v>
@@ -2605,18 +2456,18 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>77</v>
@@ -2663,28 +2514,28 @@
         <v>77</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="Z6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="AC6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="AE6" t="s" s="2">
         <v>110</v>
@@ -2693,19 +2544,19 @@
         <v>75</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>77</v>
@@ -2719,11 +2570,11 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -2739,7 +2590,7 @@
         <v>77</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J7" t="s" s="2">
         <v>113</v>
@@ -2819,7 +2670,7 @@
         <v>77</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>77</v>
@@ -2833,18 +2684,18 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>77</v>
+        <v>120</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>77</v>
@@ -2856,15 +2707,17 @@
         <v>77</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="M8" s="2"/>
+        <v>123</v>
+      </c>
+      <c r="M8" t="s" s="2">
+        <v>124</v>
+      </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
         <v>77</v>
@@ -2913,13 +2766,13 @@
         <v>77</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>77</v>
@@ -2931,7 +2784,7 @@
         <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>77</v>
@@ -2945,11 +2798,11 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2968,17 +2821,15 @@
         <v>77</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>106</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>77</v>
@@ -3015,19 +2866,17 @@
         <v>77</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>75</v>
@@ -3039,7 +2888,7 @@
         <v>77</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>77</v>
@@ -3059,9 +2908,11 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="B10" s="2"/>
+        <v>127</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="C10" t="s" s="2">
         <v>77</v>
       </c>
@@ -3082,13 +2933,13 @@
         <v>77</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>85</v>
+        <v>136</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -3100,7 +2951,7 @@
         <v>77</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="S10" t="s" s="2">
         <v>77</v>
@@ -3139,19 +2990,19 @@
         <v>77</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>77</v>
+        <v>139</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>77</v>
@@ -3171,41 +3022,43 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>128</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N11" s="2"/>
+        <v>144</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="O11" t="s" s="2">
         <v>77</v>
       </c>
@@ -3253,25 +3106,25 @@
         <v>77</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>77</v>
@@ -3285,7 +3138,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3308,18 +3161,20 @@
         <v>84</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>134</v>
+        <v>97</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="N12" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="O12" t="s" s="2">
         <v>77</v>
       </c>
@@ -3367,7 +3222,7 @@
         <v>77</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>75</v>
@@ -3382,13 +3237,13 @@
         <v>95</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>77</v>
+        <v>152</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>77</v>
+        <v>153</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>77</v>
+        <v>154</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>77</v>
@@ -3399,7 +3254,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3407,10 +3262,10 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>77</v>
@@ -3422,18 +3277,20 @@
         <v>84</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="N13" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="O13" t="s" s="2">
         <v>77</v>
       </c>
@@ -3481,7 +3338,7 @@
         <v>77</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>75</v>
@@ -3496,24 +3353,24 @@
         <v>95</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>77</v>
+        <v>161</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>77</v>
+        <v>162</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>77</v>
+        <v>154</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>77</v>
+        <v>163</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3521,13 +3378,13 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>77</v>
@@ -3536,16 +3393,16 @@
         <v>84</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>146</v>
+        <v>85</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -3556,7 +3413,7 @@
         <v>77</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>77</v>
+        <v>5</v>
       </c>
       <c r="S14" t="s" s="2">
         <v>77</v>
@@ -3571,13 +3428,13 @@
         <v>77</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>150</v>
+        <v>77</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>151</v>
+        <v>77</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>152</v>
+        <v>77</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>77</v>
@@ -3595,13 +3452,13 @@
         <v>77</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>77</v>
@@ -3610,13 +3467,13 @@
         <v>95</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>77</v>
+        <v>169</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>77</v>
@@ -3627,7 +3484,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3638,7 +3495,7 @@
         <v>75</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>77</v>
@@ -3650,18 +3507,20 @@
         <v>84</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>146</v>
+        <v>85</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="N15" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="O15" t="s" s="2">
         <v>77</v>
       </c>
@@ -3685,13 +3544,13 @@
         <v>77</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>158</v>
+        <v>77</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>159</v>
+        <v>77</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>77</v>
@@ -3709,16 +3568,16 @@
         <v>77</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>77</v>
+        <v>176</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>95</v>
@@ -3727,7 +3586,7 @@
         <v>77</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>77</v>
@@ -3741,7 +3600,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3758,22 +3617,22 @@
         <v>77</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>84</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>134</v>
+        <v>85</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3823,7 +3682,7 @@
         <v>77</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>75</v>
@@ -3838,10 +3697,10 @@
         <v>95</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>77</v>
+        <v>181</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>77</v>
+        <v>182</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>77</v>
@@ -3855,7 +3714,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3866,7 +3725,7 @@
         <v>75</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>77</v>
@@ -3878,18 +3737,18 @@
         <v>77</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="N17" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="O17" t="s" s="2">
         <v>77</v>
       </c>
@@ -3913,13 +3772,13 @@
         <v>77</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>172</v>
+        <v>77</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>173</v>
+        <v>77</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>174</v>
+        <v>77</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>77</v>
@@ -3937,13 +3796,13 @@
         <v>77</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>77</v>
@@ -3952,10 +3811,10 @@
         <v>95</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>77</v>
+        <v>188</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>77</v>
+        <v>189</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>77</v>
@@ -3967,41 +3826,41 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>177</v>
+        <v>77</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>178</v>
+        <v>103</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -4027,13 +3886,13 @@
         <v>77</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>77</v>
+        <v>194</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>77</v>
+        <v>195</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>77</v>
+        <v>196</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>77</v>
@@ -4051,10 +3910,10 @@
         <v>77</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>83</v>
@@ -4066,13 +3925,13 @@
         <v>95</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>77</v>
+        <v>197</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>77</v>
+        <v>199</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>77</v>
@@ -4083,18 +3942,18 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>185</v>
+        <v>77</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>77</v>
@@ -4103,21 +3962,23 @@
         <v>77</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>193</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="O19" t="s" s="2">
         <v>77</v>
       </c>
@@ -4165,28 +4026,28 @@
         <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>77</v>
+        <v>205</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>191</v>
+        <v>126</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>77</v>
+        <v>206</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>77</v>
@@ -4197,7 +4058,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4217,18 +4078,20 @@
         <v>77</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>103</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="M20" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>210</v>
+      </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>77</v>
@@ -4253,29 +4116,31 @@
         <v>77</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>77</v>
+        <v>194</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>77</v>
+        <v>211</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>77</v>
+        <v>212</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AB20" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AC20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>75</v>
@@ -4287,13 +4152,13 @@
         <v>77</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>77</v>
+        <v>213</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>77</v>
+        <v>214</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>77</v>
@@ -4307,13 +4172,11 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>77</v>
+        <v>216</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -4329,18 +4192,20 @@
         <v>77</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="M21" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>220</v>
+      </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>77</v>
@@ -4389,28 +4254,28 @@
         <v>77</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>77</v>
+        <v>221</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>77</v>
+        <v>222</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>77</v>
+        <v>223</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>77</v>
@@ -4421,42 +4286,42 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I22" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="I22" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="J22" t="s" s="2">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>106</v>
+        <v>227</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>77</v>
@@ -4505,28 +4370,28 @@
         <v>77</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>77</v>
+        <v>229</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>191</v>
+        <v>230</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>77</v>
+        <v>231</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>77</v>
@@ -4537,7 +4402,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4548,7 +4413,7 @@
         <v>75</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>77</v>
@@ -4560,20 +4425,18 @@
         <v>84</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>134</v>
+        <v>233</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>210</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>77</v>
       </c>
@@ -4621,13 +4484,13 @@
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>77</v>
@@ -4636,13 +4499,13 @@
         <v>95</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>211</v>
+        <v>237</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>212</v>
+        <v>238</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>213</v>
+        <v>77</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>77</v>
@@ -4653,7 +4516,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4661,7 +4524,7 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>83</v>
@@ -4673,23 +4536,21 @@
         <v>77</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>219</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>77</v>
       </c>
@@ -4737,13 +4598,13 @@
         <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>77</v>
@@ -4752,16 +4613,16 @@
         <v>95</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>213</v>
+        <v>77</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>222</v>
+        <v>77</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>77</v>
@@ -4769,7 +4630,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4780,7 +4641,7 @@
         <v>75</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>77</v>
@@ -4792,18 +4653,20 @@
         <v>84</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>85</v>
+        <v>247</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>251</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>77</v>
       </c>
@@ -4851,13 +4714,13 @@
         <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>77</v>
@@ -4866,13 +4729,13 @@
         <v>95</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>228</v>
+        <v>169</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>229</v>
+        <v>77</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>77</v>
@@ -4883,7 +4746,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4894,7 +4757,7 @@
         <v>75</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>77</v>
@@ -4906,20 +4769,18 @@
         <v>84</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>85</v>
+        <v>254</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>77</v>
       </c>
@@ -4943,13 +4804,13 @@
         <v>77</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>77</v>
+        <v>258</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>77</v>
+        <v>259</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>77</v>
+        <v>260</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>77</v>
@@ -4967,25 +4828,25 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>235</v>
+        <v>77</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>95</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>77</v>
+        <v>261</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>77</v>
@@ -4999,7 +4860,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>236</v>
+        <v>262</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5019,19 +4880,19 @@
         <v>77</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>85</v>
+        <v>240</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>237</v>
+        <v>263</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>238</v>
+        <v>264</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>239</v>
+        <v>265</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -5081,7 +4942,7 @@
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>236</v>
+        <v>262</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>75</v>
@@ -5096,16 +4957,16 @@
         <v>95</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>241</v>
+        <v>267</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>77</v>
+        <v>268</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>77</v>
+        <v>163</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>77</v>
@@ -5113,18 +4974,18 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>242</v>
+        <v>269</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>77</v>
+        <v>270</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>77</v>
@@ -5136,17 +4997,17 @@
         <v>77</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>244</v>
+        <v>271</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>77</v>
@@ -5195,13 +5056,13 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>242</v>
+        <v>269</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>77</v>
@@ -5210,24 +5071,24 @@
         <v>95</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>248</v>
+        <v>169</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>77</v>
+        <v>163</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>249</v>
+        <v>275</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5235,31 +5096,31 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>168</v>
+        <v>276</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5285,13 +5146,13 @@
         <v>77</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>253</v>
+        <v>77</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>254</v>
+        <v>77</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>255</v>
+        <v>77</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>77</v>
@@ -5309,10 +5170,10 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>249</v>
+        <v>275</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>83</v>
@@ -5324,16 +5185,16 @@
         <v>95</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>256</v>
+        <v>280</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>257</v>
+        <v>281</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>258</v>
+        <v>77</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>77</v>
+        <v>163</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -5341,7 +5202,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5361,22 +5222,22 @@
         <v>77</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>261</v>
+        <v>283</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>262</v>
+        <v>284</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>252</v>
+        <v>285</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>263</v>
+        <v>286</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>77</v>
@@ -5425,7 +5286,7 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>75</v>
@@ -5440,16 +5301,16 @@
         <v>95</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>191</v>
+        <v>288</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>265</v>
+        <v>77</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>77</v>
+        <v>163</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>77</v>
@@ -5457,7 +5318,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>266</v>
+        <v>289</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5468,7 +5329,7 @@
         <v>75</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>77</v>
@@ -5480,18 +5341,20 @@
         <v>84</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>168</v>
+        <v>290</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>267</v>
+        <v>291</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>268</v>
+        <v>292</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>293</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>294</v>
+      </c>
       <c r="O31" t="s" s="2">
         <v>77</v>
       </c>
@@ -5515,13 +5378,13 @@
         <v>77</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>253</v>
+        <v>77</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>270</v>
+        <v>77</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>271</v>
+        <v>77</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>77</v>
@@ -5539,13 +5402,13 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>266</v>
+        <v>289</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>77</v>
@@ -5554,16 +5417,16 @@
         <v>95</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>273</v>
+        <v>169</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>77</v>
+        <v>163</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>77</v>
@@ -5571,18 +5434,18 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>274</v>
+        <v>296</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>275</v>
+        <v>77</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>77</v>
@@ -5594,18 +5457,18 @@
         <v>84</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>276</v>
+        <v>297</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>299</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" t="s" s="2">
+        <v>300</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>77</v>
       </c>
@@ -5629,13 +5492,13 @@
         <v>77</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>77</v>
+        <v>301</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>77</v>
+        <v>302</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>77</v>
+        <v>303</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>77</v>
@@ -5653,13 +5516,13 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>274</v>
+        <v>296</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>77</v>
@@ -5668,13 +5531,13 @@
         <v>95</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>280</v>
+        <v>77</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>281</v>
+        <v>304</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>282</v>
+        <v>77</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>77</v>
@@ -5685,7 +5548,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>283</v>
+        <v>305</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5696,7 +5559,7 @@
         <v>75</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>77</v>
@@ -5705,23 +5568,21 @@
         <v>77</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>85</v>
+        <v>306</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>284</v>
+        <v>307</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>285</v>
+        <v>308</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>287</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>77</v>
       </c>
@@ -5769,28 +5630,28 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>283</v>
+        <v>305</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>77</v>
+        <v>310</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>95</v>
+        <v>311</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>288</v>
+        <v>77</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>289</v>
+        <v>312</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>290</v>
+        <v>77</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>77</v>
@@ -5801,7 +5662,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>291</v>
+        <v>313</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5812,7 +5673,7 @@
         <v>75</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>77</v>
@@ -5821,20 +5682,18 @@
         <v>77</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>292</v>
+        <v>85</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>293</v>
+        <v>314</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>295</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>77</v>
@@ -5883,25 +5742,25 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>291</v>
+        <v>316</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>296</v>
+        <v>77</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>297</v>
+        <v>317</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>77</v>
@@ -5915,7 +5774,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>298</v>
+        <v>318</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5926,7 +5785,7 @@
         <v>75</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>77</v>
@@ -5938,17 +5797,15 @@
         <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>299</v>
+        <v>128</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>300</v>
+        <v>129</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>302</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>77</v>
@@ -5985,37 +5842,35 @@
         <v>77</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="AB35" s="2"/>
       <c r="AC35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>298</v>
+        <v>319</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>303</v>
+        <v>77</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>304</v>
+        <v>77</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>77</v>
@@ -6027,11 +5882,13 @@
         <v>77</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="B36" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>320</v>
+      </c>
       <c r="C36" t="s" s="2">
         <v>77</v>
       </c>
@@ -6040,32 +5897,28 @@
         <v>75</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>310</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>77</v>
       </c>
@@ -6113,7 +5966,7 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>75</v>
@@ -6122,16 +5975,16 @@
         <v>76</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>77</v>
+        <v>139</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>311</v>
+        <v>77</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>228</v>
+        <v>77</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>77</v>
@@ -6145,9 +5998,11 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="B37" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>324</v>
+      </c>
       <c r="C37" t="s" s="2">
         <v>77</v>
       </c>
@@ -6156,7 +6011,7 @@
         <v>75</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>77</v>
@@ -6165,19 +6020,19 @@
         <v>77</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6203,13 +6058,13 @@
         <v>77</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>150</v>
+        <v>77</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>317</v>
+        <v>77</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>318</v>
+        <v>77</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>77</v>
@@ -6227,7 +6082,7 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>75</v>
@@ -6236,16 +6091,16 @@
         <v>76</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>77</v>
+        <v>139</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>319</v>
+        <v>77</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>228</v>
+        <v>77</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>77</v>
@@ -6259,9 +6114,11 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="B38" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>329</v>
+      </c>
       <c r="C38" t="s" s="2">
         <v>77</v>
       </c>
@@ -6282,16 +6139,16 @@
         <v>77</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>299</v>
+        <v>330</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6341,31 +6198,31 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>77</v>
+        <v>139</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>324</v>
+        <v>77</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>325</v>
+        <v>77</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>326</v>
+        <v>77</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>222</v>
+        <v>77</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>77</v>
@@ -6373,11 +6230,13 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="B39" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>334</v>
+      </c>
       <c r="C39" t="s" s="2">
-        <v>328</v>
+        <v>77</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -6396,18 +6255,16 @@
         <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>299</v>
+        <v>335</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>330</v>
+        <v>130</v>
       </c>
       <c r="M39" s="2"/>
-      <c r="N39" t="s" s="2">
-        <v>331</v>
-      </c>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>77</v>
       </c>
@@ -6455,31 +6312,31 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>77</v>
+        <v>139</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>332</v>
+        <v>77</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>228</v>
+        <v>77</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>222</v>
+        <v>77</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>77</v>
@@ -6487,41 +6344,43 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>77</v>
+        <v>338</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>334</v>
+        <v>128</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>144</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>77</v>
       </c>
@@ -6569,31 +6428,31 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>338</v>
+        <v>77</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>339</v>
+        <v>126</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>222</v>
+        <v>77</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>77</v>
@@ -6601,7 +6460,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6609,7 +6468,7 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F41" t="s" s="2">
         <v>83</v>
@@ -6624,19 +6483,19 @@
         <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>334</v>
+        <v>85</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>77</v>
@@ -6685,10 +6544,10 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>83</v>
@@ -6700,16 +6559,16 @@
         <v>95</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>345</v>
+        <v>77</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>222</v>
+        <v>77</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>77</v>
@@ -6717,7 +6576,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6737,10 +6596,10 @@
         <v>77</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>348</v>
+        <v>97</v>
       </c>
       <c r="K42" t="s" s="2">
         <v>349</v>
@@ -6801,7 +6660,7 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>75</v>
@@ -6816,16 +6675,16 @@
         <v>95</v>
       </c>
       <c r="AJ42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK42" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="AK42" t="s" s="2">
-        <v>228</v>
-      </c>
       <c r="AL42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>222</v>
+        <v>77</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>77</v>
@@ -6853,10 +6712,10 @@
         <v>77</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>146</v>
+        <v>297</v>
       </c>
       <c r="K43" t="s" s="2">
         <v>355</v>
@@ -6864,9 +6723,11 @@
       <c r="L43" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="M43" s="2"/>
+      <c r="M43" t="s" s="2">
+        <v>357</v>
+      </c>
       <c r="N43" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>77</v>
@@ -6891,13 +6752,13 @@
         <v>77</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>158</v>
+        <v>301</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>358</v>
+        <v>302</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>359</v>
+        <v>303</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>77</v>
@@ -6924,7 +6785,7 @@
         <v>76</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>77</v>
+        <v>310</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>95</v>
@@ -6933,7 +6794,7 @@
         <v>77</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>360</v>
+        <v>304</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>77</v>
@@ -6947,18 +6808,18 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>77</v>
+        <v>360</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>77</v>
@@ -6970,18 +6831,20 @@
         <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="M44" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>77</v>
       </c>
@@ -7029,25 +6892,25 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>366</v>
+        <v>77</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>367</v>
+        <v>95</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>77</v>
@@ -7061,7 +6924,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7087,12 +6950,14 @@
         <v>85</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>97</v>
+        <v>367</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="M45" s="2"/>
+        <v>368</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>369</v>
+      </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>77</v>
@@ -7141,7 +7006,7 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>99</v>
+        <v>366</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>75</v>
@@ -7153,13 +7018,13 @@
         <v>77</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>100</v>
+        <v>245</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>77</v>
@@ -7181,10 +7046,10 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>77</v>
@@ -7199,13 +7064,17 @@
         <v>103</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>193</v>
+        <v>371</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
+        <v>372</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>374</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>77</v>
       </c>
@@ -7229,47 +7098,49 @@
         <v>77</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>77</v>
+        <v>194</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>77</v>
+        <v>375</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>77</v>
+        <v>376</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AB46" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AC46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>110</v>
+        <v>370</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>77</v>
+        <v>377</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>77</v>
@@ -7281,13 +7152,11 @@
         <v>77</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="B47" t="s" s="2">
-        <v>371</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
         <v>77</v>
       </c>
@@ -7296,28 +7165,32 @@
         <v>75</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H47" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="H47" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="I47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>372</v>
+        <v>306</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
+        <v>380</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>382</v>
+      </c>
       <c r="O47" t="s" s="2">
         <v>77</v>
       </c>
@@ -7365,7 +7238,7 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>110</v>
+        <v>378</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>75</v>
@@ -7374,16 +7247,16 @@
         <v>76</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>111</v>
+        <v>383</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>77</v>
+        <v>377</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>77</v>
@@ -7397,11 +7270,9 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="B48" t="s" s="2">
-        <v>375</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
         <v>77</v>
       </c>
@@ -7422,17 +7293,15 @@
         <v>77</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>376</v>
+        <v>85</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>377</v>
+        <v>314</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>379</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>77</v>
@@ -7481,25 +7350,25 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>110</v>
+        <v>316</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>77</v>
+        <v>317</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>77</v>
@@ -7513,20 +7382,18 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="B49" t="s" s="2">
-        <v>380</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>77</v>
@@ -7538,16 +7405,16 @@
         <v>77</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>381</v>
+        <v>128</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>384</v>
+        <v>144</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -7597,7 +7464,7 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>110</v>
+        <v>319</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>75</v>
@@ -7606,16 +7473,16 @@
         <v>76</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>77</v>
+        <v>317</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>77</v>
@@ -7629,41 +7496,43 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="B50" t="s" s="2">
-        <v>385</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>77</v>
+        <v>338</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>386</v>
+        <v>128</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>387</v>
+        <v>339</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>77</v>
       </c>
@@ -7711,7 +7580,7 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>110</v>
+        <v>341</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>75</v>
@@ -7720,16 +7589,16 @@
         <v>76</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>77</v>
@@ -7743,30 +7612,30 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>389</v>
+        <v>77</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="K51" t="s" s="2">
         <v>390</v>
@@ -7775,11 +7644,9 @@
         <v>391</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>204</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>77</v>
       </c>
@@ -7827,25 +7694,25 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>191</v>
+        <v>377</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>77</v>
@@ -7882,7 +7749,7 @@
         <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="K52" t="s" s="2">
         <v>394</v>
@@ -7890,12 +7757,8 @@
       <c r="L52" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="M52" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>397</v>
-      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>77</v>
       </c>
@@ -7919,13 +7782,13 @@
         <v>77</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>77</v>
+        <v>194</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>77</v>
+        <v>396</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>77</v>
+        <v>397</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>77</v>
@@ -7961,7 +7824,7 @@
         <v>77</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>398</v>
+        <v>377</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>77</v>
@@ -7975,7 +7838,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7983,7 +7846,7 @@
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F53" t="s" s="2">
         <v>83</v>
@@ -7998,7 +7861,7 @@
         <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>134</v>
+        <v>399</v>
       </c>
       <c r="K53" t="s" s="2">
         <v>400</v>
@@ -8006,12 +7869,8 @@
       <c r="L53" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="M53" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>403</v>
-      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>77</v>
       </c>
@@ -8035,13 +7894,13 @@
         <v>77</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>77</v>
+        <v>301</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>77</v>
+        <v>402</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>77</v>
+        <v>403</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>77</v>
@@ -8059,16 +7918,16 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>77</v>
+        <v>404</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>95</v>
@@ -8077,7 +7936,7 @@
         <v>77</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>404</v>
+        <v>377</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>77</v>
@@ -8102,7 +7961,7 @@
         <v>75</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>77</v>
@@ -8114,7 +7973,7 @@
         <v>77</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="K54" t="s" s="2">
         <v>406</v>
@@ -8125,9 +7984,7 @@
       <c r="M54" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="N54" t="s" s="2">
-        <v>409</v>
-      </c>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>77</v>
       </c>
@@ -8151,13 +8008,13 @@
         <v>77</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>158</v>
+        <v>194</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>358</v>
+        <v>407</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>359</v>
+        <v>409</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>77</v>
@@ -8181,10 +8038,10 @@
         <v>75</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>366</v>
+        <v>410</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>95</v>
@@ -8193,7 +8050,7 @@
         <v>77</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>77</v>
@@ -8207,11 +8064,11 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>411</v>
+        <v>77</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -8230,7 +8087,7 @@
         <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>85</v>
+        <v>201</v>
       </c>
       <c r="K55" t="s" s="2">
         <v>412</v>
@@ -8241,13 +8098,13 @@
       <c r="M55" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="N55" t="s" s="2">
+      <c r="N55" s="2"/>
+      <c r="O55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P55" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="O55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P55" s="2"/>
       <c r="Q55" t="s" s="2">
         <v>77</v>
       </c>
@@ -8291,7 +8148,7 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>75</v>
@@ -8300,7 +8157,7 @@
         <v>83</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>77</v>
+        <v>416</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>95</v>
@@ -8309,7 +8166,7 @@
         <v>77</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>416</v>
+        <v>377</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>77</v>
@@ -8346,7 +8203,7 @@
         <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>85</v>
+        <v>201</v>
       </c>
       <c r="K56" t="s" s="2">
         <v>418</v>
@@ -8357,11 +8214,15 @@
       <c r="M56" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="N56" s="2"/>
+      <c r="N56" t="s" s="2">
+        <v>421</v>
+      </c>
       <c r="O56" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P56" s="2"/>
+      <c r="P56" t="s" s="2">
+        <v>422</v>
+      </c>
       <c r="Q56" t="s" s="2">
         <v>77</v>
       </c>
@@ -8414,7 +8275,7 @@
         <v>83</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>77</v>
+        <v>416</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>95</v>
@@ -8423,7 +8284,7 @@
         <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>304</v>
+        <v>377</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>77</v>
@@ -8437,7 +8298,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8445,7 +8306,7 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>83</v>
@@ -8460,19 +8321,19 @@
         <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>168</v>
+        <v>201</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>77</v>
@@ -8497,13 +8358,13 @@
         <v>77</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>253</v>
+        <v>77</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>426</v>
+        <v>77</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>427</v>
+        <v>77</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>77</v>
@@ -8521,16 +8382,16 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>77</v>
+        <v>428</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>95</v>
@@ -8539,7 +8400,7 @@
         <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>428</v>
+        <v>377</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
@@ -8564,32 +8425,30 @@
         <v>75</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>362</v>
+        <v>430</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="N58" t="s" s="2">
         <v>433</v>
       </c>
+      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>77</v>
       </c>
@@ -8643,19 +8502,19 @@
         <v>75</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>77</v>
+        <v>434</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>434</v>
+        <v>95</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>428</v>
+        <v>377</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -8664,7 +8523,7 @@
         <v>77</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>77</v>
+        <v>126</v>
       </c>
     </row>
     <row r="59" hidden="true">
@@ -8692,15 +8551,17 @@
         <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>85</v>
+        <v>436</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>97</v>
+        <v>437</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="M59" s="2"/>
+        <v>438</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>439</v>
+      </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>77</v>
@@ -8749,7 +8610,7 @@
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>99</v>
+        <v>435</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>75</v>
@@ -8758,16 +8619,16 @@
         <v>83</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>77</v>
+        <v>440</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>100</v>
+        <v>377</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>77</v>
@@ -8781,11 +8642,11 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -8804,16 +8665,16 @@
         <v>77</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>103</v>
+        <v>306</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>104</v>
+        <v>442</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>105</v>
+        <v>443</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>106</v>
+        <v>444</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -8863,7 +8724,7 @@
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>110</v>
+        <v>441</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>75</v>
@@ -8872,16 +8733,16 @@
         <v>76</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>77</v>
+        <v>440</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>100</v>
+        <v>377</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>77</v>
@@ -8895,43 +8756,39 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>389</v>
+        <v>77</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>390</v>
+        <v>314</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>204</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>77</v>
       </c>
@@ -8979,25 +8836,25 @@
         <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>392</v>
+        <v>316</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>191</v>
+        <v>317</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>77</v>
@@ -9011,18 +8868,18 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>77</v>
@@ -9034,16 +8891,16 @@
         <v>77</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>439</v>
+        <v>386</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>440</v>
+        <v>387</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>441</v>
+        <v>144</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -9093,25 +8950,25 @@
         <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>438</v>
+        <v>319</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>428</v>
+        <v>317</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>77</v>
@@ -9125,39 +8982,43 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>77</v>
+        <v>338</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>168</v>
+        <v>128</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>443</v>
+        <v>339</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="M63" s="2"/>
-      <c r="N63" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="O63" t="s" s="2">
         <v>77</v>
       </c>
@@ -9181,13 +9042,13 @@
         <v>77</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>253</v>
+        <v>77</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>445</v>
+        <v>77</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>446</v>
+        <v>77</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>77</v>
@@ -9205,25 +9066,25 @@
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>442</v>
+        <v>341</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>428</v>
+        <v>126</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>77</v>
@@ -9237,7 +9098,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9260,15 +9121,17 @@
         <v>77</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="M64" s="2"/>
+        <v>451</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>452</v>
+      </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>77</v>
@@ -9293,13 +9156,13 @@
         <v>77</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>158</v>
+        <v>301</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>451</v>
+        <v>402</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>452</v>
+        <v>403</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>77</v>
@@ -9317,7 +9180,7 @@
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>83</v>
@@ -9326,7 +9189,7 @@
         <v>83</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>453</v>
+        <v>77</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>95</v>
@@ -9335,7 +9198,7 @@
         <v>77</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>428</v>
+        <v>377</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>77</v>
@@ -9349,7 +9212,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9372,22 +9235,24 @@
         <v>77</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>168</v>
+        <v>201</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P65" s="2"/>
+      <c r="P65" t="s" s="2">
+        <v>457</v>
+      </c>
       <c r="Q65" t="s" s="2">
         <v>77</v>
       </c>
@@ -9407,13 +9272,13 @@
         <v>77</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>253</v>
+        <v>77</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>456</v>
+        <v>77</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>458</v>
+        <v>77</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>77</v>
@@ -9431,7 +9296,7 @@
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>75</v>
@@ -9440,7 +9305,7 @@
         <v>83</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>459</v>
+        <v>77</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>95</v>
@@ -9449,7 +9314,7 @@
         <v>77</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>428</v>
+        <v>377</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>77</v>
@@ -9463,7 +9328,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9474,7 +9339,7 @@
         <v>75</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>77</v>
@@ -9486,77 +9351,77 @@
         <v>77</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>260</v>
+        <v>306</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="N66" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="M66" t="s" s="2">
+      <c r="O66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P66" s="2"/>
+      <c r="Q66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH66" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="N66" s="2"/>
-      <c r="O66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P66" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="Q66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>465</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>95</v>
@@ -9565,7 +9430,7 @@
         <v>77</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>428</v>
+        <v>377</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>77</v>
@@ -9579,7 +9444,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9602,26 +9467,20 @@
         <v>77</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>260</v>
+        <v>85</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>467</v>
+        <v>314</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>470</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P67" t="s" s="2">
-        <v>471</v>
-      </c>
+      <c r="P67" s="2"/>
       <c r="Q67" t="s" s="2">
         <v>77</v>
       </c>
@@ -9665,7 +9524,7 @@
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>466</v>
+        <v>316</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>75</v>
@@ -9674,16 +9533,16 @@
         <v>83</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>465</v>
+        <v>77</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>428</v>
+        <v>317</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>77</v>
@@ -9697,18 +9556,18 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>77</v>
@@ -9720,20 +9579,18 @@
         <v>77</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>260</v>
+        <v>128</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>473</v>
+        <v>386</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>474</v>
+        <v>387</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>476</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>77</v>
       </c>
@@ -9781,25 +9638,25 @@
         <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>472</v>
+        <v>319</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>477</v>
+        <v>77</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>428</v>
+        <v>317</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>77</v>
@@ -9813,41 +9670,43 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>77</v>
+        <v>338</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>479</v>
+        <v>128</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>480</v>
+        <v>339</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>481</v>
+        <v>340</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>144</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="O69" t="s" s="2">
         <v>77</v>
       </c>
@@ -9895,25 +9754,25 @@
         <v>77</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>478</v>
+        <v>341</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>483</v>
+        <v>77</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>428</v>
+        <v>126</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>77</v>
@@ -9922,12 +9781,12 @@
         <v>77</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>191</v>
+        <v>77</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>484</v>
+        <v>467</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9935,7 +9794,7 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F70" t="s" s="2">
         <v>83</v>
@@ -9950,16 +9809,16 @@
         <v>77</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>485</v>
+        <v>468</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>486</v>
+        <v>469</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>487</v>
+        <v>470</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>488</v>
+        <v>471</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -9985,13 +9844,13 @@
         <v>77</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>77</v>
+        <v>301</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>77</v>
+        <v>402</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>77</v>
+        <v>403</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>77</v>
@@ -10009,16 +9868,16 @@
         <v>77</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>484</v>
+        <v>467</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>489</v>
+        <v>77</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>95</v>
@@ -10027,7 +9886,7 @@
         <v>77</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>428</v>
+        <v>377</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>77</v>
@@ -10041,7 +9900,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>490</v>
+        <v>472</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10064,18 +9923,20 @@
         <v>77</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>362</v>
+        <v>77</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>491</v>
+        <v>473</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>492</v>
+        <v>474</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="N71" s="2"/>
+        <v>475</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>476</v>
+      </c>
       <c r="O71" t="s" s="2">
         <v>77</v>
       </c>
@@ -10123,7 +9984,7 @@
         <v>77</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>490</v>
+        <v>472</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>75</v>
@@ -10132,7 +9993,7 @@
         <v>76</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>95</v>
@@ -10141,7 +10002,7 @@
         <v>77</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>428</v>
+        <v>478</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>77</v>
@@ -10150,1271 +10011,11 @@
         <v>77</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="72" hidden="true">
-      <c r="A72" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="B72" s="2"/>
-      <c r="C72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D72" s="2"/>
-      <c r="E72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F72" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
-      <c r="O72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P72" s="2"/>
-      <c r="Q72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="73" hidden="true">
-      <c r="A73" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="B73" s="2"/>
-      <c r="C73" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="D73" s="2"/>
-      <c r="E73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N73" s="2"/>
-      <c r="O73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P73" s="2"/>
-      <c r="Q73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="74" hidden="true">
-      <c r="A74" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="B74" s="2"/>
-      <c r="C74" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="D74" s="2"/>
-      <c r="E74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P74" s="2"/>
-      <c r="Q74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="75" hidden="true">
-      <c r="A75" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="B75" s="2"/>
-      <c r="C75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D75" s="2"/>
-      <c r="E75" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="F75" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="N75" s="2"/>
-      <c r="O75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P75" s="2"/>
-      <c r="Q75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="76" hidden="true">
-      <c r="A76" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="B76" s="2"/>
-      <c r="C76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D76" s="2"/>
-      <c r="E76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F76" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="N76" s="2"/>
-      <c r="O76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P76" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="Q76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="77" hidden="true">
-      <c r="A77" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="B77" s="2"/>
-      <c r="C77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D77" s="2"/>
-      <c r="E77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P77" s="2"/>
-      <c r="Q77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="78" hidden="true">
-      <c r="A78" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="B78" s="2"/>
-      <c r="C78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D78" s="2"/>
-      <c r="E78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F78" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="M78" s="2"/>
-      <c r="N78" s="2"/>
-      <c r="O78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P78" s="2"/>
-      <c r="Q78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN78" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="79" hidden="true">
-      <c r="A79" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="B79" s="2"/>
-      <c r="C79" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="D79" s="2"/>
-      <c r="E79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N79" s="2"/>
-      <c r="O79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P79" s="2"/>
-      <c r="Q79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN79" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="80" hidden="true">
-      <c r="A80" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="B80" s="2"/>
-      <c r="C80" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="D80" s="2"/>
-      <c r="E80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="K80" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P80" s="2"/>
-      <c r="Q80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN80" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="81" hidden="true">
-      <c r="A81" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="B81" s="2"/>
-      <c r="C81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D81" s="2"/>
-      <c r="E81" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="F81" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="G81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J81" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="K81" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="N81" s="2"/>
-      <c r="O81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P81" s="2"/>
-      <c r="Q81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W81" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="X81" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="Z81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN81" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="82" hidden="true">
-      <c r="A82" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="B82" s="2"/>
-      <c r="C82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D82" s="2"/>
-      <c r="E82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P82" s="2"/>
-      <c r="Q82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN82" t="s" s="2">
         <v>77</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN82">
+  <autoFilter ref="A1:AN71">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11424,7 +10025,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI81">
+  <conditionalFormatting sqref="A2:AI70">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-questionnaire-s37.xlsx
+++ b/StructureDefinition-questionnaire-s37.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2611" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2611" uniqueCount="480">
   <si>
     <t>Property</t>
   </si>
@@ -539,6 +539,9 @@
   </si>
   <si>
     <t>There may be different questionnaire instances that have the same identifier but different versions.  The version can be appended to the url in a reference to allow a reference to a particular business version of the questionnaire with the format [url]|[version].</t>
+  </si>
+  <si>
+    <t>1.0.0A-S37</t>
   </si>
   <si>
     <t>Definition.version</t>
@@ -3413,7 +3416,7 @@
         <v>77</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>5</v>
+        <v>168</v>
       </c>
       <c r="S14" t="s" s="2">
         <v>77</v>
@@ -3467,13 +3470,13 @@
         <v>95</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>77</v>
@@ -3484,7 +3487,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3510,16 +3513,16 @@
         <v>85</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>77</v>
@@ -3568,7 +3571,7 @@
         <v>77</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>75</v>
@@ -3577,7 +3580,7 @@
         <v>83</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>95</v>
@@ -3600,7 +3603,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3626,13 +3629,13 @@
         <v>85</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3682,7 +3685,7 @@
         <v>77</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>75</v>
@@ -3697,10 +3700,10 @@
         <v>95</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>77</v>
@@ -3714,7 +3717,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3737,17 +3740,17 @@
         <v>77</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>77</v>
@@ -3796,7 +3799,7 @@
         <v>77</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>75</v>
@@ -3811,10 +3814,10 @@
         <v>95</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>77</v>
@@ -3828,7 +3831,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3854,13 +3857,13 @@
         <v>103</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3886,13 +3889,13 @@
         <v>77</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>77</v>
@@ -3910,7 +3913,7 @@
         <v>77</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>83</v>
@@ -3925,13 +3928,13 @@
         <v>95</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>77</v>
@@ -3942,7 +3945,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3965,19 +3968,19 @@
         <v>84</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>77</v>
@@ -4026,7 +4029,7 @@
         <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>75</v>
@@ -4041,13 +4044,13 @@
         <v>95</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>126</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>77</v>
@@ -4058,7 +4061,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4084,13 +4087,13 @@
         <v>103</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -4116,13 +4119,13 @@
         <v>77</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>77</v>
@@ -4140,7 +4143,7 @@
         <v>77</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>75</v>
@@ -4155,10 +4158,10 @@
         <v>95</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>77</v>
@@ -4172,11 +4175,11 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -4195,16 +4198,16 @@
         <v>84</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4254,7 +4257,7 @@
         <v>77</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>75</v>
@@ -4269,13 +4272,13 @@
         <v>95</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>77</v>
@@ -4286,7 +4289,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4312,16 +4315,16 @@
         <v>85</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>77</v>
@@ -4370,7 +4373,7 @@
         <v>77</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>75</v>
@@ -4385,13 +4388,13 @@
         <v>95</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>77</v>
@@ -4402,7 +4405,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4425,16 +4428,16 @@
         <v>84</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4484,7 +4487,7 @@
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>75</v>
@@ -4499,10 +4502,10 @@
         <v>95</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>77</v>
@@ -4516,7 +4519,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4539,16 +4542,16 @@
         <v>77</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4598,7 +4601,7 @@
         <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>75</v>
@@ -4613,10 +4616,10 @@
         <v>95</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>77</v>
@@ -4630,7 +4633,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4653,19 +4656,19 @@
         <v>84</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>77</v>
@@ -4714,7 +4717,7 @@
         <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>75</v>
@@ -4729,10 +4732,10 @@
         <v>95</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>77</v>
@@ -4746,7 +4749,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4769,16 +4772,16 @@
         <v>84</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4804,13 +4807,13 @@
         <v>77</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>77</v>
@@ -4828,7 +4831,7 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>75</v>
@@ -4843,10 +4846,10 @@
         <v>95</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>77</v>
@@ -4860,7 +4863,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4883,16 +4886,16 @@
         <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4942,7 +4945,7 @@
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>75</v>
@@ -4957,13 +4960,13 @@
         <v>95</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>163</v>
@@ -4974,11 +4977,11 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4997,17 +5000,17 @@
         <v>77</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>77</v>
@@ -5056,7 +5059,7 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>75</v>
@@ -5071,10 +5074,10 @@
         <v>95</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>
@@ -5088,7 +5091,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5111,16 +5114,16 @@
         <v>77</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5170,7 +5173,7 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>75</v>
@@ -5185,10 +5188,10 @@
         <v>95</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>77</v>
@@ -5202,7 +5205,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5225,19 +5228,19 @@
         <v>77</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>77</v>
@@ -5286,7 +5289,7 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>75</v>
@@ -5301,10 +5304,10 @@
         <v>95</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>77</v>
@@ -5318,7 +5321,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5341,19 +5344,19 @@
         <v>84</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>77</v>
@@ -5402,7 +5405,7 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>75</v>
@@ -5417,10 +5420,10 @@
         <v>95</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>77</v>
@@ -5434,7 +5437,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5457,17 +5460,17 @@
         <v>84</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>77</v>
@@ -5492,13 +5495,13 @@
         <v>77</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>77</v>
@@ -5516,7 +5519,7 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>75</v>
@@ -5534,7 +5537,7 @@
         <v>77</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>77</v>
@@ -5548,7 +5551,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5571,16 +5574,16 @@
         <v>77</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5630,7 +5633,7 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>75</v>
@@ -5639,16 +5642,16 @@
         <v>76</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>77</v>
@@ -5662,7 +5665,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5688,10 +5691,10 @@
         <v>85</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5742,7 +5745,7 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>75</v>
@@ -5760,7 +5763,7 @@
         <v>77</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>77</v>
@@ -5774,7 +5777,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5852,7 +5855,7 @@
         <v>132</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>75</v>
@@ -5884,10 +5887,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C36" t="s" s="2">
         <v>77</v>
@@ -5909,13 +5912,13 @@
         <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5966,7 +5969,7 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>75</v>
@@ -5998,10 +6001,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C37" t="s" s="2">
         <v>77</v>
@@ -6023,16 +6026,16 @@
         <v>77</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6082,7 +6085,7 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>75</v>
@@ -6114,10 +6117,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C38" t="s" s="2">
         <v>77</v>
@@ -6139,16 +6142,16 @@
         <v>77</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6198,7 +6201,7 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>75</v>
@@ -6230,10 +6233,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C39" t="s" s="2">
         <v>77</v>
@@ -6255,10 +6258,10 @@
         <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L39" t="s" s="2">
         <v>130</v>
@@ -6312,7 +6315,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>75</v>
@@ -6344,11 +6347,11 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -6370,10 +6373,10 @@
         <v>128</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M40" t="s" s="2">
         <v>144</v>
@@ -6428,7 +6431,7 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>75</v>
@@ -6460,7 +6463,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6486,16 +6489,16 @@
         <v>85</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>77</v>
@@ -6544,7 +6547,7 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>83</v>
@@ -6562,7 +6565,7 @@
         <v>77</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>77</v>
@@ -6576,7 +6579,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6602,16 +6605,16 @@
         <v>97</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>77</v>
@@ -6660,7 +6663,7 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>75</v>
@@ -6678,7 +6681,7 @@
         <v>77</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>77</v>
@@ -6692,7 +6695,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6715,19 +6718,19 @@
         <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>77</v>
@@ -6752,13 +6755,13 @@
         <v>77</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>77</v>
@@ -6776,7 +6779,7 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>75</v>
@@ -6785,7 +6788,7 @@
         <v>76</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>95</v>
@@ -6794,7 +6797,7 @@
         <v>77</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>77</v>
@@ -6808,11 +6811,11 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6834,16 +6837,16 @@
         <v>85</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>77</v>
@@ -6892,7 +6895,7 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>75</v>
@@ -6910,7 +6913,7 @@
         <v>77</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>77</v>
@@ -6924,7 +6927,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6950,13 +6953,13 @@
         <v>85</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -7006,7 +7009,7 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>75</v>
@@ -7024,7 +7027,7 @@
         <v>77</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>77</v>
@@ -7038,7 +7041,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7064,16 +7067,16 @@
         <v>103</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>77</v>
@@ -7098,13 +7101,13 @@
         <v>77</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>77</v>
@@ -7122,7 +7125,7 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>83</v>
@@ -7140,7 +7143,7 @@
         <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>77</v>
@@ -7154,7 +7157,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7177,19 +7180,19 @@
         <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>77</v>
@@ -7238,7 +7241,7 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>75</v>
@@ -7250,13 +7253,13 @@
         <v>77</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>77</v>
@@ -7270,7 +7273,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7296,10 +7299,10 @@
         <v>85</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7350,7 +7353,7 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>75</v>
@@ -7368,7 +7371,7 @@
         <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>77</v>
@@ -7382,7 +7385,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7408,10 +7411,10 @@
         <v>128</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M49" t="s" s="2">
         <v>144</v>
@@ -7464,7 +7467,7 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>75</v>
@@ -7482,7 +7485,7 @@
         <v>77</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>77</v>
@@ -7496,11 +7499,11 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7522,10 +7525,10 @@
         <v>128</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M50" t="s" s="2">
         <v>144</v>
@@ -7580,7 +7583,7 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>75</v>
@@ -7612,7 +7615,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7638,13 +7641,13 @@
         <v>85</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7694,7 +7697,7 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>83</v>
@@ -7712,7 +7715,7 @@
         <v>77</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>77</v>
@@ -7726,7 +7729,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7752,10 +7755,10 @@
         <v>103</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7782,13 +7785,13 @@
         <v>77</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>77</v>
@@ -7806,7 +7809,7 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>83</v>
@@ -7824,7 +7827,7 @@
         <v>77</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>77</v>
@@ -7838,7 +7841,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7861,13 +7864,13 @@
         <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7894,13 +7897,13 @@
         <v>77</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>77</v>
@@ -7918,7 +7921,7 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>83</v>
@@ -7927,7 +7930,7 @@
         <v>83</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>95</v>
@@ -7936,7 +7939,7 @@
         <v>77</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>77</v>
@@ -7950,7 +7953,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7976,13 +7979,13 @@
         <v>103</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -8008,13 +8011,13 @@
         <v>77</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>77</v>
@@ -8032,7 +8035,7 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>75</v>
@@ -8041,7 +8044,7 @@
         <v>83</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>95</v>
@@ -8050,7 +8053,7 @@
         <v>77</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>77</v>
@@ -8064,7 +8067,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8087,23 +8090,23 @@
         <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P55" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q55" t="s" s="2">
         <v>77</v>
@@ -8148,7 +8151,7 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>75</v>
@@ -8157,7 +8160,7 @@
         <v>83</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>95</v>
@@ -8166,7 +8169,7 @@
         <v>77</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>77</v>
@@ -8180,7 +8183,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8203,79 +8206,79 @@
         <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P56" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="Q56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE56" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="L56" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P56" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="Q56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE56" t="s" s="2">
+      <c r="AF56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH56" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>95</v>
@@ -8284,7 +8287,7 @@
         <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>77</v>
@@ -8298,7 +8301,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8321,19 +8324,19 @@
         <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>77</v>
@@ -8382,7 +8385,7 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>75</v>
@@ -8391,7 +8394,7 @@
         <v>83</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>95</v>
@@ -8400,7 +8403,7 @@
         <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
@@ -8414,7 +8417,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8437,16 +8440,16 @@
         <v>77</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8496,7 +8499,7 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>75</v>
@@ -8505,7 +8508,7 @@
         <v>83</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>95</v>
@@ -8514,7 +8517,7 @@
         <v>77</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -8528,7 +8531,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8551,16 +8554,16 @@
         <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8610,7 +8613,7 @@
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>75</v>
@@ -8619,7 +8622,7 @@
         <v>83</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>95</v>
@@ -8628,7 +8631,7 @@
         <v>77</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>77</v>
@@ -8642,7 +8645,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8665,16 +8668,16 @@
         <v>77</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -8724,7 +8727,7 @@
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>75</v>
@@ -8733,7 +8736,7 @@
         <v>76</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>95</v>
@@ -8742,7 +8745,7 @@
         <v>77</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>77</v>
@@ -8756,7 +8759,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8782,10 +8785,10 @@
         <v>85</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8836,7 +8839,7 @@
         <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>75</v>
@@ -8854,7 +8857,7 @@
         <v>77</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>77</v>
@@ -8868,7 +8871,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8894,10 +8897,10 @@
         <v>128</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M62" t="s" s="2">
         <v>144</v>
@@ -8950,7 +8953,7 @@
         <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>75</v>
@@ -8968,7 +8971,7 @@
         <v>77</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>77</v>
@@ -8982,11 +8985,11 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9008,10 +9011,10 @@
         <v>128</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M63" t="s" s="2">
         <v>144</v>
@@ -9066,7 +9069,7 @@
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>75</v>
@@ -9098,7 +9101,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9121,16 +9124,16 @@
         <v>77</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9156,13 +9159,13 @@
         <v>77</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>77</v>
@@ -9180,7 +9183,7 @@
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>83</v>
@@ -9198,7 +9201,7 @@
         <v>77</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>77</v>
@@ -9212,7 +9215,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9235,23 +9238,23 @@
         <v>77</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P65" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Q65" t="s" s="2">
         <v>77</v>
@@ -9296,7 +9299,7 @@
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>75</v>
@@ -9314,7 +9317,7 @@
         <v>77</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>77</v>
@@ -9328,7 +9331,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9351,19 +9354,19 @@
         <v>77</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>77</v>
@@ -9412,7 +9415,7 @@
         <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>75</v>
@@ -9421,7 +9424,7 @@
         <v>76</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>95</v>
@@ -9430,7 +9433,7 @@
         <v>77</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>77</v>
@@ -9444,7 +9447,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9470,10 +9473,10 @@
         <v>85</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -9524,7 +9527,7 @@
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>75</v>
@@ -9542,7 +9545,7 @@
         <v>77</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>77</v>
@@ -9556,7 +9559,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9582,10 +9585,10 @@
         <v>128</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M68" t="s" s="2">
         <v>144</v>
@@ -9638,7 +9641,7 @@
         <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>75</v>
@@ -9656,7 +9659,7 @@
         <v>77</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>77</v>
@@ -9670,11 +9673,11 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -9696,10 +9699,10 @@
         <v>128</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M69" t="s" s="2">
         <v>144</v>
@@ -9754,7 +9757,7 @@
         <v>77</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>75</v>
@@ -9786,7 +9789,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9809,16 +9812,16 @@
         <v>77</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -9844,13 +9847,13 @@
         <v>77</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>77</v>
@@ -9868,7 +9871,7 @@
         <v>77</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>83</v>
@@ -9886,7 +9889,7 @@
         <v>77</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>77</v>
@@ -9900,7 +9903,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9926,16 +9929,16 @@
         <v>77</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>77</v>
@@ -9984,7 +9987,7 @@
         <v>77</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>75</v>
@@ -9993,7 +9996,7 @@
         <v>76</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>95</v>
@@ -10002,7 +10005,7 @@
         <v>77</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>77</v>

--- a/StructureDefinition-questionnaire-s37.xlsx
+++ b/StructureDefinition-questionnaire-s37.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://science37.com/StructureDefinition/questionnaire-s37</t>
+    <t>http://science37.com/fhir/StructureDefinition/questionnaire-s37</t>
   </si>
   <si>
     <t>Version</t>
@@ -440,7 +440,7 @@
     <t>settings</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://science37.com/StructureDefinition/form-settings}
+    <t xml:space="preserve">Extension {http://science37.com/fhir/StructureDefinition/form-settings}
 </t>
   </si>
   <si>
@@ -1019,7 +1019,7 @@
     <t>Settings</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://science37.com/StructureDefinition/item-settings}
+    <t xml:space="preserve">Extension {http://science37.com/fhir/StructureDefinition/item-settings}
 </t>
   </si>
   <si>
@@ -1064,7 +1064,7 @@
     <t>observationExtract</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://science37.com/StructureDefinition/observation-Extract}
+    <t xml:space="preserve">Extension {http://science37.com/fhir/StructureDefinition/observation-Extract}
 </t>
   </si>
   <si>
